--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B506F22-9459-4C40-8FE2-33D9B893931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F8373-6A1D-40EB-9B4E-4DB9BD28AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>fora do constructor</t>
   </si>
@@ -809,45 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,6 +830,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,12 +1212,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="47"/>
       <c r="I1" s="48" t="s">
         <v>38</v>
@@ -1229,10 +1229,10 @@
         <f>LOWER(I1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1242,8 +1242,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
       <c r="W2" s="39"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1251,15 +1251,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-      <c r="P3" s="58" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="P3" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="59"/>
+      <c r="Q3" s="70"/>
       <c r="U3" s="43"/>
       <c r="V3" s="43"/>
       <c r="W3" s="43"/>
@@ -1296,10 +1296,10 @@
       <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="57"/>
+      <c r="Q4" s="68"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="44"/>
@@ -1607,11 +1607,11 @@
       <c r="AE16" s="40"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="40"/>
@@ -2082,7 +2082,7 @@
   <dimension ref="B1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,8 +2855,9 @@
         <f>IF(Entry!P6="x","public set created(date: Date) {this._created = date; }","")</f>
         <v>public set created(date: Date) {this._created = date; }</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
+      <c r="F13" t="str">
+        <f>IF(Entry!D16="x",Entry!J16&amp;": this._"&amp;Entry!J16&amp;", ","")</f>
+        <v/>
       </c>
       <c r="H13" s="54"/>
       <c r="M13" s="54"/>
@@ -2888,8 +2889,9 @@
         <f>IF(Entry!Q6="x","public set updated(date: Date) {this._updated = date; }","")</f>
         <v>public set updated(date: Date) {this._updated = date; }</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
+      <c r="F14" t="str">
+        <f>IF(Entry!D17="x",Entry!J17&amp;": this._"&amp;Entry!J17&amp;", ","")</f>
+        <v/>
       </c>
       <c r="H14" s="54"/>
       <c r="M14" s="54"/>
@@ -2925,8 +2927,9 @@
         <f>E2&amp;E3&amp;E4&amp;E5&amp;E6&amp;E7&amp;E8&amp;E9&amp;E10&amp;E11&amp;E12&amp;E13&amp;E14</f>
         <v>public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
+      <c r="F15" t="str">
+        <f>IF(Entry!D18="x",Entry!J18&amp;": this._"&amp;Entry!J18&amp;", ","")</f>
+        <v/>
       </c>
       <c r="H15" s="54"/>
       <c r="J15" t="str">
@@ -3014,8 +3017,9 @@
         <f>IF(Entry!F19="x","public set "&amp;Entry!J19&amp;"("&amp;Entry!J19&amp;": "&amp;Entry!K19&amp;") { this._"&amp;Entry!J19&amp;" = "&amp;Entry!J19&amp;"; }","")</f>
         <v>public set name(name: string) { this._name = name; }</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
+      <c r="F18" t="str">
+        <f>IF(Entry!D19="x",Entry!J19&amp;": this._"&amp;Entry!J19&amp;", ","")</f>
+        <v xml:space="preserve">name: this._name, </v>
       </c>
       <c r="G18" t="str">
         <f>IF(Entry!B19=1,"entity."&amp;Entry!J19&amp;", ","")</f>
@@ -3068,8 +3072,9 @@
         <f>IF(Entry!F20="x","public set "&amp;Entry!J20&amp;"("&amp;Entry!J20&amp;": "&amp;Entry!K20&amp;") { this._"&amp;Entry!J20&amp;" = "&amp;Entry!J20&amp;"; }","")</f>
         <v>public set price(price: number) { this._price = price; }</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
+      <c r="F19" t="str">
+        <f>IF(Entry!D20="x",Entry!J20&amp;": this._"&amp;Entry!J20&amp;", ","")</f>
+        <v xml:space="preserve">price: this._price, </v>
       </c>
       <c r="G19" t="str">
         <f>IF(Entry!B20=1,"entity."&amp;Entry!J20&amp;", ","")</f>
@@ -3825,7 +3830,7 @@
       </c>
       <c r="F37" t="str">
         <f>F2&amp;F3&amp;F4&amp;F5&amp;F6&amp;F7&amp;F8&amp;F9&amp;F10&amp;F11&amp;F12&amp;F18&amp;F19&amp;F20&amp;F21&amp;F22&amp;F23&amp;F24&amp;F25&amp;F26&amp;F27&amp;F28&amp;F29&amp;F30&amp;F31&amp;F32&amp;F33&amp;F34&amp;F35&amp;F36</f>
-        <v xml:space="preserve">id: this._id,   </v>
+        <v xml:space="preserve">id: this._id, name: this._name, price: this._price, </v>
       </c>
       <c r="G37" t="str">
         <f>G18&amp;G19&amp;G20&amp;G21&amp;G22&amp;G23&amp;G24&amp;G25&amp;G26&amp;G27&amp;G28&amp;G29&amp;G30&amp;G31&amp;G32&amp;G33&amp;G34&amp;G35&amp;G36</f>
@@ -3848,7 +3853,7 @@
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F38" t="str">
         <f>"public toJson() { return { "&amp;F37&amp;" }; }"</f>
-        <v>public toJson() { return { id: this._id,    }; }</v>
+        <v>public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }</v>
       </c>
       <c r="G38" t="str">
         <f>"public static "&amp;G17&amp;"(entity: any) { const created = new "&amp;Entry!I1&amp;"("&amp;Engine!G37&amp;"); created.id = entity.id; return created; }"</f>
@@ -3884,9 +3889,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F37" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3895,7 +3897,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,108 +3909,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="str">
+      <c r="A3" s="57" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!I1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
-        <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id,    }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
-      </c>
-      <c r="B3" s="72" t="str">
+        <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
+      </c>
+      <c r="B3" s="59" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".model.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="str">
+      <c r="A6" s="57" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!I1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
-      <c r="B6" s="72" t="str">
+      <c r="B6" s="59" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".entity.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="str">
+      <c r="A9" s="57" t="str">
         <f>Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!I1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" } // Configurar os usecases corretos e imports"</f>
         <v>import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } } // Configurar os usecases corretos e imports</v>
       </c>
-      <c r="B9" s="72" t="str">
+      <c r="B9" s="59" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".controller.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="60"/>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="str">
+      <c r="A12" s="57" t="str">
         <f>Engine!V1&amp;" export class "&amp;Entry!I1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
         <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
-      <c r="B12" s="72" t="str">
+      <c r="B12" s="59" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".repository.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="60"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="str">
+      <c r="A15" s="57" t="str">
         <f>Engine!AA1&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
         <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', newStoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , newStoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
-      <c r="B15" s="72" t="str">
+      <c r="B15" s="59" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".routes.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F8373-6A1D-40EB-9B4E-4DB9BD28AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A615791F-4CB2-4657-B37D-911FBEB0EB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5156362B-539B-4F74-A6D1-CC923D025A62}">
   <dimension ref="B1:AC39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W1" activeCellId="3" sqref="T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,8 +2299,8 @@
         <v>18</v>
       </c>
       <c r="W3" t="str">
-        <f>"public async create("&amp;LOWER(Entry!I1)&amp;": "&amp;Entry!I1&amp;") { const "&amp;LOWER(Entry!I1)&amp;Engine!J1&amp;" = this.connection.create({ "&amp;T24&amp;"}); const results = this.connection.save("&amp;LOWER(Entry!I1)&amp;Engine!J1&amp;"); return "&amp;Entry!I1&amp;Engine!T1&amp;".toModel(results);}"</f>
-        <v>public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = this.connection.save(storeEntity); return StoreRepository.toModel(results);}</v>
+        <f>"public async create("&amp;LOWER(Entry!I1)&amp;": "&amp;Entry!I1&amp;") { const "&amp;LOWER(Entry!I1)&amp;Engine!J1&amp;" = this.connection.create({ "&amp;T24&amp;"}); const results = await  this.connection.save("&amp;LOWER(Entry!I1)&amp;Engine!J1&amp;"); return "&amp;Entry!I1&amp;Engine!T1&amp;".toModel(results);}"</f>
+        <v>public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}</v>
       </c>
       <c r="X3" s="54" t="s">
         <v>18</v>
@@ -3897,7 +3897,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,7 +3981,7 @@
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="str">
         <f>Engine!V1&amp;" export class "&amp;Entry!I1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
-        <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
+        <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
       <c r="B12" s="59" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".repository.ts"</f>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A615791F-4CB2-4657-B37D-911FBEB0EB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7219B-9690-47D0-BC5A-99969355BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +168,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,6 +198,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -310,19 +317,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -347,188 +341,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,19 +390,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -674,94 +477,537 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -771,15 +1017,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -789,85 +1035,216 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604D5C4-F202-47E4-B536-0D1232179344}">
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,32 +1584,32 @@
     <col min="16" max="17" width="18.7109375" style="2" customWidth="1"/>
     <col min="18" max="19" width="9.140625" style="2" customWidth="1"/>
     <col min="20" max="30" width="9.140625" style="2"/>
-    <col min="31" max="32" width="9.140625" style="38" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="8" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="50" t="str">
-        <f>LOWER(I1)&amp;"s"</f>
+      <c r="K1" s="18" t="str">
+        <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="77"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1240,838 +1617,841 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
-      <c r="W2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="P3" s="69" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="P3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
+      <c r="Q3" s="37"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="68"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="7"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="7"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="3"/>
     </row>
     <row r="6" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="M6" s="14"/>
-      <c r="P6" s="52" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="62"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
+      <c r="M6" s="83"/>
+      <c r="P6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="7"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="3"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="M7" s="14"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="7"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
+      <c r="M7" s="84"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="3"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="M8" s="14"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="7"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="M8" s="85"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="M9" s="20"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="7"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="78"/>
+      <c r="M9" s="86"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="M10" s="14"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="7"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="62"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="M10" s="85"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="M11" s="14"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="7"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="M11" s="85"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="3"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="M12" s="20"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="7"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="M12" s="87"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="M13" s="14"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="7"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
+      <c r="M13" s="85"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="3"/>
     </row>
     <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="21"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="M14" s="21"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="7"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="M14" s="88"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="3"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="AE15" s="40"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="AE15" s="10"/>
     </row>
     <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE16" s="40"/>
+      <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="AE17" s="40"/>
+      <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="54" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="AE18" s="40"/>
+      <c r="AE18" s="10"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="I19" s="11" t="s">
+      <c r="G19" s="91"/>
+      <c r="I19" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="I20" s="11" t="s">
+      <c r="G20" s="92"/>
+      <c r="I20" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="33"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="92"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="33"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="92"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="33"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="92"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="33"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="92"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="M24" s="59"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="33"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="92"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="33"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="92"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="33"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="92"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="33"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="92"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="33"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="40"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="92"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="33"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="92"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="33"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="92"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="33"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="92"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="33"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="40"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="92"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="33"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="92"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="33"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="40"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="92"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="33"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="40"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="92"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
     </row>
     <row r="37" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="34"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="40"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="81"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="41" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="1048575" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I1048575" s="11"/>
+      <c r="I1048575" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2102,7 +2482,7 @@
         <f>IF(Entry!M5="createUuid()","import { v4 as createUuid } from 'uuid';","")</f>
         <v>import { v4 as createUuid } from 'uuid';</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J1" t="s">
@@ -2114,7 +2494,7 @@
       <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N1" t="s">
@@ -2135,7 +2515,7 @@
         <f>N2&amp;N3&amp;O26&amp;O3&amp;N4&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
         <v>try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -2145,7 +2525,7 @@
         <f>"import { Database } from '../../../../main/database/database.connection';"</f>
         <v>import { Database } from '../../../../main/database/database.connection';</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y1" t="s">
@@ -2159,7 +2539,7 @@
         <v>18</v>
       </c>
       <c r="AC1" t="str">
-        <f>Entry!I1&amp;Engine!N1</f>
+        <f>Entry!H1&amp;Engine!N1</f>
         <v>StoreController</v>
       </c>
     </row>
@@ -2187,7 +2567,7 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="54"/>
+      <c r="H2" s="21"/>
       <c r="I2" t="str">
         <f>IF(Entry!G5="x","@PrimaryColumn()"&amp;Entry!$J5&amp;": "&amp;Entry!$K5&amp;"; ","@Column()"&amp;Entry!$J5&amp;": "&amp;Entry!$K5&amp;"; ")</f>
         <v xml:space="preserve">@PrimaryColumn()id: string; </v>
@@ -2202,7 +2582,7 @@
       <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="str">
@@ -2221,18 +2601,18 @@
         <f>N2&amp;N4&amp;O4&amp;N5</f>
         <v>try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W2" t="str">
-        <f>"private connection = Database.connection.getRepository("&amp;Entry!I1&amp;Engine!J1&amp;");"</f>
+        <f>"private connection = Database.connection.getRepository("&amp;Entry!H1&amp;Engine!J1&amp;");"</f>
         <v>private connection = Database.connection.getRepository(StoreEntity);</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y2" t="str">
-        <f>"export const "&amp;LOWER(Entry!I1)&amp;Engine!Y1&amp;" = () =&gt; { const app = Router(); "</f>
+        <f>"export const "&amp;LOWER(Entry!H1)&amp;Engine!Y1&amp;" = () =&gt; { const app = Router(); "</f>
         <v xml:space="preserve">export const storeRoutes = () =&gt; { const app = Router(); </v>
       </c>
     </row>
@@ -2257,7 +2637,7 @@
         <f>IF(Entry!D6="x",Entry!J6&amp;": this._"&amp;Entry!J6&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H3" s="54"/>
+      <c r="H3" s="21"/>
       <c r="I3" t="str">
         <f>IF(Entry!G6="x","@PrimaryColumn()"&amp;Entry!$J6&amp;": "&amp;Entry!$K6&amp;"; ","@Column()"&amp;Entry!$J6&amp;": "&amp;Entry!$K6&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2272,7 +2652,7 @@
       <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N3" t="str">
@@ -2295,14 +2675,14 @@
         <f>N2&amp;N3&amp;O6&amp;P3&amp;N4&amp;O6&amp;O4&amp;N5</f>
         <v>try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W3" t="str">
-        <f>"public async create("&amp;LOWER(Entry!I1)&amp;": "&amp;Entry!I1&amp;") { const "&amp;LOWER(Entry!I1)&amp;Engine!J1&amp;" = this.connection.create({ "&amp;T24&amp;"}); const results = await  this.connection.save("&amp;LOWER(Entry!I1)&amp;Engine!J1&amp;"); return "&amp;Entry!I1&amp;Engine!T1&amp;".toModel(results);}"</f>
+        <f>"public async create("&amp;LOWER(Entry!H1)&amp;": "&amp;Entry!H1&amp;") { const "&amp;LOWER(Entry!H1)&amp;Engine!J1&amp;" = this.connection.create({ "&amp;T24&amp;"}); const results = await  this.connection.save("&amp;LOWER(Entry!H1)&amp;Engine!J1&amp;"); return "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(results);}"</f>
         <v>public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y3" t="str">
@@ -2331,7 +2711,7 @@
         <f>IF(Entry!D7="x",Entry!J7&amp;": this._"&amp;Entry!J7&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="21"/>
       <c r="I4" t="str">
         <f>IF(Entry!G7="x","@PrimaryColumn()"&amp;Entry!$J7&amp;": "&amp;Entry!$K7&amp;"; ","@Column()"&amp;Entry!$J7&amp;": "&amp;Entry!$K7&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2343,7 +2723,7 @@
       <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="54"/>
+      <c r="M4" s="21"/>
       <c r="N4" t="str">
         <f>"const result = await new methodUseCase().execute("</f>
         <v>const result = await new methodUseCase().execute(</v>
@@ -2360,7 +2740,7 @@
         <f>N2&amp;N3&amp;O6&amp;P3&amp;N3&amp;O26&amp;O3&amp;N4&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
         <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="S4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="T4" t="str">
@@ -2368,14 +2748,14 @@
         <v>id</v>
       </c>
       <c r="U4" t="str">
-        <f>IF(Entry!B5=1,": "&amp;LOWER(Entry!I1)&amp;"."&amp;T4&amp;", ","")</f>
+        <f>IF(Entry!B5=1,": "&amp;LOWER(Entry!H1)&amp;"."&amp;T4&amp;", ","")</f>
         <v xml:space="preserve">: store.id, </v>
       </c>
       <c r="W4" t="str">
-        <f>"public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; "&amp;Entry!I1&amp;Engine!T1&amp;".toModel(entity));}"</f>
+        <f>"public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(entity));}"</f>
         <v>public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y4" t="str">
@@ -2404,7 +2784,7 @@
         <f>IF(Entry!D8="x",Entry!J8&amp;": this._"&amp;Entry!J8&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H5" s="54"/>
+      <c r="H5" s="21"/>
       <c r="I5" t="str">
         <f>IF(Entry!G8="x","@PrimaryColumn()"&amp;Entry!$J8&amp;": "&amp;Entry!$K8&amp;"; ","@Column()"&amp;Entry!$J8&amp;": "&amp;Entry!$K8&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2420,7 +2800,7 @@
         <f>J1&amp;", "&amp;K1&amp;", "&amp;L1</f>
         <v>Entity, Column, PrimaryColumn</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="N5" t="str">
@@ -2435,7 +2815,7 @@
         <f>N2&amp;N3&amp;O6&amp;P3&amp;N4&amp;O6&amp;O4&amp;N5</f>
         <v>try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="T5" t="str">
@@ -2443,14 +2823,14 @@
         <v>name</v>
       </c>
       <c r="U5" t="str">
-        <f>IF(Entry!B19=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T5&amp;", ","")</f>
+        <f>IF(Entry!B19=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T5&amp;", ","")</f>
         <v xml:space="preserve">: store.name, </v>
       </c>
       <c r="W5" t="str">
-        <f>"public async get("&amp;T4&amp;": "&amp;Entry!K5&amp;") { const result = await this.connection.findOneBy({ "&amp;T4&amp;", }); if(!result) { return undefined; } return "&amp;Entry!I1&amp;Engine!T1&amp;".toModel(result);}"</f>
+        <f>"public async get("&amp;T4&amp;": "&amp;Entry!K5&amp;") { const result = await this.connection.findOneBy({ "&amp;T4&amp;", }); if(!result) { return undefined; } return "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(result);}"</f>
         <v>public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}</v>
       </c>
-      <c r="X5" s="54" t="s">
+      <c r="X5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y5" t="str">
@@ -2479,7 +2859,7 @@
         <f>IF(Entry!D9="x",Entry!J9&amp;": this._"&amp;Entry!J9&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="21"/>
       <c r="I6" t="str">
         <f>IF(Entry!G9="x","@PrimaryColumn()"&amp;Entry!$J9&amp;": "&amp;Entry!$K9&amp;"; ","@Column()"&amp;Entry!$J9&amp;": "&amp;Entry!$K9&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2495,27 +2875,27 @@
         <f>IF(Entry!P6="x",", "&amp;Engine!L2,"")</f>
         <v>, CreateDateColumn</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O6" t="str">
         <f>Entry!J5</f>
         <v>id</v>
       </c>
-      <c r="S6" s="54"/>
+      <c r="S6" s="21"/>
       <c r="T6" t="str">
         <f>IF(Entry!B20=1,Entry!J20,"")</f>
         <v>price</v>
       </c>
       <c r="U6" t="str">
-        <f>IF(Entry!B20=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T6&amp;", ","")</f>
+        <f>IF(Entry!B20=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T6&amp;", ","")</f>
         <v xml:space="preserve">: store.price, </v>
       </c>
       <c r="W6" t="str">
-        <f>"public async update("&amp;LOWER(Entry!I1)&amp;": "&amp;Entry!I1&amp;") { await this.connection.update({"&amp;T4&amp;U4&amp;"},{"&amp;T25&amp;"});}"</f>
+        <f>"public async update("&amp;LOWER(Entry!H1)&amp;": "&amp;Entry!H1&amp;") { await this.connection.update({"&amp;T4&amp;U4&amp;"},{"&amp;T25&amp;"});}"</f>
         <v>public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y6" t="str">
@@ -2544,7 +2924,7 @@
         <f>IF(Entry!D10="x",Entry!J10&amp;": this._"&amp;Entry!J10&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="21"/>
       <c r="I7" t="str">
         <f>IF(Entry!G10="x","@PrimaryColumn()"&amp;Entry!$J10&amp;": "&amp;Entry!$K10&amp;"; ","@Column()"&amp;Entry!$J10&amp;": "&amp;Entry!$K10&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2560,27 +2940,27 @@
         <f>IF(Entry!Q6="x",", "&amp;Engine!L3,"")</f>
         <v>, UpdateDateColumn</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O7" t="str">
         <f>IF(Entry!B19=1,Entry!J19&amp;",","")</f>
         <v>name,</v>
       </c>
-      <c r="S7" s="54"/>
+      <c r="S7" s="21"/>
       <c r="T7" t="str">
         <f>IF(Entry!B21=1,Entry!J21,"")</f>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f>IF(Entry!B21=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T7&amp;", ","")</f>
+        <f>IF(Entry!B21=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T7&amp;", ","")</f>
         <v/>
       </c>
       <c r="W7" t="str">
         <f>"public async delete("&amp;T4&amp;": "&amp;Entry!K5&amp;") { const result = await this.connection.delete({ "&amp;Engine!T4&amp;",}); return result.affected ?? 0; }"</f>
         <v>public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }</v>
       </c>
-      <c r="X7" s="54" t="s">
+      <c r="X7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y7" t="str">
@@ -2609,7 +2989,7 @@
         <f>IF(Entry!D11="x",Entry!J11&amp;": this._"&amp;Entry!J11&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="21"/>
       <c r="I8" t="str">
         <f>IF(Entry!G11="x","@PrimaryColumn()"&amp;Entry!$J11&amp;": "&amp;Entry!$K11&amp;"; ","@Column()"&amp;Entry!$J11&amp;": "&amp;Entry!$K11&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2621,25 +3001,25 @@
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="54"/>
+      <c r="M8" s="21"/>
       <c r="O8" t="str">
         <f>IF(Entry!B20=1,Entry!J20&amp;",","")</f>
         <v>price,</v>
       </c>
-      <c r="S8" s="54"/>
+      <c r="S8" s="21"/>
       <c r="T8" t="str">
         <f>IF(Entry!B22=1,Entry!J22,"")</f>
         <v/>
       </c>
       <c r="U8" t="str">
-        <f>IF(Entry!B22=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T8&amp;", ","")</f>
+        <f>IF(Entry!B22=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T8&amp;", ","")</f>
         <v/>
       </c>
       <c r="W8" t="str">
-        <f>"public static toModel(entity: "&amp;Entry!I1&amp;Engine!J1&amp;" | null): "&amp;Entry!I1&amp;" { return "&amp;Entry!I1&amp;".create(entity);}"</f>
+        <f>"public static toModel(entity: "&amp;Entry!H1&amp;Engine!J1&amp;" | null): "&amp;Entry!H1&amp;" { return "&amp;Entry!H1&amp;".create(entity);}"</f>
         <v>public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);}</v>
       </c>
-      <c r="X8" s="54" t="s">
+      <c r="X8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Y8" t="s">
@@ -2667,7 +3047,7 @@
         <f>IF(Entry!D12="x",Entry!J12&amp;": this._"&amp;Entry!J12&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H9" s="54"/>
+      <c r="H9" s="21"/>
       <c r="I9" t="str">
         <f>IF(Entry!G12="x","@PrimaryColumn()"&amp;Entry!$J12&amp;": "&amp;Entry!$K12&amp;"; ","@Column()"&amp;Entry!$J12&amp;": "&amp;Entry!$K12&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2679,21 +3059,21 @@
       <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="54"/>
+      <c r="M9" s="21"/>
       <c r="O9" t="str">
         <f>IF(Entry!B21=1,Entry!J21&amp;",","")</f>
         <v/>
       </c>
-      <c r="S9" s="54"/>
+      <c r="S9" s="21"/>
       <c r="T9" t="str">
         <f>IF(Entry!B23=1,Entry!J23,"")</f>
         <v/>
       </c>
       <c r="U9" t="str">
-        <f>IF(Entry!B23=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T9&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X9" s="54"/>
+        <f>IF(Entry!B23=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T9&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X9" s="21"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
@@ -2716,7 +3096,7 @@
         <f>IF(Entry!D13="x",Entry!J13&amp;": this._"&amp;Entry!J13&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H10" s="54"/>
+      <c r="H10" s="21"/>
       <c r="I10" t="str">
         <f>IF(Entry!G13="x","@PrimaryColumn()"&amp;Entry!$J13&amp;": "&amp;Entry!$K13&amp;"; ","@Column()"&amp;Entry!$J13&amp;": "&amp;Entry!$K13&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2728,21 +3108,21 @@
       <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="54"/>
+      <c r="M10" s="21"/>
       <c r="O10" t="str">
         <f>IF(Entry!B22=1,Entry!J22&amp;",","")</f>
         <v/>
       </c>
-      <c r="S10" s="54"/>
+      <c r="S10" s="21"/>
       <c r="T10" t="str">
         <f>IF(Entry!B24=1,Entry!J24,"")</f>
         <v/>
       </c>
       <c r="U10" t="str">
-        <f>IF(Entry!B24=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T10&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X10" s="54"/>
+        <f>IF(Entry!B24=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T10&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X10" s="21"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
@@ -2765,7 +3145,7 @@
         <f>IF(Entry!D14="x",Entry!J14&amp;": this._"&amp;Entry!J14&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H11" s="54"/>
+      <c r="H11" s="21"/>
       <c r="I11" t="str">
         <f>IF(Entry!G14="x","@PrimaryColumn()"&amp;Entry!$J14&amp;": "&amp;Entry!$K14&amp;"; ","@Column()"&amp;Entry!$J14&amp;": "&amp;Entry!$K14&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2777,21 +3157,21 @@
       <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="54"/>
+      <c r="M11" s="21"/>
       <c r="O11" t="str">
         <f>IF(Entry!B23=1,Entry!J23&amp;",","")</f>
         <v/>
       </c>
-      <c r="S11" s="54"/>
+      <c r="S11" s="21"/>
       <c r="T11" t="str">
         <f>IF(Entry!B25=1,Entry!J25,"")</f>
         <v/>
       </c>
       <c r="U11" t="str">
-        <f>IF(Entry!B25=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T11&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X11" s="54"/>
+        <f>IF(Entry!B25=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T11&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X11" s="21"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
@@ -2814,7 +3194,7 @@
         <f>IF(Entry!D15="x",Entry!J15&amp;": this._"&amp;Entry!J15&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="21"/>
       <c r="I12" t="str">
         <f>IF(Entry!G15="x","@PrimaryColumn()"&amp;Entry!$J15&amp;": "&amp;Entry!$K15&amp;"; ","@Column()"&amp;Entry!$J15&amp;": "&amp;Entry!$K15&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -2826,21 +3206,21 @@
       <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="54"/>
+      <c r="M12" s="21"/>
       <c r="O12" t="str">
         <f>IF(Entry!B24=1,Entry!J24&amp;",","")</f>
         <v/>
       </c>
-      <c r="S12" s="54"/>
+      <c r="S12" s="21"/>
       <c r="T12" t="str">
         <f>IF(Entry!B26=1,Entry!J26,"")</f>
         <v/>
       </c>
       <c r="U12" t="str">
-        <f>IF(Entry!B26=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T12&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X12" s="54"/>
+        <f>IF(Entry!B26=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T12&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
@@ -2859,22 +3239,22 @@
         <f>IF(Entry!D16="x",Entry!J16&amp;": this._"&amp;Entry!J16&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="H13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="O13" t="str">
         <f>IF(Entry!B25=1,Entry!J25&amp;",","")</f>
         <v/>
       </c>
-      <c r="S13" s="54"/>
+      <c r="S13" s="21"/>
       <c r="T13" t="str">
         <f>IF(Entry!B27=1,Entry!J27,"")</f>
         <v/>
       </c>
       <c r="U13" t="str">
-        <f>IF(Entry!B27=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T13&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X13" s="54"/>
+        <f>IF(Entry!B27=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T13&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X13" s="21"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
@@ -2893,37 +3273,37 @@
         <f>IF(Entry!D17="x",Entry!J17&amp;": this._"&amp;Entry!J17&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H14" s="54"/>
-      <c r="M14" s="54"/>
+      <c r="H14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="O14" t="str">
         <f>IF(Entry!B26=1,Entry!J26&amp;",","")</f>
         <v/>
       </c>
-      <c r="S14" s="54"/>
+      <c r="S14" s="21"/>
       <c r="T14" t="str">
         <f>IF(Entry!B28=1,Entry!J28,"")</f>
         <v/>
       </c>
       <c r="U14" t="str">
-        <f>IF(Entry!B28=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T14&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X14" s="54"/>
+        <f>IF(Entry!B28=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T14&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="str">
+      <c r="B15" s="16" t="str">
         <f>B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14</f>
         <v>private _id: string; private _created?: Date;private _updated?: Date;</v>
       </c>
-      <c r="C15" s="46" t="str">
+      <c r="C15" s="16" t="str">
         <f>C2&amp;C3&amp;C4&amp;C5&amp;C6&amp;C7&amp;C8&amp;C9&amp;C10&amp;C11&amp;C12&amp;C13&amp;C14</f>
         <v xml:space="preserve">this._id = createUuid(); </v>
       </c>
-      <c r="D15" s="46" t="str">
+      <c r="D15" s="16" t="str">
         <f>D2&amp;D3&amp;D4&amp;D5&amp;D6&amp;D7&amp;D8&amp;D9&amp;D10&amp;D11&amp;D12&amp;D13&amp;D14</f>
         <v>public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }</v>
       </c>
-      <c r="E15" s="46" t="str">
+      <c r="E15" s="16" t="str">
         <f>E2&amp;E3&amp;E4&amp;E5&amp;E6&amp;E7&amp;E8&amp;E9&amp;E10&amp;E11&amp;E12&amp;E13&amp;E14</f>
         <v>public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }</v>
       </c>
@@ -2931,7 +3311,7 @@
         <f>IF(Entry!D18="x",Entry!J18&amp;": this._"&amp;Entry!J18&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H15" s="54"/>
+      <c r="H15" s="21"/>
       <c r="J15" t="str">
         <f>J2&amp;J3&amp;J4&amp;J5&amp;J6&amp;J7&amp;J8&amp;J9&amp;J10&amp;J11&amp;J12</f>
         <v xml:space="preserve">@PrimaryColumn()id: string; </v>
@@ -2940,41 +3320,41 @@
         <f>"import { "&amp;L5&amp;L6&amp;L7&amp;" } from 'typeorm'; "</f>
         <v xml:space="preserve">import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; </v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="M15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O15" t="str">
         <f>IF(Entry!B27=1,Entry!J27&amp;",","")</f>
         <v/>
       </c>
-      <c r="S15" s="54"/>
+      <c r="S15" s="21"/>
       <c r="T15" t="str">
         <f>IF(Entry!B29=1,Entry!J29,"")</f>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f>IF(Entry!B29=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T15&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X15" s="54"/>
+        <f>IF(Entry!B29=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T15&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X15" s="21"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="H16" s="54"/>
-      <c r="M16" s="54"/>
+      <c r="H16" s="21"/>
+      <c r="M16" s="21"/>
       <c r="O16" t="str">
         <f>IF(Entry!B28=1,Entry!J28&amp;",","")</f>
         <v/>
       </c>
-      <c r="S16" s="54"/>
+      <c r="S16" s="21"/>
       <c r="T16" t="str">
         <f>IF(Entry!B30=1,Entry!J30,"")</f>
         <v/>
       </c>
       <c r="U16" t="str">
-        <f>IF(Entry!B30=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T16&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X16" s="54"/>
+        <f>IF(Entry!B30=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T16&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X16" s="21"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2983,22 +3363,22 @@
       <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="M17" s="54"/>
+      <c r="H17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="O17" t="str">
         <f>IF(Entry!B29=1,Entry!J29&amp;",","")</f>
         <v/>
       </c>
-      <c r="S17" s="54"/>
+      <c r="S17" s="21"/>
       <c r="T17" t="str">
         <f>IF(Entry!B31=1,Entry!J31,"")</f>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f>IF(Entry!B31=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T17&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X17" s="54"/>
+        <f>IF(Entry!B31=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T17&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X17" s="21"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
@@ -3025,7 +3405,7 @@
         <f>IF(Entry!B19=1,"entity."&amp;Entry!J19&amp;", ","")</f>
         <v xml:space="preserve">entity.name, </v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I18" t="str">
@@ -3039,21 +3419,21 @@
       <c r="K18" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="54"/>
+      <c r="M18" s="21"/>
       <c r="O18" t="str">
         <f>IF(Entry!B30=1,Entry!J30&amp;",","")</f>
         <v/>
       </c>
-      <c r="S18" s="54"/>
+      <c r="S18" s="21"/>
       <c r="T18" t="str">
         <f>IF(Entry!B32=1,Entry!J32,"")</f>
         <v/>
       </c>
       <c r="U18" t="str">
-        <f>IF(Entry!B32=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T18&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X18" s="54"/>
+        <f>IF(Entry!B32=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T18&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
@@ -3080,7 +3460,7 @@
         <f>IF(Entry!B20=1,"entity."&amp;Entry!J20&amp;", ","")</f>
         <v xml:space="preserve">entity.price, </v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I19" t="str">
@@ -3094,21 +3474,21 @@
       <c r="K19" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="54"/>
+      <c r="M19" s="21"/>
       <c r="O19" t="str">
         <f>IF(Entry!B31=1,Entry!J31&amp;",","")</f>
         <v/>
       </c>
-      <c r="S19" s="54"/>
+      <c r="S19" s="21"/>
       <c r="T19" t="str">
         <f>IF(Entry!B33=1,Entry!J33,"")</f>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f>IF(Entry!B33=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T19&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X19" s="54"/>
+        <f>IF(Entry!B33=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T19&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X19" s="21"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
@@ -3131,7 +3511,7 @@
         <f>IF(Entry!B21=1,"entity."&amp;Entry!J21&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H20" s="54"/>
+      <c r="H20" s="21"/>
       <c r="I20" t="str">
         <f>IF(Entry!G21="x","@PrimaryColumn()"&amp;Entry!$J21&amp;": "&amp;Entry!$K21&amp;"; ","@Column()"&amp;Entry!$J21&amp;": "&amp;Entry!$K21&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3143,21 +3523,21 @@
       <c r="K20" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="54"/>
+      <c r="M20" s="21"/>
       <c r="O20" t="str">
         <f>IF(Entry!B32=1,Entry!J32&amp;",","")</f>
         <v/>
       </c>
-      <c r="S20" s="54"/>
+      <c r="S20" s="21"/>
       <c r="T20" t="str">
         <f>IF(Entry!B34=1,Entry!J34,"")</f>
         <v/>
       </c>
       <c r="U20" t="str">
-        <f>IF(Entry!B34=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T20&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X20" s="54"/>
+        <f>IF(Entry!B34=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T20&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
@@ -3180,7 +3560,7 @@
         <f>IF(Entry!B22=1,"entity."&amp;Entry!J22&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H21" s="54"/>
+      <c r="H21" s="21"/>
       <c r="I21" t="str">
         <f>IF(Entry!G22="x","@PrimaryColumn()"&amp;Entry!$J22&amp;": "&amp;Entry!$K22&amp;"; ","@Column()"&amp;Entry!$J22&amp;": "&amp;Entry!$K22&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3192,21 +3572,21 @@
       <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="54"/>
+      <c r="M21" s="21"/>
       <c r="O21" t="str">
         <f>IF(Entry!B33=1,Entry!J33&amp;",","")</f>
         <v/>
       </c>
-      <c r="S21" s="54"/>
+      <c r="S21" s="21"/>
       <c r="T21" t="str">
         <f>IF(Entry!B35=1,Entry!J35,"")</f>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f>IF(Entry!B35=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T21&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X21" s="54"/>
+        <f>IF(Entry!B35=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T21&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X21" s="21"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
@@ -3229,7 +3609,7 @@
         <f>IF(Entry!B23=1,"entity."&amp;Entry!J23&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H22" s="54"/>
+      <c r="H22" s="21"/>
       <c r="I22" t="str">
         <f>IF(Entry!G23="x","@PrimaryColumn()"&amp;Entry!$J23&amp;": "&amp;Entry!$K23&amp;"; ","@Column()"&amp;Entry!$J23&amp;": "&amp;Entry!$K23&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3241,21 +3621,21 @@
       <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="54"/>
+      <c r="M22" s="21"/>
       <c r="O22" t="str">
         <f>IF(Entry!B34=1,Entry!J34&amp;",","")</f>
         <v/>
       </c>
-      <c r="S22" s="54"/>
+      <c r="S22" s="21"/>
       <c r="T22" t="str">
         <f>IF(Entry!B36=1,Entry!J36,"")</f>
         <v/>
       </c>
       <c r="U22" t="str">
-        <f>IF(Entry!B36=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T22&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X22" s="54"/>
+        <f>IF(Entry!B36=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T22&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X22" s="21"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
@@ -3278,7 +3658,7 @@
         <f>IF(Entry!B24=1,"entity."&amp;Entry!J24&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H23" s="54"/>
+      <c r="H23" s="21"/>
       <c r="I23" t="str">
         <f>IF(Entry!G24="x","@PrimaryColumn()"&amp;Entry!$J24&amp;": "&amp;Entry!$K24&amp;"; ","@Column()"&amp;Entry!$J24&amp;": "&amp;Entry!$K24&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3290,21 +3670,21 @@
       <c r="K23" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="54"/>
+      <c r="M23" s="21"/>
       <c r="O23" t="str">
         <f>IF(Entry!B35=1,Entry!J35&amp;",","")</f>
         <v/>
       </c>
-      <c r="S23" s="54"/>
-      <c r="T23" s="55" t="str">
+      <c r="S23" s="21"/>
+      <c r="T23" s="22" t="str">
         <f>IF(Entry!B37=1,Entry!J37,"")</f>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f>IF(Entry!B37=1,": "&amp;LOWER(Entry!$I$1)&amp;"."&amp;T23&amp;", ","")</f>
-        <v/>
-      </c>
-      <c r="X23" s="54"/>
+        <f>IF(Entry!B37=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T23&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="X23" s="21"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
@@ -3327,7 +3707,7 @@
         <f>IF(Entry!B25=1,"entity."&amp;Entry!J25&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H24" s="54"/>
+      <c r="H24" s="21"/>
       <c r="I24" t="str">
         <f>IF(Entry!G25="x","@PrimaryColumn()"&amp;Entry!$J25&amp;": "&amp;Entry!$K25&amp;"; ","@Column()"&amp;Entry!$J25&amp;": "&amp;Entry!$K25&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3339,17 +3719,17 @@
       <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="54"/>
+      <c r="M24" s="21"/>
       <c r="O24" t="str">
         <f>IF(Entry!B36=1,Entry!J36&amp;",","")</f>
         <v/>
       </c>
-      <c r="S24" s="54"/>
+      <c r="S24" s="21"/>
       <c r="T24" t="str">
         <f>T4&amp;U4&amp;T5&amp;U5&amp;T6&amp;U6&amp;T7&amp;U7&amp;T8&amp;U8&amp;T9&amp;U9&amp;T10&amp;U10&amp;T11&amp;U11&amp;T12&amp;U12&amp;T13&amp;U13&amp;T14&amp;U14&amp;T15&amp;U15&amp;T16&amp;U16&amp;T17&amp;U17&amp;T18&amp;U18&amp;T19&amp;U19&amp;T20&amp;U20&amp;T21&amp;U21&amp;T22&amp;U22&amp;T23&amp;U23</f>
         <v xml:space="preserve">id: store.id, name: store.name, price: store.price, </v>
       </c>
-      <c r="X24" s="54" t="s">
+      <c r="X24" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3374,7 +3754,7 @@
         <f>IF(Entry!B26=1,"entity."&amp;Entry!J26&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="21"/>
       <c r="I25" t="str">
         <f>IF(Entry!G26="x","@PrimaryColumn()"&amp;Entry!$J26&amp;": "&amp;Entry!$K26&amp;"; ","@Column()"&amp;Entry!$J26&amp;": "&amp;Entry!$K26&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3386,17 +3766,17 @@
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="54"/>
-      <c r="O25" s="55" t="str">
+      <c r="M25" s="21"/>
+      <c r="O25" s="22" t="str">
         <f>IF(Entry!B37=1,Entry!J37&amp;",","")</f>
         <v/>
       </c>
-      <c r="S25" s="54"/>
+      <c r="S25" s="21"/>
       <c r="T25" t="str">
         <f>T5&amp;U5&amp;T6&amp;U6&amp;T7&amp;U7&amp;T8&amp;U8&amp;T9&amp;U9&amp;T10&amp;U10&amp;T11&amp;U11&amp;T12&amp;U12&amp;T13&amp;U13&amp;T14&amp;U14&amp;T15&amp;U15&amp;T16&amp;U16&amp;T17&amp;U17&amp;T18&amp;U18&amp;T19&amp;U19&amp;T20&amp;U20&amp;T21&amp;U21&amp;T22&amp;U22&amp;T23&amp;U23</f>
         <v xml:space="preserve">name: store.name, price: store.price, </v>
       </c>
-      <c r="X25" s="54" t="s">
+      <c r="X25" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3421,7 +3801,7 @@
         <f>IF(Entry!B27=1,"entity."&amp;Entry!J27&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="21"/>
       <c r="I26" t="str">
         <f>IF(Entry!G27="x","@PrimaryColumn()"&amp;Entry!$J27&amp;": "&amp;Entry!$K27&amp;"; ","@Column()"&amp;Entry!$J27&amp;": "&amp;Entry!$K27&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3433,13 +3813,13 @@
       <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="54"/>
+      <c r="M26" s="21"/>
       <c r="O26" t="str">
         <f>O7&amp;O8&amp;O9&amp;O10&amp;O11&amp;O12&amp;O13&amp;O14&amp;O15&amp;O16&amp;O17&amp;O18&amp;O19&amp;O20&amp;O21&amp;O22&amp;O23&amp;O24&amp;O25</f>
         <v>name,price,</v>
       </c>
-      <c r="S26" s="54"/>
-      <c r="X26" s="54"/>
+      <c r="S26" s="21"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
@@ -3462,7 +3842,7 @@
         <f>IF(Entry!B28=1,"entity."&amp;Entry!J28&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H27" s="54"/>
+      <c r="H27" s="21"/>
       <c r="I27" t="str">
         <f>IF(Entry!G28="x","@PrimaryColumn()"&amp;Entry!$J28&amp;": "&amp;Entry!$K28&amp;"; ","@Column()"&amp;Entry!$J28&amp;": "&amp;Entry!$K28&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3474,9 +3854,9 @@
       <c r="K27" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="X27" s="54"/>
+      <c r="M27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="X27" s="21"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
@@ -3499,7 +3879,7 @@
         <f>IF(Entry!B29=1,"entity."&amp;Entry!J29&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="21"/>
       <c r="I28" t="str">
         <f>IF(Entry!G29="x","@PrimaryColumn()"&amp;Entry!$J29&amp;": "&amp;Entry!$K29&amp;"; ","@Column()"&amp;Entry!$J29&amp;": "&amp;Entry!$K29&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3511,9 +3891,9 @@
       <c r="K28" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="X28" s="54"/>
+      <c r="M28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="X28" s="21"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
@@ -3536,7 +3916,7 @@
         <f>IF(Entry!B30=1,"entity."&amp;Entry!J30&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="21"/>
       <c r="I29" t="str">
         <f>IF(Entry!G30="x","@PrimaryColumn()"&amp;Entry!$J30&amp;": "&amp;Entry!$K30&amp;"; ","@Column()"&amp;Entry!$J30&amp;": "&amp;Entry!$K30&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3548,9 +3928,9 @@
       <c r="K29" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="X29" s="54"/>
+      <c r="M29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="X29" s="21"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
@@ -3573,7 +3953,7 @@
         <f>IF(Entry!B31=1,"entity."&amp;Entry!J31&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="21"/>
       <c r="I30" t="str">
         <f>IF(Entry!G31="x","@PrimaryColumn()"&amp;Entry!$J31&amp;": "&amp;Entry!$K31&amp;"; ","@Column()"&amp;Entry!$J31&amp;": "&amp;Entry!$K31&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3585,9 +3965,9 @@
       <c r="K30" t="s">
         <v>18</v>
       </c>
-      <c r="M30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="X30" s="54"/>
+      <c r="M30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="X30" s="21"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
@@ -3610,7 +3990,7 @@
         <f>IF(Entry!B32=1,"entity."&amp;Entry!J32&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="21"/>
       <c r="I31" t="str">
         <f>IF(Entry!G32="x","@PrimaryColumn()"&amp;Entry!$J32&amp;": "&amp;Entry!$K32&amp;"; ","@Column()"&amp;Entry!$J32&amp;": "&amp;Entry!$K32&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3622,9 +4002,9 @@
       <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="X31" s="54"/>
+      <c r="M31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="X31" s="21"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
@@ -3647,7 +4027,7 @@
         <f>IF(Entry!B33=1,"entity."&amp;Entry!J33&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="21"/>
       <c r="I32" t="str">
         <f>IF(Entry!G33="x","@PrimaryColumn()"&amp;Entry!$J33&amp;": "&amp;Entry!$K33&amp;"; ","@Column()"&amp;Entry!$J33&amp;": "&amp;Entry!$K33&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3659,9 +4039,9 @@
       <c r="K32" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="X32" s="54"/>
+      <c r="M32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
@@ -3684,7 +4064,7 @@
         <f>IF(Entry!B34=1,"entity."&amp;Entry!J34&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="21"/>
       <c r="I33" t="str">
         <f>IF(Entry!G34="x","@PrimaryColumn()"&amp;Entry!$J34&amp;": "&amp;Entry!$K34&amp;"; ","@Column()"&amp;Entry!$J34&amp;": "&amp;Entry!$K34&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3696,9 +4076,9 @@
       <c r="K33" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="X33" s="54"/>
+      <c r="M33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="X33" s="21"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
@@ -3721,7 +4101,7 @@
         <f>IF(Entry!B35=1,"entity."&amp;Entry!J35&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H34" s="54"/>
+      <c r="H34" s="21"/>
       <c r="I34" t="str">
         <f>IF(Entry!G35="x","@PrimaryColumn()"&amp;Entry!$J35&amp;": "&amp;Entry!$K35&amp;"; ","@Column()"&amp;Entry!$J35&amp;": "&amp;Entry!$K35&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3733,9 +4113,9 @@
       <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="X34" s="54"/>
+      <c r="M34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="X34" s="21"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
@@ -3758,7 +4138,7 @@
         <f>IF(Entry!B36=1,"entity."&amp;Entry!J36&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H35" s="54"/>
+      <c r="H35" s="21"/>
       <c r="I35" t="str">
         <f>IF(Entry!G36="x","@PrimaryColumn()"&amp;Entry!$J36&amp;": "&amp;Entry!$K36&amp;"; ","@Column()"&amp;Entry!$J36&amp;": "&amp;Entry!$K36&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3770,9 +4150,9 @@
       <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="X35" s="54"/>
+      <c r="M35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
@@ -3795,7 +4175,7 @@
         <f>IF(Entry!B37=1,"entity."&amp;Entry!J37&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H36" s="54"/>
+      <c r="H36" s="21"/>
       <c r="I36" t="str">
         <f>IF(Entry!G37="x","@PrimaryColumn()"&amp;Entry!$J37&amp;": "&amp;Entry!$K37&amp;"; ","@Column()"&amp;Entry!$J37&amp;": "&amp;Entry!$K37&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -3807,24 +4187,24 @@
       <c r="K36" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="X36" s="54"/>
+      <c r="M36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="46" t="str">
+      <c r="B37" s="16" t="str">
         <f>B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24&amp;B25&amp;B26&amp;B27&amp;B28&amp;B29&amp;B30&amp;B31&amp;B32&amp;B33&amp;B34&amp;B35&amp;B36</f>
         <v xml:space="preserve">private _name: string, private _price: number, </v>
       </c>
-      <c r="C37" s="46" t="str">
+      <c r="C37" s="16" t="str">
         <f>C18&amp;C19&amp;C20&amp;C21&amp;C22&amp;C23&amp;C24&amp;C25&amp;C26&amp;C27&amp;C28&amp;C29&amp;C30&amp;C31&amp;C32&amp;C33&amp;C34&amp;C35&amp;C36</f>
         <v xml:space="preserve">this._name = _name; this._price = _price; </v>
       </c>
-      <c r="D37" s="46" t="str">
+      <c r="D37" s="16" t="str">
         <f>D18&amp;D19&amp;D20&amp;D21&amp;D22&amp;D23&amp;D24&amp;D25&amp;D26&amp;D27&amp;D28&amp;D29&amp;D30&amp;D31&amp;D32&amp;D33&amp;D34&amp;D35&amp;D36</f>
         <v xml:space="preserve">public get name(): string {return this._name; } public get price(): number {return this._price; } </v>
       </c>
-      <c r="E37" s="46" t="str">
+      <c r="E37" s="16" t="str">
         <f>E18&amp;E19&amp;E20&amp;E21&amp;E22&amp;E23&amp;E24&amp;E25&amp;E26&amp;E27&amp;E28&amp;E29&amp;E30&amp;E31&amp;E32&amp;E33&amp;E34&amp;E35&amp;E36</f>
         <v>public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }</v>
       </c>
@@ -3836,7 +4216,7 @@
         <f>G18&amp;G19&amp;G20&amp;G21&amp;G22&amp;G23&amp;G24&amp;G25&amp;G26&amp;G27&amp;G28&amp;G29&amp;G30&amp;G31&amp;G32&amp;G33&amp;G34&amp;G35&amp;G36</f>
         <v xml:space="preserve">entity.name, entity.price, </v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J37" t="str">
@@ -3846,9 +4226,9 @@
       <c r="K37" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="X37" s="54"/>
+      <c r="M37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F38" t="str">
@@ -3856,35 +4236,35 @@
         <v>public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }</v>
       </c>
       <c r="G38" t="str">
-        <f>"public static "&amp;G17&amp;"(entity: any) { const created = new "&amp;Entry!I1&amp;"("&amp;Engine!G37&amp;"); created.id = entity.id; return created; }"</f>
+        <f>"public static "&amp;G17&amp;"(entity: any) { const created = new "&amp;Entry!H1&amp;"("&amp;Engine!G37&amp;"); created.id = entity.id; return created; }"</f>
         <v>public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }</v>
       </c>
-      <c r="H38" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="51" t="str">
+      <c r="H38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="19" t="str">
         <f>"@CreateDateColumn() created: Date;"</f>
         <v>@CreateDateColumn() created: Date;</v>
       </c>
       <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="X38" s="54"/>
+      <c r="M38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="X38" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H39" s="54"/>
-      <c r="J39" s="51" t="str">
+      <c r="H39" s="21"/>
+      <c r="J39" s="19" t="str">
         <f>"@UpdateDateColumn() updated: Date;"</f>
         <v>@UpdateDateColumn() updated: Date;</v>
       </c>
       <c r="K39" t="s">
         <v>18</v>
       </c>
-      <c r="M39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="X39" s="54"/>
+      <c r="M39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="X39" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3896,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235BA3-CC45-4994-B75C-E29B537BC50A}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,108 +4289,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="str">
-        <f>Engine!G1&amp;"export class "&amp;Entry!I1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
+      <c r="A3" s="24" t="str">
+        <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
         <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
-      <c r="B3" s="59" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".model.ts"</f>
+      <c r="B3" s="26" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".model.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="str">
-        <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!I1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
+      <c r="A6" s="24" t="str">
+        <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
-      <c r="B6" s="59" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".entity.ts"</f>
+      <c r="B6" s="26" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".entity.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="str">
-        <f>Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!I1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" } // Configurar os usecases corretos e imports"</f>
+      <c r="A9" s="24" t="str">
+        <f>Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" } // Configurar os usecases corretos e imports"</f>
         <v>import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } } // Configurar os usecases corretos e imports</v>
       </c>
-      <c r="B9" s="59" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".controller.ts"</f>
+      <c r="B9" s="26" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".controller.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="str">
-        <f>Engine!V1&amp;" export class "&amp;Entry!I1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
+      <c r="A12" s="24" t="str">
+        <f>Engine!V1&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
         <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
-      <c r="B12" s="59" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".repository.ts"</f>
+      <c r="B12" s="26" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".repository.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="str">
+      <c r="A15" s="24" t="str">
         <f>Engine!AA1&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
         <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', newStoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , newStoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
-      <c r="B15" s="59" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$I$1)&amp;".routes.ts"</f>
+      <c r="B15" s="26" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".routes.ts"</f>
         <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\template-api-ts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E7219B-9690-47D0-BC5A-99969355BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765C0C0-467E-4EDA-A213-F8FA9D555397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Engine" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Engine" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -998,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1069,39 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,15 +1103,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,10 +1198,49 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1562,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604D5C4-F202-47E4-B536-0D1232179344}">
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
@@ -1589,13 +1586,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="98" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="96" t="s">
         <v>38</v>
       </c>
       <c r="I1" s="97"/>
@@ -1606,10 +1603,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="39"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1617,11 +1614,10 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="59"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1629,15 +1625,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="P3" s="36" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
+      <c r="P3" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="86"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1650,34 +1646,34 @@
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="35"/>
+      <c r="Q4" s="84"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1699,28 +1695,28 @@
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="68" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -1739,18 +1735,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="62"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="M6" s="83"/>
-      <c r="P6" s="89" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="M6" s="69"/>
+      <c r="P6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="76" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="3"/>
@@ -1763,14 +1759,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
-      <c r="M7" s="84"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="M7" s="70"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1790,14 +1786,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="M8" s="85"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="M8" s="71"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1817,14 +1813,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
-      <c r="M9" s="86"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="M9" s="72"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1844,14 +1840,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="62"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="M10" s="85"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="48"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="M10" s="71"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -1871,14 +1867,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
-      <c r="M11" s="85"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+      <c r="M11" s="71"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1898,14 +1894,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-      <c r="M12" s="87"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="M12" s="73"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -1925,14 +1921,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
-      <c r="M13" s="85"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="M13" s="71"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -1952,14 +1948,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-      <c r="M14" s="88"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="M14" s="74"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1985,35 +1981,35 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
@@ -2027,23 +2023,23 @@
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="I19" s="73" t="s">
+      <c r="G19" s="77"/>
+      <c r="I19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="61" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2054,23 +2050,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="I20" s="76" t="s">
+      <c r="G20" s="78"/>
+      <c r="I20" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="64" t="s">
         <v>17</v>
       </c>
       <c r="AE20" s="10"/>
@@ -2081,13 +2077,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="92"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="78"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2096,13 +2092,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="92"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="78"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="78"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2111,13 +2107,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="92"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="78"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2126,14 +2122,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="92"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="M24" s="59"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="78"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2142,13 +2137,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="92"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="78"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2157,13 +2152,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="92"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="78"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2172,13 +2167,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="92"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="78"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2187,13 +2182,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="92"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="78"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2202,13 +2197,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="92"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="78"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2217,13 +2212,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="92"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="78"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2232,13 +2227,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="92"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="78"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2247,13 +2242,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="92"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="78"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2262,13 +2257,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="92"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="78"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2277,13 +2272,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="92"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="78"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2292,13 +2287,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="92"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="78"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2307,13 +2302,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="92"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="78"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="64"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2322,13 +2317,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="96"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="81"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="67"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -2461,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5156362B-539B-4F74-A6D1-CC923D025A62}">
   <dimension ref="B1:AC39"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W1" activeCellId="3" sqref="T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,8 +2829,8 @@
         <v>18</v>
       </c>
       <c r="Y5" t="str">
-        <f>"app.post('/', new"&amp;AC1&amp;"().create);"</f>
-        <v>app.post('/', newStoreController().create);</v>
+        <f>"app.post('/', new "&amp;AC1&amp;"().create);"</f>
+        <v>app.post('/', new StoreController().create);</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
@@ -2964,8 +2959,8 @@
         <v>18</v>
       </c>
       <c r="Y7" t="str">
-        <f>"app.delete('/:"&amp;Entry!J5&amp;"' , new"&amp;Engine!AC1&amp;"().delete);"</f>
-        <v>app.delete('/:id' , newStoreController().delete);</v>
+        <f>"app.delete('/:"&amp;Entry!J5&amp;"' , new "&amp;Engine!AC1&amp;"().delete);"</f>
+        <v>app.delete('/:id' , new StoreController().delete);</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
@@ -4381,7 +4376,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f>Engine!AA1&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
-        <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', newStoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , newStoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
+        <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
       <c r="B15" s="26" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".routes.ts"</f>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765C0C0-467E-4EDA-A213-F8FA9D555397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048279F-551F-46C1-943E-AA256A7DAC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Engine" sheetId="2" r:id="rId2"/>
+    <sheet name="Engine" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>fora do constructor</t>
   </si>
@@ -145,12 +146,39 @@
   <si>
     <t>Store</t>
   </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>UseCases</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +245,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -256,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -994,11 +1030,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,23 +1140,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1241,6 +1312,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1560,7 +1707,7 @@
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,16 +1733,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="96" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="97"/>
+      <c r="I1" s="88"/>
       <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
@@ -1603,10 +1750,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="93"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1616,8 +1763,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="95"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,15 +1772,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="P3" s="85" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="P3" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="86"/>
+      <c r="Q3" s="77"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1646,34 +1793,34 @@
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="75"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1695,28 +1842,28 @@
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="59" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -1735,18 +1882,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="48"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="M6" s="69"/>
-      <c r="P6" s="75" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="39"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="M6" s="60"/>
+      <c r="P6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="76" t="s">
+      <c r="Q6" s="67" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="3"/>
@@ -1759,14 +1906,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="M7" s="70"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+      <c r="M7" s="61"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1786,14 +1933,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="M8" s="71"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="M8" s="62"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1813,14 +1960,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="M9" s="72"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="M9" s="63"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1840,14 +1987,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="48"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="M10" s="71"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="M10" s="62"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -1867,14 +2014,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="M11" s="71"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="M11" s="62"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1894,14 +2041,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="M12" s="73"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="M12" s="64"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -1921,14 +2068,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="M13" s="71"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="M13" s="62"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -1948,14 +2095,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="M14" s="74"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="M14" s="65"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1981,35 +2128,35 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="87" t="s">
+      <c r="I17" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
@@ -2023,23 +2170,23 @@
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="I19" s="59" t="s">
+      <c r="G19" s="68"/>
+      <c r="I19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="52" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2050,23 +2197,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="I20" s="62" t="s">
+      <c r="G20" s="69"/>
+      <c r="I20" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="55" t="s">
         <v>17</v>
       </c>
       <c r="AE20" s="10"/>
@@ -2077,13 +2224,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="78"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="69"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2092,13 +2239,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="78"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="69"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2107,13 +2254,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="78"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="69"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2122,13 +2269,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="78"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="69"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2137,13 +2284,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="78"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="69"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2152,13 +2299,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="78"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="69"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2167,13 +2314,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="78"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="69"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2182,13 +2329,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="78"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="69"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2197,13 +2344,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="78"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="69"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2212,13 +2359,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="78"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="69"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2227,13 +2374,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="78"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="69"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2242,13 +2389,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="78"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="69"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2257,13 +2404,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="78"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="69"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2272,13 +2419,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="78"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="69"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2287,13 +2434,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="78"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="69"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2302,13 +2449,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="78"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="69"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="55"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2317,13 +2464,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -2454,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5156362B-539B-4F74-A6D1-CC923D025A62}">
-  <dimension ref="B1:AC39"/>
+  <dimension ref="B1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,9 +2617,16 @@
     <col min="19" max="19" width="3.140625" customWidth="1"/>
     <col min="20" max="23" width="5.7109375" customWidth="1"/>
     <col min="24" max="24" width="3.140625" customWidth="1"/>
+    <col min="25" max="29" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" style="21" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" customWidth="1"/>
+    <col min="36" max="36" width="20.28515625" customWidth="1"/>
+    <col min="37" max="37" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="G1" t="str">
         <f>IF(Entry!M5="createUuid()","import { v4 as createUuid } from 'uuid';","")</f>
         <v>import { v4 as createUuid } from 'uuid';</v>
@@ -2537,8 +2691,34 @@
         <f>Entry!H1&amp;Engine!N1</f>
         <v>StoreController</v>
       </c>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>"import { Result } from '../../../shared/contracts/result.contract'; "</f>
+        <v xml:space="preserve">import { Result } from '../../../shared/contracts/result.contract'; </v>
+      </c>
+      <c r="AH1" t="str">
+        <f>"import { Return } from '../../../shared/util/return.adapter'; "</f>
+        <v xml:space="preserve">import { Return } from '../../../shared/util/return.adapter'; </v>
+      </c>
+      <c r="AI1" t="str">
+        <f>"import { "&amp;Entry!H1&amp;" } from '../../../models/"&amp;LOWER(Entry!H1)&amp;".model'; "</f>
+        <v xml:space="preserve">import { Store } from '../../../models/store.model'; </v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>"import { "&amp;Entry!H1&amp;"Repository } from '../repositories/"&amp;LOWER(Entry!H1)&amp;".repository'; "</f>
+        <v xml:space="preserve">import { StoreRepository } from '../repositories/store.repository'; </v>
+      </c>
+      <c r="AK1" t="str">
+        <f>"import { "&amp;AF4&amp;AE1&amp;" } from './get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase';"</f>
+        <v>import { GetStoreByIdUseCase } from './get-store-by-id.usecase';</v>
+      </c>
+    </row>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>IF(Entry!B5=1,Entry!I5&amp;" _"&amp;Entry!J5&amp;": "&amp;Entry!K5&amp;"; ","")</f>
         <v xml:space="preserve">private _id: string; </v>
@@ -2610,8 +2790,19 @@
         <f>"export const "&amp;LOWER(Entry!H1)&amp;Engine!Y1&amp;" = () =&gt; { const app = Router(); "</f>
         <v xml:space="preserve">export const storeRoutes = () =&gt; { const app = Router(); </v>
       </c>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>"Create"&amp;Entry!H1</f>
+        <v>CreateStore</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created"&amp;AK12&amp;" created');}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository';  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>IF(Entry!B6=1,Entry!I6&amp;" _"&amp;Entry!J6&amp;": "&amp;Entry!K6&amp;"; ","")</f>
         <v/>
@@ -2684,8 +2875,22 @@
         <f>"app.get('/', new "&amp;AC1&amp;"().list);"</f>
         <v>app.get('/', new StoreController().list);</v>
       </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>"Delete"&amp;Entry!H1</f>
+        <v>DeleteStore</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF3&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { const deleted = await new "&amp;Entry!H1&amp;"Repository().delete("&amp;Entry!J5&amp;"); if(deleted == 0) { return Return.notFound('"&amp;Entry!H1&amp;"');}"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" deleted', '');}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>IF(Entry!B7=1,Entry!I7&amp;" _"&amp;Entry!J7&amp;": "&amp;Entry!K7&amp;"; ","")</f>
         <v/>
@@ -2757,8 +2962,19 @@
         <f>"app.get('/:"&amp;Entry!J5&amp;"', new "&amp;AC1&amp;"().get);"</f>
         <v>app.get('/:id', new StoreController().get);</v>
       </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>"Get"&amp;Entry!H1&amp;"ById"</f>
+        <v>GetStoreById</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF4&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { "&amp;AK10&amp;"get("&amp;Entry!J5&amp;"); if(!result) {"&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;");} "&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" obtained', result.toJson());}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>IF(Entry!B8=1,Entry!I8&amp;" _"&amp;Entry!J8&amp;": "&amp;Entry!K8&amp;"; ","")</f>
         <v/>
@@ -2832,8 +3048,19 @@
         <f>"app.post('/', new "&amp;AC1&amp;"().create);"</f>
         <v>app.post('/', new StoreController().create);</v>
       </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>"List"&amp;Entry!H1&amp;"s"</f>
+        <v>ListStores</v>
+      </c>
+      <c r="AG5" t="str">
+        <f>AG1&amp;AJ1&amp;"export class "&amp;AF5&amp;AE1&amp;" { public async "&amp;AE3&amp;"(): Promise&lt;Result&gt; { "&amp;AK10&amp;".list(); const data = result.map(("&amp;LOWER(Entry!H1)&amp;") =&gt; "&amp;LOWER(Entry!H1)&amp;".toJson());"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;"s listed' , data);}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>IF(Entry!B9=1,Entry!I9&amp;" _"&amp;Entry!J9&amp;": "&amp;Entry!K9&amp;"; ","")</f>
         <v/>
@@ -2897,8 +3124,19 @@
         <f>"app.put('/:"&amp;Entry!J5&amp;"' ,new "&amp;Engine!AC1&amp;"().update);"</f>
         <v>app.put('/:id' ,new StoreController().update);</v>
       </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>"Update"&amp;Entry!H1</f>
+        <v>UpdateStore</v>
+      </c>
+      <c r="AG6" t="str">
+        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AK1&amp;AF31&amp;"export class "&amp;AF6&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF6&amp;AE8&amp;"): Promise&lt;Result&gt; { "&amp;AK14&amp;AK15&amp;AJ28&amp;AK17&amp;AK18&amp;"await new "&amp;Entry!H1&amp;"Repository().update("&amp;LOWER(Entry!H1)&amp;".data); "&amp;AK19&amp;"}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>IF(Entry!B10=1,Entry!I10&amp;" _"&amp;Entry!J10&amp;": "&amp;Entry!K10&amp;"; ","")</f>
         <v/>
@@ -2962,8 +3200,15 @@
         <f>"app.delete('/:"&amp;Entry!J5&amp;"' , new "&amp;Engine!AC1&amp;"().delete);"</f>
         <v>app.delete('/:id' , new StoreController().delete);</v>
       </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="str">
+        <f>"interface "</f>
+        <v xml:space="preserve">interface </v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>IF(Entry!B11=1,Entry!I11&amp;" _"&amp;Entry!J11&amp;": "&amp;Entry!K11&amp;"; ","")</f>
         <v/>
@@ -3020,8 +3265,23 @@
       <c r="Y8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF8" s="22" t="str">
+        <f>IF(Entry!B5=1,Entry!J5&amp;": "&amp;Entry!K5&amp;"; ","")</f>
+        <v xml:space="preserve">id: string; </v>
+      </c>
+      <c r="AG8" t="str">
+        <f>IF(Entry!B5=1,Entry!J5&amp;": "&amp;Entry!K5,"")</f>
+        <v>id: string</v>
+      </c>
+      <c r="AI8" t="str">
+        <f>IF(Entry!B5=1,LOWER(AE8)&amp;"."&amp;Entry!J5,"")</f>
+        <v>params.id</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>IF(Entry!B12=1,Entry!I12&amp;" _"&amp;Entry!J12&amp;": "&amp;Entry!K12&amp;"; ","")</f>
         <v/>
@@ -3069,8 +3329,32 @@
         <v/>
       </c>
       <c r="X9" s="21"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF9" t="str">
+        <f>IF(Entry!B19=1,Entry!J19&amp;": "&amp;Entry!K19&amp;"; ","")</f>
+        <v xml:space="preserve">name: string; </v>
+      </c>
+      <c r="AG9" t="str">
+        <f>IF(Entry!B19=1,Entry!J19&amp;"?: "&amp;Entry!K19&amp;"; ","")</f>
+        <v xml:space="preserve">name?: string; </v>
+      </c>
+      <c r="AH9" t="str">
+        <f>IF(Entry!B19=1,LOWER($AE$8)&amp;"."&amp;Entry!J19&amp;", ","")</f>
+        <v xml:space="preserve">params.name, </v>
+      </c>
+      <c r="AI9" t="str">
+        <f>IF(Entry!B19=1,LOWER($AE$8)&amp;"."&amp;Entry!J19,"")</f>
+        <v>params.name</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f>IF(Entry!B19=1,"if ("&amp;AI9&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J19&amp;" = "&amp;AI9&amp;"; } ","")</f>
+        <v xml:space="preserve">if (params.name) { newStore.name = params.name; } </v>
+      </c>
+      <c r="AK9" t="str">
+        <f>"const "&amp;LOWER(Entry!H1)&amp;" = new "&amp;Entry!H1&amp;"("&amp;AH28&amp;"); "</f>
+        <v xml:space="preserve">const store = new Store(params.name, params.price, ); </v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>IF(Entry!B13=1,Entry!I13&amp;" _"&amp;Entry!J13&amp;": "&amp;Entry!K13&amp;"; ","")</f>
         <v/>
@@ -3118,8 +3402,32 @@
         <v/>
       </c>
       <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF10" t="str">
+        <f>IF(Entry!B20=1,Entry!J20&amp;": "&amp;Entry!K20&amp;"; ","")</f>
+        <v xml:space="preserve">price: number; </v>
+      </c>
+      <c r="AG10" t="str">
+        <f>IF(Entry!B20=1,Entry!J20&amp;"?: "&amp;Entry!K20&amp;"; ","")</f>
+        <v xml:space="preserve">price?: number; </v>
+      </c>
+      <c r="AH10" t="str">
+        <f>IF(Entry!B20=1,LOWER($AE$8)&amp;"."&amp;Entry!J20&amp;", ","")</f>
+        <v xml:space="preserve">params.price, </v>
+      </c>
+      <c r="AI10" t="str">
+        <f>IF(Entry!B20=1,LOWER($AE$8)&amp;"."&amp;Entry!J20,"")</f>
+        <v>params.price</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f>IF(Entry!B20=1,"if ("&amp;AI10&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J20&amp;" = "&amp;AI10&amp;"; } ","")</f>
+        <v xml:space="preserve">if (params.price) { newStore.price = params.price; } </v>
+      </c>
+      <c r="AK10" t="str">
+        <f>"const result = await new "&amp;Entry!H1&amp;Engine!T1&amp;"()."</f>
+        <v>const result = await new StoreRepository().</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>IF(Entry!B14=1,Entry!I14&amp;" _"&amp;Entry!J14&amp;": "&amp;Entry!K14&amp;"; ","")</f>
         <v/>
@@ -3167,8 +3475,32 @@
         <v/>
       </c>
       <c r="X11" s="21"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF11" t="str">
+        <f>IF(Entry!B21=1,Entry!J21&amp;": "&amp;Entry!K21&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <f>IF(Entry!B21=1,Entry!J21&amp;"?: "&amp;Entry!K21&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <f>IF(Entry!B21=1,LOWER($AE$8)&amp;"."&amp;Entry!J21&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <f>IF(Entry!B21=1,LOWER($AE$8)&amp;"."&amp;Entry!J21,"")</f>
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <f>IF(Entry!B21=1,"if ("&amp;AI11&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J21&amp;" = "&amp;AI11&amp;"; } ","")</f>
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <f>"return Return."</f>
+        <v>return Return.</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>IF(Entry!B15=1,Entry!I15&amp;" _"&amp;Entry!J15&amp;": "&amp;Entry!K15&amp;"; ","")</f>
         <v/>
@@ -3216,8 +3548,32 @@
         <v/>
       </c>
       <c r="X12" s="21"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF12" t="str">
+        <f>IF(Entry!B22=1,Entry!J22&amp;": "&amp;Entry!K22&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG12" t="str">
+        <f>IF(Entry!B22=1,Entry!J22&amp;"?: "&amp;Entry!K22&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH12" t="str">
+        <f>IF(Entry!B22=1,LOWER($AE$8)&amp;"."&amp;Entry!J22&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI12" t="str">
+        <f>IF(Entry!B22=1,LOWER($AE$8)&amp;"."&amp;Entry!J22,"")</f>
+        <v/>
+      </c>
+      <c r="AJ12" t="str">
+        <f>IF(Entry!B22=1,"if ("&amp;AI12&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J22&amp;" = "&amp;AI12&amp;"; } ","")</f>
+        <v/>
+      </c>
+      <c r="AK12" t="str">
+        <f>"(result, '"&amp;Entry!H1</f>
+        <v>(result, 'Store</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>IF(Entry!P6="x","private _created?: Date;","")</f>
         <v>private _created?: Date;</v>
@@ -3250,8 +3606,28 @@
         <v/>
       </c>
       <c r="X13" s="21"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF13" t="str">
+        <f>IF(Entry!B23=1,Entry!J23&amp;": "&amp;Entry!K23&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG13" t="str">
+        <f>IF(Entry!B23=1,Entry!J23&amp;"?: "&amp;Entry!K23&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH13" t="str">
+        <f>IF(Entry!B23=1,LOWER($AE$8)&amp;"."&amp;Entry!J23&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI13" t="str">
+        <f>IF(Entry!B23=1,LOWER($AE$8)&amp;"."&amp;Entry!J23,"")</f>
+        <v/>
+      </c>
+      <c r="AJ13" t="str">
+        <f>IF(Entry!B23=1,"if ("&amp;AI13&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J23&amp;" = "&amp;AI13&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>IF(Entry!Q6="x","private _updated?: Date;","")</f>
         <v>private _updated?: Date;</v>
@@ -3284,8 +3660,32 @@
         <v/>
       </c>
       <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF14" t="str">
+        <f>IF(Entry!B24=1,Entry!J24&amp;": "&amp;Entry!K24&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG14" t="str">
+        <f>IF(Entry!B24=1,Entry!J24&amp;"?: "&amp;Entry!K24&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH14" t="str">
+        <f>IF(Entry!B24=1,LOWER($AE$8)&amp;"."&amp;Entry!J24&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI14" t="str">
+        <f>IF(Entry!B24=1,LOWER($AE$8)&amp;"."&amp;Entry!J24,"")</f>
+        <v/>
+      </c>
+      <c r="AJ14" t="str">
+        <f>IF(Entry!B24=1,"if ("&amp;AI14&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J24&amp;" = "&amp;AI14&amp;"; } ","")</f>
+        <v/>
+      </c>
+      <c r="AK14" t="str">
+        <f>"const "&amp;LOWER(Entry!H1)&amp;" = await new "&amp;AF4&amp;AE1&amp;"()."&amp;AE3&amp;"("&amp;AI8&amp;"); if(!"&amp;LOWER(Entry!H1)&amp;") { "&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;"');}"</f>
+        <v>const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="str">
         <f>B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14</f>
         <v>private _id: string; private _created?: Date;private _updated?: Date;</v>
@@ -3332,8 +3732,32 @@
         <v/>
       </c>
       <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AF15" t="str">
+        <f>IF(Entry!B25=1,Entry!J25&amp;": "&amp;Entry!K25&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG15" t="str">
+        <f>IF(Entry!B25=1,Entry!J25&amp;"?: "&amp;Entry!K25&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH15" t="str">
+        <f>IF(Entry!B25=1,LOWER($AE$8)&amp;"."&amp;Entry!J25&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI15" t="str">
+        <f>IF(Entry!B25=1,LOWER($AE$8)&amp;"."&amp;Entry!J25,"")</f>
+        <v/>
+      </c>
+      <c r="AJ15" t="str">
+        <f>IF(Entry!B25=1,"if ("&amp;AI15&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J25&amp;" = "&amp;AI15&amp;"; } ","")</f>
+        <v/>
+      </c>
+      <c r="AK15" t="str">
+        <f>"let new"&amp;Entry!H1&amp;": "&amp;Entry!H1&amp;" = "&amp;LOWER(Entry!H1)&amp;".data;"</f>
+        <v>let newStore: Store = store.data;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="H16" s="21"/>
       <c r="M16" s="21"/>
       <c r="O16" t="str">
@@ -3350,8 +3774,28 @@
         <v/>
       </c>
       <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF16" t="str">
+        <f>IF(Entry!B26=1,Entry!J26&amp;": "&amp;Entry!K26&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG16" t="str">
+        <f>IF(Entry!B26=1,Entry!J26&amp;"?: "&amp;Entry!K26&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH16" t="str">
+        <f>IF(Entry!B26=1,LOWER($AE$8)&amp;"."&amp;Entry!J26&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI16" t="str">
+        <f>IF(Entry!B26=1,LOWER($AE$8)&amp;"."&amp;Entry!J26,"")</f>
+        <v/>
+      </c>
+      <c r="AJ16" t="str">
+        <f>IF(Entry!B26=1,"if ("&amp;AI16&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J26&amp;" = "&amp;AI16&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3374,8 +3818,32 @@
         <v/>
       </c>
       <c r="X17" s="21"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF17" t="str">
+        <f>IF(Entry!B27=1,Entry!J27&amp;": "&amp;Entry!K27&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG17" t="str">
+        <f>IF(Entry!B27=1,Entry!J27&amp;"?: "&amp;Entry!K27&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH17" t="str">
+        <f>IF(Entry!B27=1,LOWER($AE$8)&amp;"."&amp;Entry!J27&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI17" t="str">
+        <f>IF(Entry!B27=1,LOWER($AE$8)&amp;"."&amp;Entry!J27,"")</f>
+        <v/>
+      </c>
+      <c r="AJ17" t="str">
+        <f>IF(Entry!B27=1,"if ("&amp;AI17&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J27&amp;" = "&amp;AI17&amp;"; } ","")</f>
+        <v/>
+      </c>
+      <c r="AK17" t="str">
+        <f>LOWER(Entry!H1)&amp;".data = new"&amp;Entry!H1&amp;"; "</f>
+        <v xml:space="preserve">store.data = newStore; </v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>IF(Entry!B19=1,Entry!I19&amp;" _"&amp;Entry!J19&amp;": "&amp;Entry!K19&amp;", ","")</f>
         <v xml:space="preserve">private _name: string, </v>
@@ -3429,8 +3897,28 @@
         <v/>
       </c>
       <c r="X18" s="21"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF18" t="str">
+        <f>IF(Entry!B28=1,Entry!J28&amp;": "&amp;Entry!K28&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <f>IF(Entry!B28=1,Entry!J28&amp;"?: "&amp;Entry!K28&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH18" t="str">
+        <f>IF(Entry!B28=1,LOWER($AE$8)&amp;"."&amp;Entry!J28&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI18" t="str">
+        <f>IF(Entry!B28=1,LOWER($AE$8)&amp;"."&amp;Entry!J28,"")</f>
+        <v/>
+      </c>
+      <c r="AK18" t="str">
+        <f>LOWER(Entry!H1)&amp;".msg = '"&amp;Entry!H1&amp;" updated'; "</f>
+        <v xml:space="preserve">store.msg = 'Store updated'; </v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>IF(Entry!B20=1,Entry!I20&amp;" _"&amp;Entry!J20&amp;": "&amp;Entry!K20&amp;", ","")</f>
         <v xml:space="preserve">private _price: number, </v>
@@ -3484,8 +3972,32 @@
         <v/>
       </c>
       <c r="X19" s="21"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF19" t="str">
+        <f>IF(Entry!B29=1,Entry!J29&amp;": "&amp;Entry!K29&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG19" t="str">
+        <f>IF(Entry!B29=1,Entry!J29&amp;"?: "&amp;Entry!K29&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH19" t="str">
+        <f>IF(Entry!B29=1,LOWER($AE$8)&amp;"."&amp;Entry!J29&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI19" t="str">
+        <f>IF(Entry!B29=1,LOWER($AE$8)&amp;"."&amp;Entry!J29,"")</f>
+        <v/>
+      </c>
+      <c r="AJ19" t="str">
+        <f>IF(Entry!B29=1,"if ("&amp;AI19&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J29&amp;" = "&amp;AI19&amp;"; } ","")</f>
+        <v/>
+      </c>
+      <c r="AK19" t="str">
+        <f>"return "&amp;LOWER(Entry!H1)&amp;";"</f>
+        <v>return store;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>IF(Entry!B21=1,Entry!I21&amp;" _"&amp;Entry!J21&amp;": "&amp;Entry!K21&amp;", ","")</f>
         <v/>
@@ -3533,8 +4045,28 @@
         <v/>
       </c>
       <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF20" t="str">
+        <f>IF(Entry!B30=1,Entry!J30&amp;": "&amp;Entry!K30&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG20" t="str">
+        <f>IF(Entry!B30=1,Entry!J30&amp;"?: "&amp;Entry!K30&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH20" t="str">
+        <f>IF(Entry!B30=1,LOWER($AE$8)&amp;"."&amp;Entry!J30&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI20" t="str">
+        <f>IF(Entry!B30=1,LOWER($AE$8)&amp;"."&amp;Entry!J30,"")</f>
+        <v/>
+      </c>
+      <c r="AJ20" t="str">
+        <f>IF(Entry!B30=1,"if ("&amp;AI20&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J30&amp;" = "&amp;AI20&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>IF(Entry!B22=1,Entry!I22&amp;" _"&amp;Entry!J22&amp;": "&amp;Entry!K22&amp;", ","")</f>
         <v/>
@@ -3582,8 +4114,28 @@
         <v/>
       </c>
       <c r="X21" s="21"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF21" t="str">
+        <f>IF(Entry!B31=1,Entry!J31&amp;": "&amp;Entry!K31&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG21" t="str">
+        <f>IF(Entry!B31=1,Entry!J31&amp;"?: "&amp;Entry!K31&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH21" t="str">
+        <f>IF(Entry!B31=1,LOWER($AE$8)&amp;"."&amp;Entry!J31&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI21" t="str">
+        <f>IF(Entry!B31=1,LOWER($AE$8)&amp;"."&amp;Entry!J31,"")</f>
+        <v/>
+      </c>
+      <c r="AJ21" t="str">
+        <f>IF(Entry!B31=1,"if ("&amp;AI21&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J31&amp;" = "&amp;AI21&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>IF(Entry!B23=1,Entry!I23&amp;" _"&amp;Entry!J23&amp;": "&amp;Entry!K23&amp;", ","")</f>
         <v/>
@@ -3631,8 +4183,28 @@
         <v/>
       </c>
       <c r="X22" s="21"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF22" t="str">
+        <f>IF(Entry!B32=1,Entry!J32&amp;": "&amp;Entry!K32&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG22" t="str">
+        <f>IF(Entry!B32=1,Entry!J32&amp;"?: "&amp;Entry!K32&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH22" t="str">
+        <f>IF(Entry!B32=1,LOWER($AE$8)&amp;"."&amp;Entry!J32&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI22" t="str">
+        <f>IF(Entry!B32=1,LOWER($AE$8)&amp;"."&amp;Entry!J32,"")</f>
+        <v/>
+      </c>
+      <c r="AJ22" t="str">
+        <f>IF(Entry!B32=1,"if ("&amp;AI22&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J32&amp;" = "&amp;AI22&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>IF(Entry!B24=1,Entry!I24&amp;" _"&amp;Entry!J24&amp;": "&amp;Entry!K24&amp;", ","")</f>
         <v/>
@@ -3680,8 +4252,28 @@
         <v/>
       </c>
       <c r="X23" s="21"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF23" t="str">
+        <f>IF(Entry!B33=1,Entry!J33&amp;": "&amp;Entry!K33&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG23" t="str">
+        <f>IF(Entry!B33=1,Entry!J33&amp;"?: "&amp;Entry!K33&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH23" t="str">
+        <f>IF(Entry!B33=1,LOWER($AE$8)&amp;"."&amp;Entry!J33&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI23" t="str">
+        <f>IF(Entry!B33=1,LOWER($AE$8)&amp;"."&amp;Entry!J33,"")</f>
+        <v/>
+      </c>
+      <c r="AJ23" t="str">
+        <f>IF(Entry!B33=1,"if ("&amp;AI23&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J33&amp;" = "&amp;AI23&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>IF(Entry!B25=1,Entry!I25&amp;" _"&amp;Entry!J25&amp;": "&amp;Entry!K25&amp;", ","")</f>
         <v/>
@@ -3727,8 +4319,28 @@
       <c r="X24" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF24" t="str">
+        <f>IF(Entry!B34=1,Entry!J34&amp;": "&amp;Entry!K34&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG24" t="str">
+        <f>IF(Entry!B34=1,Entry!J34&amp;"?: "&amp;Entry!K34&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH24" t="str">
+        <f>IF(Entry!B34=1,LOWER($AE$8)&amp;"."&amp;Entry!J34&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI24" t="str">
+        <f>IF(Entry!B34=1,LOWER($AE$8)&amp;"."&amp;Entry!J34,"")</f>
+        <v/>
+      </c>
+      <c r="AJ24" t="str">
+        <f>IF(Entry!B34=1,"if ("&amp;AI24&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J34&amp;" = "&amp;AI24&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>IF(Entry!B26=1,Entry!I26&amp;" _"&amp;Entry!J26&amp;": "&amp;Entry!K26&amp;", ","")</f>
         <v/>
@@ -3774,8 +4386,28 @@
       <c r="X25" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF25" t="str">
+        <f>IF(Entry!B35=1,Entry!J35&amp;": "&amp;Entry!K35&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG25" t="str">
+        <f>IF(Entry!B35=1,Entry!J35&amp;"?: "&amp;Entry!K35&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH25" t="str">
+        <f>IF(Entry!B35=1,LOWER($AE$8)&amp;"."&amp;Entry!J35&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI25" t="str">
+        <f>IF(Entry!B35=1,LOWER($AE$8)&amp;"."&amp;Entry!J35,"")</f>
+        <v/>
+      </c>
+      <c r="AJ25" t="str">
+        <f>IF(Entry!B35=1,"if ("&amp;AI25&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J35&amp;" = "&amp;AI25&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>IF(Entry!B27=1,Entry!I27&amp;" _"&amp;Entry!J27&amp;": "&amp;Entry!K27&amp;", ","")</f>
         <v/>
@@ -3815,8 +4447,28 @@
       </c>
       <c r="S26" s="21"/>
       <c r="X26" s="21"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF26" t="str">
+        <f>IF(Entry!B36=1,Entry!J36&amp;": "&amp;Entry!K36&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG26" t="str">
+        <f>IF(Entry!B36=1,Entry!J36&amp;"?: "&amp;Entry!K36&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH26" t="str">
+        <f>IF(Entry!B36=1,LOWER($AE$8)&amp;"."&amp;Entry!J36&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI26" t="str">
+        <f>IF(Entry!B36=1,LOWER($AE$8)&amp;"."&amp;Entry!J36,"")</f>
+        <v/>
+      </c>
+      <c r="AJ26" t="str">
+        <f>IF(Entry!B36=1,"if ("&amp;AI26&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J36&amp;" = "&amp;AI26&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>IF(Entry!B28=1,Entry!I28&amp;" _"&amp;Entry!J28&amp;": "&amp;Entry!K28&amp;", ","")</f>
         <v/>
@@ -3852,8 +4504,28 @@
       <c r="M27" s="21"/>
       <c r="S27" s="21"/>
       <c r="X27" s="21"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF27" s="22" t="str">
+        <f>IF(Entry!B37=1,Entry!J37&amp;": "&amp;Entry!K37&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AG27" t="str">
+        <f>IF(Entry!B37=1,Entry!J37&amp;"?: "&amp;Entry!K37&amp;"; ","")</f>
+        <v/>
+      </c>
+      <c r="AH27" t="str">
+        <f>IF(Entry!B37=1,LOWER($AE$8)&amp;"."&amp;Entry!J37&amp;", ","")</f>
+        <v/>
+      </c>
+      <c r="AI27" t="str">
+        <f>IF(Entry!B37=1,LOWER($AE$8)&amp;"."&amp;Entry!J37,"")</f>
+        <v/>
+      </c>
+      <c r="AJ27" t="str">
+        <f>IF(Entry!B37=1,"if ("&amp;AI27&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J37&amp;" = "&amp;AI27&amp;"; } ","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>IF(Entry!B29=1,Entry!I29&amp;" _"&amp;Entry!J29&amp;": "&amp;Entry!K29&amp;", ","")</f>
         <v/>
@@ -3889,8 +4561,24 @@
       <c r="M28" s="21"/>
       <c r="S28" s="21"/>
       <c r="X28" s="21"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF28" t="str">
+        <f>AF9&amp;AF10&amp;AF11&amp;AF12&amp;AF13&amp;AF14&amp;AF15&amp;AF16&amp;AF17&amp;AF18&amp;AF19&amp;AF20&amp;AF21&amp;AF22&amp;AF23&amp;AF24&amp;AF25&amp;AF26&amp;AF27</f>
+        <v xml:space="preserve">name: string; price: number; </v>
+      </c>
+      <c r="AG28" t="str">
+        <f>AG9&amp;AG10&amp;AG11&amp;AG12&amp;AG13&amp;AG14&amp;AG15&amp;AG16&amp;AG17&amp;AG18&amp;AG19&amp;AG20&amp;AG21&amp;AG22&amp;AG23&amp;AG24&amp;AG25&amp;AG26&amp;AG27</f>
+        <v xml:space="preserve">name?: string; price?: number; </v>
+      </c>
+      <c r="AH28" t="str">
+        <f>AH9&amp;AH10&amp;AH11&amp;AH12&amp;AH13&amp;AH14&amp;AH15&amp;AH16&amp;AH17&amp;AH18&amp;AH19&amp;AH20&amp;AH21&amp;AH22&amp;AH23&amp;AH24&amp;AH25&amp;AH26&amp;AH27</f>
+        <v xml:space="preserve">params.name, params.price, </v>
+      </c>
+      <c r="AJ28" t="str">
+        <f>AJ9&amp;AJ10&amp;AJ11&amp;AJ12&amp;AJ13&amp;AJ14&amp;AJ15&amp;AJ16&amp;AJ17&amp;AJ18&amp;AJ19&amp;AJ20&amp;AJ21&amp;AJ22&amp;AJ23&amp;AJ24&amp;AJ25&amp;AJ26&amp;AJ27</f>
+        <v xml:space="preserve">if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } </v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>IF(Entry!B30=1,Entry!I30&amp;" _"&amp;Entry!J30&amp;": "&amp;Entry!K30&amp;", ","")</f>
         <v/>
@@ -3927,7 +4615,7 @@
       <c r="S29" s="21"/>
       <c r="X29" s="21"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>IF(Entry!B31=1,Entry!I31&amp;" _"&amp;Entry!J31&amp;": "&amp;Entry!K31&amp;", ","")</f>
         <v/>
@@ -3963,8 +4651,12 @@
       <c r="M30" s="21"/>
       <c r="S30" s="21"/>
       <c r="X30" s="21"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF30" t="str">
+        <f>AE7&amp;AF2&amp;AE8&amp;" { "&amp;AF28&amp;" } "</f>
+        <v xml:space="preserve">interface CreateStoreParams { name: string; price: number;  } </v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>IF(Entry!B32=1,Entry!I32&amp;" _"&amp;Entry!J32&amp;": "&amp;Entry!K32&amp;", ","")</f>
         <v/>
@@ -4000,8 +4692,12 @@
       <c r="M31" s="21"/>
       <c r="S31" s="21"/>
       <c r="X31" s="21"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AF31" t="str">
+        <f>AE7&amp;AF6&amp;AE8&amp;" { "&amp;AF8&amp;AG28&amp;" } "</f>
+        <v xml:space="preserve">interface UpdateStoreParams { id: string; name?: string; price?: number;  } </v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>IF(Entry!B33=1,Entry!I33&amp;" _"&amp;Entry!J33&amp;": "&amp;Entry!K33&amp;", ","")</f>
         <v/>
@@ -4037,6 +4733,10 @@
       <c r="M32" s="21"/>
       <c r="S32" s="21"/>
       <c r="X32" s="21"/>
+      <c r="AF32" t="str">
+        <f>"// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis"</f>
+        <v>// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+      </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
@@ -4269,125 +4969,303 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235BA3-CC45-4994-B75C-E29B537BC50A}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" style="2" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="74.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="89" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="str">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
         <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
-      <c r="B3" s="26" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".model.ts"</f>
-        <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.model.ts</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B3" s="100" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C3" s="98" t="str">
+        <f>LOWER(Entry!$H$1)&amp;".model.ts"</f>
+        <v>store.model.ts</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="str">
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
-      <c r="B6" s="26" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".entity.ts"</f>
-        <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.entity.ts</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="100" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C6" s="98" t="str">
+        <f>LOWER(Entry!$H$1)&amp;".entity.ts"</f>
+        <v>store.entity.ts</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="94"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" } // Configurar os usecases corretos e imports"</f>
         <v>import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } } // Configurar os usecases corretos e imports</v>
       </c>
-      <c r="B9" s="26" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".controller.ts"</f>
-        <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.controller.ts</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="B9" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C9" s="99" t="str">
+        <f>LOWER(Entry!$H$1)&amp;".controller.ts"</f>
+        <v>store.controller.ts</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="102"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="27"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="str">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="str">
         <f>Engine!V1&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
         <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
-      <c r="B12" s="26" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".repository.ts"</f>
-        <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.repository.ts</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C12" s="99" t="str">
+        <f>LOWER(Entry!$H$1)&amp;".repository.ts"</f>
+        <v>store.repository.ts</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f>Engine!AA1&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
         <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
-      <c r="B15" s="26" t="str">
-        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "&amp;LOWER(Entry!$H$1)&amp;".routes.ts"</f>
-        <v>&lt;-- Colar dentro de um arquivo .ts - nome sugerido: store.routes.ts</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="B15" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C15" s="99" t="str">
+        <f>LOWER(Entry!$H$1)&amp;".routes.ts"</f>
+        <v>store.routes.ts</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="str">
+        <f>Engine!AG2</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository';  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
+      </c>
+      <c r="B19" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C19" s="99" t="str">
+        <f>"create-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
+        <v>create-store.usecase.ts</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="114"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="91" t="str">
+        <f>Engine!AG4</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}</v>
+      </c>
+      <c r="B21" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C21" s="99" t="str">
+        <f>"get-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
+        <v>get-store.usecase.ts</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="114"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="91" t="str">
+        <f>Engine!AG5</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}</v>
+      </c>
+      <c r="B23" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C23" s="99" t="str">
+        <f>"list-"&amp;LOWER(Entry!H1)&amp;"s.usecase.ts"</f>
+        <v>list-stores.usecase.ts</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="114"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="str">
+        <f>Engine!AG6</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}</v>
+      </c>
+      <c r="B25" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C25" s="99" t="str">
+        <f>"update-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
+        <v>update-store.usecase.ts</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="114"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="str">
+        <f>Engine!AG3</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}</v>
+      </c>
+      <c r="B27" s="97" t="str">
+        <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
+        <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
+      </c>
+      <c r="C27" s="99" t="str">
+        <f>"delete-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
+        <v>delete-store.usecase.ts</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048279F-551F-46C1-943E-AA256A7DAC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70088849-4A13-4D1A-93BE-822268289C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,9 +155,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Get</t>
-  </si>
-  <si>
     <t>execute</t>
   </si>
   <si>
@@ -172,6 +168,9 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Get by ID</t>
   </si>
 </sst>
 </file>
@@ -1269,51 +1268,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,6 +1299,57 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,40 +1359,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1733,16 +1732,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="87" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="88"/>
+      <c r="I1" s="101"/>
       <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
@@ -1750,10 +1749,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="84"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1763,8 +1762,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="86"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="99"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1772,15 +1771,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
-      <c r="P3" s="76" t="s">
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
+      <c r="P3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="77"/>
+      <c r="Q3" s="90"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1817,10 +1816,10 @@
       <c r="M4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="75"/>
+      <c r="Q4" s="88"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -2128,11 +2127,11 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
@@ -2879,7 +2878,7 @@
         <v>18</v>
       </c>
       <c r="AE3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="str">
         <f>"Delete"&amp;Entry!H1</f>
@@ -3266,7 +3265,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF8" s="22" t="str">
         <f>IF(Entry!B5=1,Entry!J5&amp;": "&amp;Entry!K5&amp;"; ","")</f>
@@ -4972,299 +4971,299 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="89" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="74" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="103"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="81" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
         <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
-      <c r="B3" s="100" t="str">
+      <c r="B3" s="85" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C3" s="98" t="str">
+      <c r="C3" s="83" t="str">
         <f>LOWER(Entry!$H$1)&amp;".model.ts"</f>
         <v>store.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="81" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="85" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C6" s="98" t="str">
+      <c r="C6" s="83" t="str">
         <f>LOWER(Entry!$H$1)&amp;".entity.ts"</f>
         <v>store.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="94"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="79"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" } // Configurar os usecases corretos e imports"</f>
         <v>import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } } // Configurar os usecases corretos e imports</v>
       </c>
-      <c r="B9" s="97" t="str">
+      <c r="B9" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C9" s="99" t="str">
+      <c r="C9" s="84" t="str">
         <f>LOWER(Entry!$H$1)&amp;".controller.ts"</f>
         <v>store.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="str">
+      <c r="A12" s="81" t="str">
         <f>Engine!V1&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
         <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
-      <c r="B12" s="97" t="str">
+      <c r="B12" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C12" s="99" t="str">
+      <c r="C12" s="84" t="str">
         <f>LOWER(Entry!$H$1)&amp;".repository.ts"</f>
         <v>store.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f>Engine!AA1&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
         <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
-      <c r="B15" s="97" t="str">
+      <c r="B15" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C15" s="99" t="str">
+      <c r="C15" s="84" t="str">
         <f>LOWER(Entry!$H$1)&amp;".routes.ts"</f>
         <v>store.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="str">
+      <c r="A19" s="76" t="str">
         <f>Engine!AG2</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository';  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
       </c>
-      <c r="B19" s="97" t="str">
+      <c r="B19" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C19" s="99" t="str">
+      <c r="C19" s="84" t="str">
         <f>"create-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>create-store.usecase.ts</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="114"/>
+      <c r="A20" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="103"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="str">
+      <c r="A21" s="76" t="str">
         <f>Engine!AG4</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}</v>
       </c>
-      <c r="B21" s="97" t="str">
+      <c r="B21" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C21" s="99" t="str">
-        <f>"get-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>get-store.usecase.ts</v>
+      <c r="C21" s="84" t="str">
+        <f>"get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase.ts"</f>
+        <v>get-store-by-id.usecase.ts</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="114"/>
+      <c r="A22" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="103"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="str">
+      <c r="A23" s="76" t="str">
         <f>Engine!AG5</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}</v>
       </c>
-      <c r="B23" s="97" t="str">
+      <c r="B23" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C23" s="99" t="str">
+      <c r="C23" s="84" t="str">
         <f>"list-"&amp;LOWER(Entry!H1)&amp;"s.usecase.ts"</f>
         <v>list-stores.usecase.ts</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="114"/>
+      <c r="A24" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="103"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="str">
+      <c r="A25" s="76" t="str">
         <f>Engine!AG6</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}</v>
       </c>
-      <c r="B25" s="97" t="str">
+      <c r="B25" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C25" s="99" t="str">
+      <c r="C25" s="84" t="str">
         <f>"update-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>update-store.usecase.ts</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="114"/>
+      <c r="B26" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="103"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="str">
+      <c r="A27" s="76" t="str">
         <f>Engine!AG3</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}</v>
       </c>
-      <c r="B27" s="97" t="str">
+      <c r="B27" s="82" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C27" s="99" t="str">
+      <c r="C27" s="84" t="str">
         <f>"delete-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>delete-store.usecase.ts</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
+      <c r="A28" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70088849-4A13-4D1A-93BE-822268289C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF2A2A-98AF-4557-A028-642E93F80BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Engine" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Engine" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1085,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,7 +1155,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,36 +1230,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,7 +1260,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,7 +1268,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1387,6 +1371,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1705,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604D5C4-F202-47E4-B536-0D1232179344}">
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,16 +1752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="100" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="101"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
@@ -1749,10 +1769,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="96" t="s">
+      <c r="P1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="97"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1762,8 +1782,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="99"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1771,15 +1791,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
-      <c r="P3" s="89" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="P3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="90"/>
+      <c r="Q3" s="71"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1792,34 +1812,34 @@
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="88"/>
+      <c r="Q4" s="69"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1841,28 +1861,28 @@
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="111" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -1881,18 +1901,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="39"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="M6" s="60"/>
-      <c r="P6" s="66" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="38"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
+      <c r="M6" s="112"/>
+      <c r="P6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="67" t="s">
+      <c r="Q6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="3"/>
@@ -1905,14 +1925,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="M7" s="61"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+      <c r="M7" s="113"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1932,14 +1952,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="M8" s="62"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="M8" s="114"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1959,14 +1979,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="M9" s="63"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
+      <c r="M9" s="115"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1986,14 +2006,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="39"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="M10" s="62"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="38"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="M10" s="114"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2013,14 +2033,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
-      <c r="M11" s="62"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
+      <c r="M11" s="114"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2040,14 +2060,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="M12" s="64"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+      <c r="M12" s="116"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2067,14 +2087,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="M13" s="62"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="M13" s="114"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2094,14 +2114,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="M14" s="65"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="M14" s="117"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2127,35 +2147,35 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="91" t="s">
+      <c r="I17" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="33" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
@@ -2169,23 +2189,23 @@
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="I19" s="50" t="s">
+      <c r="G19" s="51"/>
+      <c r="I19" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="104" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2196,23 +2216,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="I20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="I20" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="107" t="s">
         <v>17</v>
       </c>
       <c r="AE20" s="10"/>
@@ -2223,13 +2243,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="69"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="52"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="107"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2238,13 +2258,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="69"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="52"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2253,13 +2273,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="69"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="52"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2268,13 +2288,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="69"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="52"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2283,13 +2303,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="69"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="52"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2298,13 +2318,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="69"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="52"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2313,13 +2333,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="69"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="52"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2328,13 +2348,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="69"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="55"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="52"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2343,13 +2363,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="69"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="52"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="107"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2358,13 +2378,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="69"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="52"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="107"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2373,13 +2393,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="69"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="52"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="107"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2388,13 +2408,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="69"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="52"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="107"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2403,13 +2423,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="69"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="55"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="52"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2418,13 +2438,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="69"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="52"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2433,13 +2453,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="69"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="52"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="107"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2448,13 +2468,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="69"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="52"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="107"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2463,13 +2483,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="58"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -2602,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5156362B-539B-4F74-A6D1-CC923D025A62}">
   <dimension ref="B1:AK39"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2634,7 @@
     <col min="13" max="13" width="3.140625" customWidth="1"/>
     <col min="14" max="18" width="5.7109375" customWidth="1"/>
     <col min="19" max="19" width="3.140625" customWidth="1"/>
-    <col min="20" max="23" width="5.7109375" customWidth="1"/>
+    <col min="20" max="23" width="25.5703125" customWidth="1"/>
     <col min="24" max="24" width="3.140625" customWidth="1"/>
     <col min="25" max="29" width="5.7109375" customWidth="1"/>
     <col min="30" max="30" width="3.140625" style="21" customWidth="1"/>
@@ -2660,8 +2680,8 @@
         <v>public async create(req: Request, res: Response) {</v>
       </c>
       <c r="R1" t="str">
-        <f>N2&amp;N3&amp;O26&amp;O3&amp;N4&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
-        <v>try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <f>N2&amp;N3&amp;O26&amp;O3&amp;R8&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
+        <v>try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S1" s="21" t="s">
         <v>18</v>
@@ -2772,8 +2792,8 @@
         <v>public async list(req: Request, res: Response) {</v>
       </c>
       <c r="R2" t="str">
-        <f>N2&amp;N4&amp;O4&amp;N5</f>
-        <v>try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <f>N2&amp;R11&amp;O4&amp;N5</f>
+        <v>try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S2" s="21" t="s">
         <v>18</v>
@@ -2797,8 +2817,8 @@
         <v>CreateStore</v>
       </c>
       <c r="AG2" t="str">
-        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created"&amp;AK12&amp;" created');}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository';  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
+        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AF30&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created"&amp;AK12&amp;" created');}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
       </c>
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
@@ -2857,8 +2877,8 @@
         <v>public async get(req: Request, res: Response) {</v>
       </c>
       <c r="R3" t="str">
-        <f>N2&amp;N3&amp;O6&amp;P3&amp;N4&amp;O6&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <f>N2&amp;N3&amp;O6&amp;P3&amp;R10&amp;O6&amp;O4&amp;N5</f>
+        <v>try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S3" s="21" t="s">
         <v>18</v>
@@ -2923,10 +2943,6 @@
         <v>18</v>
       </c>
       <c r="M4" s="21"/>
-      <c r="N4" t="str">
-        <f>"const result = await new methodUseCase().execute("</f>
-        <v>const result = await new methodUseCase().execute(</v>
-      </c>
       <c r="O4" t="str">
         <f>"); "</f>
         <v xml:space="preserve">); </v>
@@ -2936,8 +2952,8 @@
         <v>public async update(req: Request, res: Response) {</v>
       </c>
       <c r="R4" t="str">
-        <f>N2&amp;N3&amp;O6&amp;P3&amp;N3&amp;O26&amp;O3&amp;N4&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <f>N2&amp;N3&amp;O6&amp;P3&amp;N3&amp;O26&amp;O3&amp;R12&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
+        <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>18</v>
@@ -3022,8 +3038,8 @@
         <v>public async delete(req: Request, res: Response) {</v>
       </c>
       <c r="R5" t="str">
-        <f>N2&amp;N3&amp;O6&amp;P3&amp;N4&amp;O6&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <f>N2&amp;N3&amp;O6&amp;P3&amp;R9&amp;O6&amp;O4&amp;N5</f>
+        <v>try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S5" s="21" t="s">
         <v>18</v>
@@ -3245,6 +3261,14 @@
         <f>IF(Entry!B20=1,Entry!J20&amp;",","")</f>
         <v>price,</v>
       </c>
+      <c r="Q8" t="str">
+        <f>AF2&amp;$AE$1</f>
+        <v>CreateStoreUseCase</v>
+      </c>
+      <c r="R8" t="str">
+        <f>"const result = await new "&amp;Q8&amp;"().execute("</f>
+        <v>const result = await new CreateStoreUseCase().execute(</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" t="str">
         <f>IF(Entry!B22=1,Entry!J22,"")</f>
@@ -3318,6 +3342,14 @@
         <f>IF(Entry!B21=1,Entry!J21&amp;",","")</f>
         <v/>
       </c>
+      <c r="Q9" t="str">
+        <f>AF3&amp;$AE$1</f>
+        <v>DeleteStoreUseCase</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" ref="R9:R12" si="0">"const result = await new "&amp;Q9&amp;"().execute("</f>
+        <v>const result = await new DeleteStoreUseCase().execute(</v>
+      </c>
       <c r="S9" s="21"/>
       <c r="T9" t="str">
         <f>IF(Entry!B23=1,Entry!J23,"")</f>
@@ -3391,6 +3423,14 @@
         <f>IF(Entry!B22=1,Entry!J22&amp;",","")</f>
         <v/>
       </c>
+      <c r="Q10" t="str">
+        <f>AF4&amp;$AE$1</f>
+        <v>GetStoreByIdUseCase</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>const result = await new GetStoreByIdUseCase().execute(</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" t="str">
         <f>IF(Entry!B24=1,Entry!J24,"")</f>
@@ -3464,6 +3504,14 @@
         <f>IF(Entry!B23=1,Entry!J23&amp;",","")</f>
         <v/>
       </c>
+      <c r="Q11" t="str">
+        <f>AF5&amp;$AE$1</f>
+        <v>ListStoresUseCase</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>const result = await new ListStoresUseCase().execute(</v>
+      </c>
       <c r="S11" s="21"/>
       <c r="T11" t="str">
         <f>IF(Entry!B25=1,Entry!J25,"")</f>
@@ -3474,6 +3522,10 @@
         <v/>
       </c>
       <c r="X11" s="21"/>
+      <c r="Z11" t="str">
+        <f>"import { "&amp;AC1&amp;" } from '../controllers/"&amp;LOWER(Entry!H1)&amp;".controller'; "</f>
+        <v xml:space="preserve">import { StoreController } from '../controllers/store.controller'; </v>
+      </c>
       <c r="AF11" t="str">
         <f>IF(Entry!B21=1,Entry!J21&amp;": "&amp;Entry!K21&amp;"; ","")</f>
         <v/>
@@ -3537,6 +3589,14 @@
         <f>IF(Entry!B24=1,Entry!J24&amp;",","")</f>
         <v/>
       </c>
+      <c r="Q12" t="str">
+        <f>AF6&amp;$AE$1</f>
+        <v>UpdateStoreUseCase</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>const result = await new UpdateStoreUseCase().execute(</v>
+      </c>
       <c r="S12" s="21"/>
       <c r="T12" t="str">
         <f>IF(Entry!B26=1,Entry!J26,"")</f>
@@ -3649,6 +3709,10 @@
         <f>IF(Entry!B26=1,Entry!J26&amp;",","")</f>
         <v/>
       </c>
+      <c r="R14" s="98" t="str">
+        <f>"import { "&amp;Q8&amp;" } from '../usecases/create-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
+        <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; </v>
+      </c>
       <c r="S14" s="21"/>
       <c r="T14" t="str">
         <f>IF(Entry!B28=1,Entry!J28,"")</f>
@@ -3720,6 +3784,10 @@
       <c r="O15" t="str">
         <f>IF(Entry!B27=1,Entry!J27&amp;",","")</f>
         <v/>
+      </c>
+      <c r="R15" s="98" t="str">
+        <f>"import { "&amp;Q9&amp;" } from '../usecases/delete-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
+        <v xml:space="preserve">import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; </v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" t="str">
@@ -3763,6 +3831,10 @@
         <f>IF(Entry!B28=1,Entry!J28&amp;",","")</f>
         <v/>
       </c>
+      <c r="R16" s="98" t="str">
+        <f>"import { "&amp;Q10&amp;" } from '../usecases/get-"&amp;LOWER(Entry!$H$1)&amp;"-by-id.usecase'; "</f>
+        <v xml:space="preserve">import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; </v>
+      </c>
       <c r="S16" s="21"/>
       <c r="T16" t="str">
         <f>IF(Entry!B30=1,Entry!J30,"")</f>
@@ -3807,6 +3879,10 @@
         <f>IF(Entry!B29=1,Entry!J29&amp;",","")</f>
         <v/>
       </c>
+      <c r="R17" s="98" t="str">
+        <f>"import { "&amp;Q11&amp;" } from '../usecases/list-"&amp;LOWER(Entry!$H$1)&amp;"s.usecase'; "</f>
+        <v xml:space="preserve">import { ListStoresUseCase } from '../usecases/list-stores.usecase'; </v>
+      </c>
       <c r="S17" s="21"/>
       <c r="T17" t="str">
         <f>IF(Entry!B31=1,Entry!J31,"")</f>
@@ -3886,6 +3962,10 @@
         <f>IF(Entry!B30=1,Entry!J30&amp;",","")</f>
         <v/>
       </c>
+      <c r="R18" s="98" t="str">
+        <f>"import { "&amp;Q12&amp;" } from '../usecases/update-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
+        <v xml:space="preserve">import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
+      </c>
       <c r="S18" s="21"/>
       <c r="T18" t="str">
         <f>IF(Entry!B32=1,Entry!J32,"")</f>
@@ -4034,6 +4114,10 @@
         <f>IF(Entry!B32=1,Entry!J32&amp;",","")</f>
         <v/>
       </c>
+      <c r="R20" t="str">
+        <f>R14&amp;R15&amp;R16&amp;R17&amp;R18</f>
+        <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
+      </c>
       <c r="S20" s="21"/>
       <c r="T20" t="str">
         <f>IF(Entry!B34=1,Entry!J34,"")</f>
@@ -4445,6 +4529,10 @@
         <v>name,price,</v>
       </c>
       <c r="S26" s="21"/>
+      <c r="V26" t="str">
+        <f>"import { "&amp;Entry!H1&amp;"Entity } from '../../../shared/database/entities/"&amp;LOWER(Entry!H1)&amp;".entity'; "</f>
+        <v xml:space="preserve">import { StoreEntity } from '../../../shared/database/entities/store.entity'; </v>
+      </c>
       <c r="X26" s="21"/>
       <c r="AF26" t="str">
         <f>IF(Entry!B36=1,Entry!J36&amp;": "&amp;Entry!K36&amp;"; ","")</f>
@@ -4502,6 +4590,10 @@
       </c>
       <c r="M27" s="21"/>
       <c r="S27" s="21"/>
+      <c r="V27" t="str">
+        <f>"import { "&amp;Entry!H1&amp;" } from '../../../models/"&amp;LOWER(Entry!H1)&amp;".model'; "</f>
+        <v xml:space="preserve">import { Store } from '../../../models/store.model'; </v>
+      </c>
       <c r="X27" s="21"/>
       <c r="AF27" s="22" t="str">
         <f>IF(Entry!B37=1,Entry!J37&amp;": "&amp;Entry!K37&amp;"; ","")</f>
@@ -4970,281 +5062,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235BA3-CC45-4994-B75C-E29B537BC50A}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="str">
+      <c r="A3" s="99" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
         <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
-      <c r="B3" s="85" t="str">
+      <c r="B3" s="66" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C3" s="83" t="str">
+      <c r="C3" s="64" t="str">
         <f>LOWER(Entry!$H$1)&amp;".model.ts"</f>
         <v>store.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="str">
+      <c r="A6" s="99" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
-      <c r="B6" s="85" t="str">
+      <c r="B6" s="66" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C6" s="83" t="str">
+      <c r="C6" s="64" t="str">
         <f>LOWER(Entry!$H$1)&amp;".entity.ts"</f>
         <v>store.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="61"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="str">
-        <f>Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" } // Configurar os usecases corretos e imports"</f>
-        <v>import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new methodUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new methodUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new methodUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } } // Configurar os usecases corretos e imports</v>
-      </c>
-      <c r="B9" s="82" t="str">
+      <c r="A9" s="100" t="str">
+        <f>Engine!R20&amp;Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" }"</f>
+        <v>import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
+      </c>
+      <c r="B9" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C9" s="84" t="str">
+      <c r="C9" s="65" t="str">
         <f>LOWER(Entry!$H$1)&amp;".controller.ts"</f>
         <v>store.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="str">
-        <f>Engine!V1&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
-        <v>import { Database } from '../../../../main/database/database.connection'; export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
-      </c>
-      <c r="B12" s="82" t="str">
+      <c r="A12" s="99" t="str">
+        <f>Engine!V1&amp;Engine!V26&amp;Engine!V27&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
+        <v>import { Database } from '../../../../main/database/database.connection';import { StoreEntity } from '../../../shared/database/entities/store.entity'; import { Store } from '../../../models/store.model';  export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
+      </c>
+      <c r="B12" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C12" s="84" t="str">
+      <c r="C12" s="65" t="str">
         <f>LOWER(Entry!$H$1)&amp;".repository.ts"</f>
         <v>store.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="str">
-        <f>Engine!AA1&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
-        <v>import { Router } from 'express'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
-      </c>
-      <c r="B15" s="82" t="str">
+      <c r="A15" s="100" t="str">
+        <f>Engine!AA1&amp;Engine!Z11&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
+        <v>import { Router } from 'express'; import { StoreController } from '../controllers/store.controller'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
+      </c>
+      <c r="B15" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C15" s="84" t="str">
+      <c r="C15" s="65" t="str">
         <f>LOWER(Entry!$H$1)&amp;".routes.ts"</f>
         <v>store.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="str">
-        <f>Engine!AG2</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository';  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
-      </c>
-      <c r="B19" s="82" t="str">
+      <c r="A19" s="101" t="str">
+        <f>Engine!AG2&amp;Engine!AF32</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+      </c>
+      <c r="B19" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C19" s="84" t="str">
+      <c r="C19" s="65" t="str">
         <f>"create-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>create-store.usecase.ts</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="103"/>
+      <c r="B20" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="84"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="str">
-        <f>Engine!AG4</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}</v>
-      </c>
-      <c r="B21" s="82" t="str">
+      <c r="A21" s="101" t="str">
+        <f>Engine!AG4&amp;Engine!AF32</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+      </c>
+      <c r="B21" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C21" s="84" t="str">
+      <c r="C21" s="65" t="str">
         <f>"get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase.ts"</f>
         <v>get-store-by-id.usecase.ts</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="103"/>
+      <c r="B22" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="84"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="str">
-        <f>Engine!AG5</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}</v>
-      </c>
-      <c r="B23" s="82" t="str">
+      <c r="A23" s="101" t="str">
+        <f>Engine!AG5&amp;Engine!AF32</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+      </c>
+      <c r="B23" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C23" s="84" t="str">
+      <c r="C23" s="65" t="str">
         <f>"list-"&amp;LOWER(Entry!H1)&amp;"s.usecase.ts"</f>
         <v>list-stores.usecase.ts</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="103"/>
+      <c r="B24" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="84"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="str">
-        <f>Engine!AG6</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}</v>
-      </c>
-      <c r="B25" s="82" t="str">
+      <c r="A25" s="101" t="str">
+        <f>Engine!AG6&amp;Engine!AF32</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+      </c>
+      <c r="B25" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C25" s="84" t="str">
+      <c r="C25" s="65" t="str">
         <f>"update-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>update-store.usecase.ts</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="103"/>
+      <c r="B26" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="84"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="str">
-        <f>Engine!AG3</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}</v>
-      </c>
-      <c r="B27" s="82" t="str">
+      <c r="A27" s="101" t="str">
+        <f>Engine!AG3&amp;Engine!AF32</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+      </c>
+      <c r="B27" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C27" s="84" t="str">
+      <c r="C27" s="65" t="str">
         <f>"delete-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>delete-store.usecase.ts</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="106"/>
+      <c r="A28" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF2A2A-98AF-4557-A028-642E93F80BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2F26B-9685-413B-906C-747723D83BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Engine" sheetId="2" r:id="rId2"/>
+    <sheet name="Engine" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1283,96 +1283,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1407,6 +1317,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1725,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604D5C4-F202-47E4-B536-0D1232179344}">
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
@@ -1752,16 +1752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="81" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="82"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
@@ -1769,10 +1769,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="P1" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="78"/>
+      <c r="Q1" s="98"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1782,8 +1782,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="100"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1791,15 +1791,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="P3" s="70" t="s">
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="P3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="71"/>
+      <c r="Q3" s="91"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1836,10 +1836,10 @@
       <c r="M4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="69"/>
+      <c r="Q4" s="89"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1873,16 +1873,16 @@
       <c r="G5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="81" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -1905,10 +1905,10 @@
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="38"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
-      <c r="M6" s="112"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="M6" s="82"/>
       <c r="P6" s="49" t="s">
         <v>9</v>
       </c>
@@ -1929,10 +1929,10 @@
       <c r="E7" s="40"/>
       <c r="F7" s="42"/>
       <c r="G7" s="43"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
-      <c r="M7" s="113"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="M7" s="83"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1956,10 +1956,10 @@
       <c r="E8" s="40"/>
       <c r="F8" s="42"/>
       <c r="G8" s="43"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="M8" s="114"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="M8" s="84"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1983,10 +1983,10 @@
       <c r="E9" s="40"/>
       <c r="F9" s="42"/>
       <c r="G9" s="43"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-      <c r="M9" s="115"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="M9" s="85"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2010,10 +2010,10 @@
       <c r="E10" s="37"/>
       <c r="F10" s="41"/>
       <c r="G10" s="38"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="M10" s="114"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="M10" s="84"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2037,10 +2037,10 @@
       <c r="E11" s="40"/>
       <c r="F11" s="42"/>
       <c r="G11" s="43"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-      <c r="M11" s="114"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="M11" s="84"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2064,10 +2064,10 @@
       <c r="E12" s="40"/>
       <c r="F12" s="42"/>
       <c r="G12" s="43"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="M12" s="116"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="M12" s="86"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2091,10 +2091,10 @@
       <c r="E13" s="40"/>
       <c r="F13" s="42"/>
       <c r="G13" s="43"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
-      <c r="M13" s="114"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="M13" s="84"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2118,10 +2118,10 @@
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
       <c r="G14" s="48"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="M14" s="117"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="M14" s="87"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2147,11 +2147,11 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
@@ -2199,13 +2199,13 @@
         <v>9</v>
       </c>
       <c r="G19" s="51"/>
-      <c r="I19" s="102" t="s">
+      <c r="I19" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="74" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2226,13 +2226,13 @@
         <v>9</v>
       </c>
       <c r="G20" s="52"/>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="77" t="s">
         <v>17</v>
       </c>
       <c r="AE20" s="10"/>
@@ -2247,9 +2247,9 @@
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="52"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="107"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2262,9 +2262,9 @@
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="52"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2277,9 +2277,9 @@
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="52"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2292,9 +2292,9 @@
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="52"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="107"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2307,9 +2307,9 @@
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="52"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="107"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2322,9 +2322,9 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="52"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2337,9 +2337,9 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="52"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2352,9 +2352,9 @@
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="52"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2367,9 +2367,9 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="52"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2382,9 +2382,9 @@
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
       <c r="G30" s="52"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="107"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2397,9 +2397,9 @@
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
       <c r="G31" s="52"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="107"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2412,9 +2412,9 @@
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
       <c r="G32" s="52"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2427,9 +2427,9 @@
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
       <c r="G33" s="52"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2442,9 +2442,9 @@
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="52"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="107"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2457,9 +2457,9 @@
       <c r="E35" s="53"/>
       <c r="F35" s="40"/>
       <c r="G35" s="52"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="107"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2472,9 +2472,9 @@
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="52"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="107"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2487,9 +2487,9 @@
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
       <c r="G37" s="56"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -3709,7 +3709,7 @@
         <f>IF(Entry!B26=1,Entry!J26&amp;",","")</f>
         <v/>
       </c>
-      <c r="R14" s="98" t="str">
+      <c r="R14" s="68" t="str">
         <f>"import { "&amp;Q8&amp;" } from '../usecases/create-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
         <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; </v>
       </c>
@@ -3785,7 +3785,7 @@
         <f>IF(Entry!B27=1,Entry!J27&amp;",","")</f>
         <v/>
       </c>
-      <c r="R15" s="98" t="str">
+      <c r="R15" s="68" t="str">
         <f>"import { "&amp;Q9&amp;" } from '../usecases/delete-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
         <v xml:space="preserve">import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; </v>
       </c>
@@ -3831,7 +3831,7 @@
         <f>IF(Entry!B28=1,Entry!J28&amp;",","")</f>
         <v/>
       </c>
-      <c r="R16" s="98" t="str">
+      <c r="R16" s="68" t="str">
         <f>"import { "&amp;Q10&amp;" } from '../usecases/get-"&amp;LOWER(Entry!$H$1)&amp;"-by-id.usecase'; "</f>
         <v xml:space="preserve">import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; </v>
       </c>
@@ -3879,7 +3879,7 @@
         <f>IF(Entry!B29=1,Entry!J29&amp;",","")</f>
         <v/>
       </c>
-      <c r="R17" s="98" t="str">
+      <c r="R17" s="68" t="str">
         <f>"import { "&amp;Q11&amp;" } from '../usecases/list-"&amp;LOWER(Entry!$H$1)&amp;"s.usecase'; "</f>
         <v xml:space="preserve">import { ListStoresUseCase } from '../usecases/list-stores.usecase'; </v>
       </c>
@@ -3962,7 +3962,7 @@
         <f>IF(Entry!B30=1,Entry!J30&amp;",","")</f>
         <v/>
       </c>
-      <c r="R18" s="98" t="str">
+      <c r="R18" s="68" t="str">
         <f>"import { "&amp;Q12&amp;" } from '../usecases/update-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
         <v xml:space="preserve">import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
       </c>
@@ -5062,7 +5062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235BA3-CC45-4994-B75C-E29B537BC50A}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
@@ -5085,11 +5085,11 @@
       <c r="A2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="69" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
         <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
@@ -5103,19 +5103,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="str">
+      <c r="A6" s="69" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
@@ -5129,19 +5129,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="61"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="str">
+      <c r="A9" s="70" t="str">
         <f>Engine!R20&amp;Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" }"</f>
         <v>import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
       </c>
@@ -5155,19 +5155,19 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="str">
+      <c r="A12" s="69" t="str">
         <f>Engine!V1&amp;Engine!V26&amp;Engine!V27&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
         <v>import { Database } from '../../../../main/database/database.connection';import { StoreEntity } from '../../../shared/database/entities/store.entity'; import { Store } from '../../../models/store.model';  export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
@@ -5181,19 +5181,19 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="str">
+      <c r="A15" s="70" t="str">
         <f>Engine!AA1&amp;Engine!Z11&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
         <v>import { Router } from 'express'; import { StoreController } from '../controllers/store.controller'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
@@ -5207,26 +5207,26 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="str">
+      <c r="A19" s="71" t="str">
         <f>Engine!AG2&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
@@ -5243,13 +5243,13 @@
       <c r="A20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="84"/>
+      <c r="B20" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="104"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="str">
+      <c r="A21" s="71" t="str">
         <f>Engine!AG4&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
@@ -5266,13 +5266,13 @@
       <c r="A22" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="84"/>
+      <c r="B22" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="104"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="str">
+      <c r="A23" s="71" t="str">
         <f>Engine!AG5&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
@@ -5289,13 +5289,13 @@
       <c r="A24" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="84"/>
+      <c r="B24" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="104"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="str">
+      <c r="A25" s="71" t="str">
         <f>Engine!AG6&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
@@ -5312,13 +5312,13 @@
       <c r="A26" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="84"/>
+      <c r="B26" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="104"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="str">
+      <c r="A27" s="71" t="str">
         <f>Engine!AG3&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
@@ -5332,14 +5332,21 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
+      <c r="A28" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
@@ -5349,13 +5356,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2F26B-9685-413B-906C-747723D83BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F32552-D38B-454C-BB06-E977983A0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
   <si>
     <t>fora do constructor</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>constructor</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>number</t>
@@ -143,9 +137,6 @@
     <t>return app;</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>UseCase</t>
   </si>
   <si>
@@ -172,12 +163,21 @@
   <si>
     <t>Get by ID</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,18 +259,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,13 +291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,108 +1150,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1268,57 +1169,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,12 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,6 +1257,165 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1725,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604D5C4-F202-47E4-B536-0D1232179344}">
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,27 +1761,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="102"/>
+      <c r="D1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="106"/>
       <c r="J1" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="18" t="str">
         <f>LOWER(H1)&amp;"s"</f>
-        <v>stores</v>
-      </c>
-      <c r="P1" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="98"/>
+        <v>products</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1782,8 +1791,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="100"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1791,15 +1800,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-      <c r="P3" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="91"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="P3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="35"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1812,34 +1821,34 @@
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="89"/>
+      <c r="P4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="33"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1861,35 +1870,35 @@
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="90" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="10"/>
@@ -1901,18 +1910,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="38"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-      <c r="M6" s="82"/>
-      <c r="P6" s="49" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="70"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
+      <c r="M6" s="91"/>
+      <c r="P6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="98" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="3"/>
@@ -1925,14 +1934,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-      <c r="M7" s="83"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="M7" s="92"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1952,14 +1961,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="M8" s="84"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="M8" s="93"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1979,14 +1988,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="M9" s="85"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="M9" s="94"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2006,14 +2015,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
-      <c r="M10" s="84"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="70"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="M10" s="93"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2033,14 +2042,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="M11" s="84"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="M11" s="93"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2060,14 +2069,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="M12" s="86"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="M12" s="95"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2087,14 +2096,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="M13" s="84"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="M13" s="93"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2114,14 +2123,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="M14" s="87"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="M14" s="96"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2147,35 +2156,35 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="109" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
@@ -2189,23 +2198,23 @@
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="I19" s="72" t="s">
+      <c r="G19" s="99"/>
+      <c r="I19" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="74" t="s">
+      <c r="J19" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2216,24 +2225,24 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="I20" s="75" t="s">
+      <c r="G20" s="100"/>
+      <c r="I20" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="77" t="s">
-        <v>17</v>
+      <c r="J20" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>15</v>
       </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
@@ -2243,13 +2252,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="52"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="100"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2258,13 +2267,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="52"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="100"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2273,13 +2282,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="52"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="100"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2288,13 +2297,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="52"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="100"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2303,13 +2312,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="52"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="100"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2318,13 +2327,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="52"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="100"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2333,13 +2342,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="52"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="100"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2348,13 +2357,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="52"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="100"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2363,13 +2372,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="52"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="100"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2378,13 +2387,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="52"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="100"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2393,13 +2402,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="52"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="100"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2408,13 +2417,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="52"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="100"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2423,13 +2432,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="52"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="77"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="100"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2438,13 +2447,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="52"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="100"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2453,13 +2462,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="52"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="100"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2468,13 +2477,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="52"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="100"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2483,13 +2492,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="104"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="89"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -2620,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5156362B-539B-4F74-A6D1-CC923D025A62}">
-  <dimension ref="B1:AK39"/>
+  <dimension ref="B1:AL39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,42 +2643,39 @@
     <col min="13" max="13" width="3.140625" customWidth="1"/>
     <col min="14" max="18" width="5.7109375" customWidth="1"/>
     <col min="19" max="19" width="3.140625" customWidth="1"/>
-    <col min="20" max="23" width="25.5703125" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
+    <col min="21" max="23" width="5.7109375" customWidth="1"/>
     <col min="24" max="24" width="3.140625" customWidth="1"/>
     <col min="25" max="29" width="5.7109375" customWidth="1"/>
     <col min="30" max="30" width="3.140625" style="21" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" customWidth="1"/>
-    <col min="33" max="33" width="18.42578125" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" customWidth="1"/>
-    <col min="36" max="36" width="20.28515625" customWidth="1"/>
-    <col min="37" max="37" width="25.5703125" customWidth="1"/>
+    <col min="31" max="38" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="G1" t="str">
         <f>IF(Entry!M5="createUuid()","import { v4 as createUuid } from 'uuid';","")</f>
         <v>import { v4 as createUuid } from 'uuid';</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" t="str">
         <f>"import { Request, Response } from 'express'; "</f>
@@ -2681,40 +2687,40 @@
       </c>
       <c r="R1" t="str">
         <f>N2&amp;N3&amp;O26&amp;O3&amp;R8&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
-        <v>try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { name,price, } = req.body; const result = await new CreateProductUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V1" t="str">
         <f>"import { Database } from '../../../../main/database/database.connection';"</f>
         <v>import { Database } from '../../../../main/database/database.connection';</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA1" t="str">
         <f>"import { Router } from 'express'; "</f>
         <v xml:space="preserve">import { Router } from 'express'; </v>
       </c>
       <c r="AB1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC1" t="str">
         <f>Entry!H1&amp;Engine!N1</f>
-        <v>StoreController</v>
+        <v>ProductController</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AG1" t="str">
         <f>"import { Result } from '../../../shared/contracts/result.contract'; "</f>
@@ -2726,18 +2732,21 @@
       </c>
       <c r="AI1" t="str">
         <f>"import { "&amp;Entry!H1&amp;" } from '../../../models/"&amp;LOWER(Entry!H1)&amp;".model'; "</f>
-        <v xml:space="preserve">import { Store } from '../../../models/store.model'; </v>
+        <v xml:space="preserve">import { Product } from '../../../models/product.model'; </v>
       </c>
       <c r="AJ1" t="str">
         <f>"import { "&amp;Entry!H1&amp;"Repository } from '../repositories/"&amp;LOWER(Entry!H1)&amp;".repository'; "</f>
-        <v xml:space="preserve">import { StoreRepository } from '../repositories/store.repository'; </v>
+        <v xml:space="preserve">import { ProductRepository } from '../repositories/product.repository'; </v>
       </c>
       <c r="AK1" t="str">
         <f>"import { "&amp;AF4&amp;AE1&amp;" } from './get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase';"</f>
-        <v>import { GetStoreByIdUseCase } from './get-store-by-id.usecase';</v>
-      </c>
-    </row>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+        <v>import { GetProductByIdUseCase } from './get-product-by-id.usecase';</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>IF(Entry!B5=1,Entry!I5&amp;" _"&amp;Entry!J5&amp;": "&amp;Entry!K5&amp;"; ","")</f>
         <v xml:space="preserve">private _id: string; </v>
@@ -2759,7 +2768,7 @@
         <v xml:space="preserve">id: this._id, </v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" t="str">
@@ -2771,13 +2780,13 @@
         <v xml:space="preserve">@PrimaryColumn()id: string; </v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2" t="str">
         <f>"try { "</f>
@@ -2793,35 +2802,38 @@
       </c>
       <c r="R2" t="str">
         <f>N2&amp;R11&amp;O4&amp;N5</f>
-        <v>try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const result = await new ListProductsUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W2" t="str">
         <f>"private connection = Database.connection.getRepository("&amp;Entry!H1&amp;Engine!J1&amp;");"</f>
-        <v>private connection = Database.connection.getRepository(StoreEntity);</v>
+        <v>private connection = Database.connection.getRepository(ProductEntity);</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="str">
         <f>"export const "&amp;LOWER(Entry!H1)&amp;Engine!Y1&amp;" = () =&gt; { const app = Router(); "</f>
-        <v xml:space="preserve">export const storeRoutes = () =&gt; { const app = Router(); </v>
+        <v xml:space="preserve">export const productRoutes = () =&gt; { const app = Router(); </v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="str">
         <f>"Create"&amp;Entry!H1</f>
-        <v>CreateStore</v>
+        <v>CreateProduct</v>
       </c>
       <c r="AG2" t="str">
-        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AF30&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created"&amp;AK12&amp;" created');}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}</v>
-      </c>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AF30&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created.toJson()"&amp;AK12&amp;" created');}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; interface CreateProductParams { name: string; price: number;  }  export class CreateProductUseCase { public async execute(params: CreateProductParams) : Promise&lt;Result&gt; { const product = new Product(params.name, params.price, ); const result = await new ProductRepository().create(product);return Return.created.toJson()(result, 'Product created');}}</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>IF(Entry!B6=1,Entry!I6&amp;" _"&amp;Entry!J6&amp;": "&amp;Entry!K6&amp;"; ","")</f>
         <v/>
@@ -2852,13 +2864,13 @@
         <v/>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N3" t="str">
         <f>"const { "</f>
@@ -2878,38 +2890,41 @@
       </c>
       <c r="R3" t="str">
         <f>N2&amp;N3&amp;O6&amp;P3&amp;R10&amp;O6&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { id } = req.params; const result = await new GetProductByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W3" t="str">
         <f>"public async create("&amp;LOWER(Entry!H1)&amp;": "&amp;Entry!H1&amp;") { const "&amp;LOWER(Entry!H1)&amp;Engine!J1&amp;" = this.connection.create({ "&amp;T24&amp;"}); const results = await  this.connection.save("&amp;LOWER(Entry!H1)&amp;Engine!J1&amp;"); return "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(results);}"</f>
-        <v>public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}</v>
+        <v>public async create(product: Product) { const productEntity = this.connection.create({ id: product.id, name: product.name, price: product.price, }); const results = await  this.connection.save(productEntity); return ProductRepository.toModel(results);}</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="str">
         <f>"app.get('/', new "&amp;AC1&amp;"().list);"</f>
-        <v>app.get('/', new StoreController().list);</v>
+        <v>app.get('/', new ProductController().list);</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AF3" t="str">
         <f>"Delete"&amp;Entry!H1</f>
-        <v>DeleteStore</v>
+        <v>DeleteProduct</v>
       </c>
       <c r="AG3" t="str">
         <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF3&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { const deleted = await new "&amp;Entry!H1&amp;"Repository().delete("&amp;Entry!J5&amp;"); if(deleted == 0) { return Return.notFound('"&amp;Entry!H1&amp;"');}"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" deleted', '');}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class DeleteProductUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new ProductRepository().delete(id); if(deleted == 0) { return Return.notFound('Product');}return Return.success('Product deleted', '');}}</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>IF(Entry!B7=1,Entry!I7&amp;" _"&amp;Entry!J7&amp;": "&amp;Entry!K7&amp;"; ","")</f>
         <v/>
@@ -2940,7 +2955,7 @@
         <v/>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" s="21"/>
       <c r="O4" t="str">
@@ -2952,11 +2967,11 @@
         <v>public async update(req: Request, res: Response) {</v>
       </c>
       <c r="R4" t="str">
-        <f>N2&amp;N3&amp;O6&amp;P3&amp;N3&amp;O26&amp;O3&amp;R12&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <f>N2&amp;N3&amp;O6&amp;P3&amp;N3&amp;O26&amp;O3&amp;R12&amp;"{ "&amp;O6&amp;","&amp;O26&amp;" }"&amp;O4&amp;N5</f>
+        <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateProductUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T4" t="str">
         <f>Entry!J5</f>
@@ -2964,32 +2979,35 @@
       </c>
       <c r="U4" t="str">
         <f>IF(Entry!B5=1,": "&amp;LOWER(Entry!H1)&amp;"."&amp;T4&amp;", ","")</f>
-        <v xml:space="preserve">: store.id, </v>
+        <v xml:space="preserve">: product.id, </v>
       </c>
       <c r="W4" t="str">
         <f>"public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(entity));}"</f>
-        <v>public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}</v>
+        <v>public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; ProductRepository.toModel(entity));}</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="str">
         <f>"app.get('/:"&amp;Entry!J5&amp;"', new "&amp;AC1&amp;"().get);"</f>
-        <v>app.get('/:id', new StoreController().get);</v>
+        <v>app.get('/:id', new ProductController().get);</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="str">
         <f>"Get"&amp;Entry!H1&amp;"ById"</f>
-        <v>GetStoreById</v>
+        <v>GetProductById</v>
       </c>
       <c r="AG4" t="str">
-        <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF4&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { "&amp;AK10&amp;"get("&amp;Entry!J5&amp;"); if(!result) {"&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;");} "&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" obtained', result.toJson());}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+        <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF4&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { "&amp;AK10&amp;"get("&amp;Entry!J5&amp;"); if(!result) {"&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;"');} "&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" obtained', result.toJson());}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class GetProductByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new ProductRepository().get(id); if(!result) {return Return.notFound('Product');} return Return.success('Product obtained', result.toJson());}}</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>IF(Entry!B8=1,Entry!I8&amp;" _"&amp;Entry!J8&amp;": "&amp;Entry!K8&amp;"; ","")</f>
         <v/>
@@ -3020,14 +3038,14 @@
         <v/>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" t="str">
         <f>J1&amp;", "&amp;K1&amp;", "&amp;L1</f>
         <v>Entity, Column, PrimaryColumn</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N5" t="str">
         <f>"return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }"</f>
@@ -3039,10 +3057,10 @@
       </c>
       <c r="R5" t="str">
         <f>N2&amp;N3&amp;O6&amp;P3&amp;R9&amp;O6&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { id } = req.params; const result = await new DeleteProductUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T5" t="str">
         <f>IF(Entry!B19=1,Entry!J19,"")</f>
@@ -3050,32 +3068,35 @@
       </c>
       <c r="U5" t="str">
         <f>IF(Entry!B19=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T5&amp;", ","")</f>
-        <v xml:space="preserve">: store.name, </v>
+        <v xml:space="preserve">: product.name, </v>
       </c>
       <c r="W5" t="str">
         <f>"public async get("&amp;T4&amp;": "&amp;Entry!K5&amp;") { const result = await this.connection.findOneBy({ "&amp;T4&amp;", }); if(!result) { return undefined; } return "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(result);}"</f>
-        <v>public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}</v>
+        <v>public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return ProductRepository.toModel(result);}</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="str">
         <f>"app.post('/', new "&amp;AC1&amp;"().create);"</f>
-        <v>app.post('/', new StoreController().create);</v>
+        <v>app.post('/', new ProductController().create);</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="str">
         <f>"List"&amp;Entry!H1&amp;"s"</f>
-        <v>ListStores</v>
+        <v>ListProducts</v>
       </c>
       <c r="AG5" t="str">
-        <f>AG1&amp;AJ1&amp;"export class "&amp;AF5&amp;AE1&amp;" { public async "&amp;AE3&amp;"(): Promise&lt;Result&gt; { "&amp;AK10&amp;".list(); const data = result.map(("&amp;LOWER(Entry!H1)&amp;") =&gt; "&amp;LOWER(Entry!H1)&amp;".toJson());"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;"s listed' , data);}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+        <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF5&amp;AE1&amp;" { public async "&amp;AE3&amp;"(): Promise&lt;Result&gt; { "&amp;AK10&amp;"list(); const data = result.map(("&amp;LOWER(Entry!H1)&amp;") =&gt; "&amp;LOWER(Entry!H1)&amp;".toJson());"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;"s listed' , data);}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class ListProductsUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new ProductRepository().list(); const data = result.map((product) =&gt; product.toJson());return Return.success('Products listed' , data);}}</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>IF(Entry!B9=1,Entry!I9&amp;" _"&amp;Entry!J9&amp;": "&amp;Entry!K9&amp;"; ","")</f>
         <v/>
@@ -3106,14 +3127,14 @@
         <v/>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" t="str">
         <f>IF(Entry!P6="x",", "&amp;Engine!L2,"")</f>
         <v>, CreateDateColumn</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O6" t="str">
         <f>Entry!J5</f>
@@ -3126,32 +3147,35 @@
       </c>
       <c r="U6" t="str">
         <f>IF(Entry!B20=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T6&amp;", ","")</f>
-        <v xml:space="preserve">: store.price, </v>
+        <v xml:space="preserve">: product.price, </v>
       </c>
       <c r="W6" t="str">
         <f>"public async update("&amp;LOWER(Entry!H1)&amp;": "&amp;Entry!H1&amp;") { await this.connection.update({"&amp;T4&amp;U4&amp;"},{"&amp;T25&amp;"});}"</f>
-        <v>public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}</v>
+        <v>public async update(product: Product) { await this.connection.update({id: product.id, },{name: product.name, price: product.price, });}</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="str">
         <f>"app.put('/:"&amp;Entry!J5&amp;"' ,new "&amp;Engine!AC1&amp;"().update);"</f>
-        <v>app.put('/:id' ,new StoreController().update);</v>
+        <v>app.put('/:id' ,new ProductController().update);</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="str">
         <f>"Update"&amp;Entry!H1</f>
-        <v>UpdateStore</v>
+        <v>UpdateProduct</v>
       </c>
       <c r="AG6" t="str">
         <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AK1&amp;AF31&amp;"export class "&amp;AF6&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF6&amp;AE8&amp;"): Promise&lt;Result&gt; { "&amp;AK14&amp;AK15&amp;AJ28&amp;AK17&amp;AK18&amp;"await new "&amp;Entry!H1&amp;"Repository().update("&amp;LOWER(Entry!H1)&amp;".data); "&amp;AK19&amp;"}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; import { GetProductByIdUseCase } from './get-product-by-id.usecase';interface UpdateProductParams { id: string; name?: string; price?: number;  } export class UpdateProductUseCase { public async execute(params: UpdateProductParams): Promise&lt;Result&gt; { const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}let newProduct: Product = product.data;if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } product.data = newProduct; product.msg = 'Product updated'; await new ProductRepository().update(product.data); return product;}}</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>IF(Entry!B10=1,Entry!I10&amp;" _"&amp;Entry!J10&amp;": "&amp;Entry!K10&amp;"; ","")</f>
         <v/>
@@ -3182,14 +3206,14 @@
         <v/>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Entry!Q6="x",", "&amp;Engine!L3,"")</f>
         <v>, UpdateDateColumn</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O7" t="str">
         <f>IF(Entry!B19=1,Entry!J19&amp;",","")</f>
@@ -3209,21 +3233,21 @@
         <v>public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="str">
         <f>"app.delete('/:"&amp;Entry!J5&amp;"' , new "&amp;Engine!AC1&amp;"().delete);"</f>
-        <v>app.delete('/:id' , new StoreController().delete);</v>
+        <v>app.delete('/:id' , new ProductController().delete);</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="str">
         <f>"interface "</f>
         <v xml:space="preserve">interface </v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>IF(Entry!B11=1,Entry!I11&amp;" _"&amp;Entry!J11&amp;": "&amp;Entry!K11&amp;"; ","")</f>
         <v/>
@@ -3254,7 +3278,7 @@
         <v/>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M8" s="21"/>
       <c r="O8" t="str">
@@ -3263,13 +3287,15 @@
       </c>
       <c r="Q8" t="str">
         <f>AF2&amp;$AE$1</f>
-        <v>CreateStoreUseCase</v>
+        <v>CreateProductUseCase</v>
       </c>
       <c r="R8" t="str">
         <f>"const result = await new "&amp;Q8&amp;"().execute("</f>
-        <v>const result = await new CreateStoreUseCase().execute(</v>
-      </c>
-      <c r="S8" s="21"/>
+        <v>const result = await new CreateProductUseCase().execute(</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T8" t="str">
         <f>IF(Entry!B22=1,Entry!J22,"")</f>
         <v/>
@@ -3280,16 +3306,16 @@
       </c>
       <c r="W8" t="str">
         <f>"public static toModel(entity: "&amp;Entry!H1&amp;Engine!J1&amp;" | null): "&amp;Entry!H1&amp;" { return "&amp;Entry!H1&amp;".create(entity);}"</f>
-        <v>public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);}</v>
+        <v>public static toModel(entity: ProductEntity | null): Product { return Product.create(entity);}</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AF8" s="22" t="str">
         <f>IF(Entry!B5=1,Entry!J5&amp;": "&amp;Entry!K5&amp;"; ","")</f>
@@ -3304,7 +3330,7 @@
         <v>params.id</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>IF(Entry!B12=1,Entry!I12&amp;" _"&amp;Entry!J12&amp;": "&amp;Entry!K12&amp;"; ","")</f>
         <v/>
@@ -3335,7 +3361,7 @@
         <v/>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="21"/>
       <c r="O9" t="str">
@@ -3344,13 +3370,15 @@
       </c>
       <c r="Q9" t="str">
         <f>AF3&amp;$AE$1</f>
-        <v>DeleteStoreUseCase</v>
+        <v>DeleteProductUseCase</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" ref="R9:R12" si="0">"const result = await new "&amp;Q9&amp;"().execute("</f>
-        <v>const result = await new DeleteStoreUseCase().execute(</v>
-      </c>
-      <c r="S9" s="21"/>
+        <f t="shared" ref="R9:R11" si="0">"const result = await new "&amp;Q9&amp;"().execute("</f>
+        <v>const result = await new DeleteProductUseCase().execute(</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T9" t="str">
         <f>IF(Entry!B23=1,Entry!J23,"")</f>
         <v/>
@@ -3359,7 +3387,9 @@
         <f>IF(Entry!B23=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T9&amp;", ","")</f>
         <v/>
       </c>
-      <c r="X9" s="21"/>
+      <c r="X9" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="AF9" t="str">
         <f>IF(Entry!B19=1,Entry!J19&amp;": "&amp;Entry!K19&amp;"; ","")</f>
         <v xml:space="preserve">name: string; </v>
@@ -3378,14 +3408,17 @@
       </c>
       <c r="AJ9" t="str">
         <f>IF(Entry!B19=1,"if ("&amp;AI9&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J19&amp;" = "&amp;AI9&amp;"; } ","")</f>
-        <v xml:space="preserve">if (params.name) { newStore.name = params.name; } </v>
+        <v xml:space="preserve">if (params.name) { newProduct.name = params.name; } </v>
       </c>
       <c r="AK9" t="str">
         <f>"const "&amp;LOWER(Entry!H1)&amp;" = new "&amp;Entry!H1&amp;"("&amp;AH28&amp;"); "</f>
-        <v xml:space="preserve">const store = new Store(params.name, params.price, ); </v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">const product = new Product(params.name, params.price, ); </v>
+      </c>
+      <c r="AL9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>IF(Entry!B13=1,Entry!I13&amp;" _"&amp;Entry!J13&amp;": "&amp;Entry!K13&amp;"; ","")</f>
         <v/>
@@ -3416,7 +3449,7 @@
         <v/>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M10" s="21"/>
       <c r="O10" t="str">
@@ -3425,13 +3458,15 @@
       </c>
       <c r="Q10" t="str">
         <f>AF4&amp;$AE$1</f>
-        <v>GetStoreByIdUseCase</v>
+        <v>GetProductByIdUseCase</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="0"/>
-        <v>const result = await new GetStoreByIdUseCase().execute(</v>
-      </c>
-      <c r="S10" s="21"/>
+        <v>const result = await new GetProductByIdUseCase().execute(</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T10" t="str">
         <f>IF(Entry!B24=1,Entry!J24,"")</f>
         <v/>
@@ -3440,7 +3475,9 @@
         <f>IF(Entry!B24=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T10&amp;", ","")</f>
         <v/>
       </c>
-      <c r="X10" s="21"/>
+      <c r="X10" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="AF10" t="str">
         <f>IF(Entry!B20=1,Entry!J20&amp;": "&amp;Entry!K20&amp;"; ","")</f>
         <v xml:space="preserve">price: number; </v>
@@ -3459,14 +3496,17 @@
       </c>
       <c r="AJ10" t="str">
         <f>IF(Entry!B20=1,"if ("&amp;AI10&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J20&amp;" = "&amp;AI10&amp;"; } ","")</f>
-        <v xml:space="preserve">if (params.price) { newStore.price = params.price; } </v>
+        <v xml:space="preserve">if (params.price) { newProduct.price = params.price; } </v>
       </c>
       <c r="AK10" t="str">
         <f>"const result = await new "&amp;Entry!H1&amp;Engine!T1&amp;"()."</f>
-        <v>const result = await new StoreRepository().</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+        <v>const result = await new ProductRepository().</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>IF(Entry!B14=1,Entry!I14&amp;" _"&amp;Entry!J14&amp;": "&amp;Entry!K14&amp;"; ","")</f>
         <v/>
@@ -3497,7 +3537,7 @@
         <v/>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" s="21"/>
       <c r="O11" t="str">
@@ -3506,13 +3546,15 @@
       </c>
       <c r="Q11" t="str">
         <f>AF5&amp;$AE$1</f>
-        <v>ListStoresUseCase</v>
+        <v>ListProductsUseCase</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
-        <v>const result = await new ListStoresUseCase().execute(</v>
-      </c>
-      <c r="S11" s="21"/>
+        <v>const result = await new ListProductsUseCase().execute(</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T11" t="str">
         <f>IF(Entry!B25=1,Entry!J25,"")</f>
         <v/>
@@ -3524,7 +3566,10 @@
       <c r="X11" s="21"/>
       <c r="Z11" t="str">
         <f>"import { "&amp;AC1&amp;" } from '../controllers/"&amp;LOWER(Entry!H1)&amp;".controller'; "</f>
-        <v xml:space="preserve">import { StoreController } from '../controllers/store.controller'; </v>
+        <v xml:space="preserve">import { ProductController } from '../controllers/product.controller'; </v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="AF11" t="str">
         <f>IF(Entry!B21=1,Entry!J21&amp;": "&amp;Entry!K21&amp;"; ","")</f>
@@ -3550,8 +3595,11 @@
         <f>"return Return."</f>
         <v>return Return.</v>
       </c>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>IF(Entry!B15=1,Entry!I15&amp;" _"&amp;Entry!J15&amp;": "&amp;Entry!K15&amp;"; ","")</f>
         <v/>
@@ -3564,7 +3612,7 @@
         <f>IF(Entry!E15="x","public get "&amp;Entry!J15&amp;"(): "&amp;Entry!K15&amp;" {return this._"&amp;Entry!J15&amp;"; } ","")</f>
         <v/>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="22" t="str">
         <f>IF(Entry!F15="x","public set "&amp;Entry!J15&amp;"("&amp;Entry!J15&amp;": "&amp;Entry!K15&amp;") { this._"&amp;Entry!J15&amp;" = "&amp;Entry!J15&amp;"; }","")</f>
         <v/>
       </c>
@@ -3582,7 +3630,7 @@
         <v/>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12" s="21"/>
       <c r="O12" t="str">
@@ -3591,13 +3639,15 @@
       </c>
       <c r="Q12" t="str">
         <f>AF6&amp;$AE$1</f>
-        <v>UpdateStoreUseCase</v>
+        <v>UpdateProductUseCase</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="0"/>
-        <v>const result = await new UpdateStoreUseCase().execute(</v>
-      </c>
-      <c r="S12" s="21"/>
+        <f>"const result = await new "&amp;Q12&amp;"().execute("</f>
+        <v>const result = await new UpdateProductUseCase().execute(</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T12" t="str">
         <f>IF(Entry!B26=1,Entry!J26,"")</f>
         <v/>
@@ -3629,10 +3679,13 @@
       </c>
       <c r="AK12" t="str">
         <f>"(result, '"&amp;Entry!H1</f>
-        <v>(result, 'Store</v>
-      </c>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+        <v>(result, 'Product</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>IF(Entry!P6="x","private _created?: Date;","")</f>
         <v>private _created?: Date;</v>
@@ -3685,8 +3738,11 @@
         <f>IF(Entry!B23=1,"if ("&amp;AI13&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J23&amp;" = "&amp;AI13&amp;"; } ","")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>IF(Entry!Q6="x","private _updated?: Date;","")</f>
         <v>private _updated?: Date;</v>
@@ -3709,11 +3765,13 @@
         <f>IF(Entry!B26=1,Entry!J26&amp;",","")</f>
         <v/>
       </c>
-      <c r="R14" s="68" t="str">
+      <c r="R14" s="31" t="str">
         <f>"import { "&amp;Q8&amp;" } from '../usecases/create-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
-        <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; </v>
-      </c>
-      <c r="S14" s="21"/>
+        <v xml:space="preserve">import { CreateProductUseCase } from '../usecases/create-product.usecase'; </v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T14" t="str">
         <f>IF(Entry!B28=1,Entry!J28,"")</f>
         <v/>
@@ -3745,10 +3803,13 @@
       </c>
       <c r="AK14" t="str">
         <f>"const "&amp;LOWER(Entry!H1)&amp;" = await new "&amp;AF4&amp;AE1&amp;"()."&amp;AE3&amp;"("&amp;AI8&amp;"); if(!"&amp;LOWER(Entry!H1)&amp;") { "&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;"');}"</f>
-        <v>const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+        <v>const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="str">
         <f>B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14</f>
         <v>private _id: string; private _created?: Date;private _updated?: Date;</v>
@@ -3779,17 +3840,19 @@
         <v xml:space="preserve">import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; </v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O15" t="str">
         <f>IF(Entry!B27=1,Entry!J27&amp;",","")</f>
         <v/>
       </c>
-      <c r="R15" s="68" t="str">
+      <c r="R15" s="31" t="str">
         <f>"import { "&amp;Q9&amp;" } from '../usecases/delete-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
-        <v xml:space="preserve">import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; </v>
-      </c>
-      <c r="S15" s="21"/>
+        <v xml:space="preserve">import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; </v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T15" t="str">
         <f>IF(Entry!B29=1,Entry!J29,"")</f>
         <v/>
@@ -3821,21 +3884,26 @@
       </c>
       <c r="AK15" t="str">
         <f>"let new"&amp;Entry!H1&amp;": "&amp;Entry!H1&amp;" = "&amp;LOWER(Entry!H1)&amp;".data;"</f>
-        <v>let newStore: Store = store.data;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+        <v>let newProduct: Product = product.data;</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="H16" s="21"/>
       <c r="M16" s="21"/>
       <c r="O16" t="str">
         <f>IF(Entry!B28=1,Entry!J28&amp;",","")</f>
         <v/>
       </c>
-      <c r="R16" s="68" t="str">
+      <c r="R16" s="31" t="str">
         <f>"import { "&amp;Q10&amp;" } from '../usecases/get-"&amp;LOWER(Entry!$H$1)&amp;"-by-id.usecase'; "</f>
-        <v xml:space="preserve">import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; </v>
-      </c>
-      <c r="S16" s="21"/>
+        <v xml:space="preserve">import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; </v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T16" t="str">
         <f>IF(Entry!B30=1,Entry!J30,"")</f>
         <v/>
@@ -3866,12 +3934,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="21"/>
       <c r="M17" s="21"/>
@@ -3879,11 +3947,13 @@
         <f>IF(Entry!B29=1,Entry!J29&amp;",","")</f>
         <v/>
       </c>
-      <c r="R17" s="68" t="str">
+      <c r="R17" s="31" t="str">
         <f>"import { "&amp;Q11&amp;" } from '../usecases/list-"&amp;LOWER(Entry!$H$1)&amp;"s.usecase'; "</f>
-        <v xml:space="preserve">import { ListStoresUseCase } from '../usecases/list-stores.usecase'; </v>
-      </c>
-      <c r="S17" s="21"/>
+        <v xml:space="preserve">import { ListProductsUseCase } from '../usecases/list-products.usecase'; </v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T17" t="str">
         <f>IF(Entry!B31=1,Entry!J31,"")</f>
         <v/>
@@ -3915,10 +3985,13 @@
       </c>
       <c r="AK17" t="str">
         <f>LOWER(Entry!H1)&amp;".data = new"&amp;Entry!H1&amp;"; "</f>
-        <v xml:space="preserve">store.data = newStore; </v>
-      </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">product.data = newProduct; </v>
+      </c>
+      <c r="AL17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>IF(Entry!B19=1,Entry!I19&amp;" _"&amp;Entry!J19&amp;": "&amp;Entry!K19&amp;", ","")</f>
         <v xml:space="preserve">private _name: string, </v>
@@ -3944,7 +4017,7 @@
         <v xml:space="preserve">entity.name, </v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" t="str">
         <f>IF(Entry!G19="x","@PrimaryColumn()"&amp;Entry!$J19&amp;": "&amp;Entry!$K19&amp;"; ","@Column()"&amp;Entry!$J19&amp;": "&amp;Entry!$K19&amp;"; ")</f>
@@ -3955,18 +4028,20 @@
         <v xml:space="preserve">@Column()name: string; </v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18" s="21"/>
       <c r="O18" t="str">
         <f>IF(Entry!B30=1,Entry!J30&amp;",","")</f>
         <v/>
       </c>
-      <c r="R18" s="68" t="str">
+      <c r="R18" s="31" t="str">
         <f>"import { "&amp;Q12&amp;" } from '../usecases/update-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
-        <v xml:space="preserve">import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
-      </c>
-      <c r="S18" s="21"/>
+        <v xml:space="preserve">import { UpdateProductUseCase } from '../usecases/update-product.usecase'; </v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T18" t="str">
         <f>IF(Entry!B32=1,Entry!J32,"")</f>
         <v/>
@@ -3994,10 +4069,13 @@
       </c>
       <c r="AK18" t="str">
         <f>LOWER(Entry!H1)&amp;".msg = '"&amp;Entry!H1&amp;" updated'; "</f>
-        <v xml:space="preserve">store.msg = 'Store updated'; </v>
-      </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">product.msg = 'Product updated'; </v>
+      </c>
+      <c r="AL18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>IF(Entry!B20=1,Entry!I20&amp;" _"&amp;Entry!J20&amp;": "&amp;Entry!K20&amp;", ","")</f>
         <v xml:space="preserve">private _price: number, </v>
@@ -4023,7 +4101,7 @@
         <v xml:space="preserve">entity.price, </v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" t="str">
         <f>IF(Entry!G20="x","@PrimaryColumn()"&amp;Entry!$J20&amp;": "&amp;Entry!$K20&amp;"; ","@Column()"&amp;Entry!$J20&amp;": "&amp;Entry!$K20&amp;"; ")</f>
@@ -4034,7 +4112,7 @@
         <v xml:space="preserve">@Column()price: number; </v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M19" s="21"/>
       <c r="O19" t="str">
@@ -4073,10 +4151,13 @@
       </c>
       <c r="AK19" t="str">
         <f>"return "&amp;LOWER(Entry!H1)&amp;";"</f>
-        <v>return store;</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+        <v>return product;</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>IF(Entry!B21=1,Entry!I21&amp;" _"&amp;Entry!J21&amp;": "&amp;Entry!K21&amp;", ","")</f>
         <v/>
@@ -4089,6 +4170,10 @@
         <f>IF(Entry!E21="x","public get "&amp;Entry!J21&amp;"(): "&amp;Entry!K21&amp;" {return this._"&amp;Entry!J21&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E20" t="str">
+        <f>IF(Entry!F21="x","public set "&amp;Entry!J21&amp;"("&amp;Entry!J21&amp;": "&amp;Entry!K21&amp;") { this._"&amp;Entry!J21&amp;" = "&amp;Entry!J21&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F20" t="str">
         <f>IF(Entry!D21="x",Entry!J21&amp;": this._"&amp;Entry!J21&amp;", ","")</f>
         <v/>
@@ -4097,7 +4182,9 @@
         <f>IF(Entry!B21=1,"entity."&amp;Entry!J21&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" t="str">
         <f>IF(Entry!G21="x","@PrimaryColumn()"&amp;Entry!$J21&amp;": "&amp;Entry!$K21&amp;"; ","@Column()"&amp;Entry!$J21&amp;": "&amp;Entry!$K21&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4107,7 +4194,7 @@
         <v/>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M20" s="21"/>
       <c r="O20" t="str">
@@ -4116,9 +4203,11 @@
       </c>
       <c r="R20" t="str">
         <f>R14&amp;R15&amp;R16&amp;R17&amp;R18</f>
-        <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
-      </c>
-      <c r="S20" s="21"/>
+        <v xml:space="preserve">import { CreateProductUseCase } from '../usecases/create-product.usecase'; import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; import { ListProductsUseCase } from '../usecases/list-products.usecase'; import { UpdateProductUseCase } from '../usecases/update-product.usecase'; </v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="T20" t="str">
         <f>IF(Entry!B34=1,Entry!J34,"")</f>
         <v/>
@@ -4149,7 +4238,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>IF(Entry!B22=1,Entry!I22&amp;" _"&amp;Entry!J22&amp;": "&amp;Entry!K22&amp;", ","")</f>
         <v/>
@@ -4162,6 +4251,10 @@
         <f>IF(Entry!E22="x","public get "&amp;Entry!J22&amp;"(): "&amp;Entry!K22&amp;" {return this._"&amp;Entry!J22&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E21" t="str">
+        <f>IF(Entry!F22="x","public set "&amp;Entry!J22&amp;"("&amp;Entry!J22&amp;": "&amp;Entry!K22&amp;") { this._"&amp;Entry!J22&amp;" = "&amp;Entry!J22&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F21" t="str">
         <f>IF(Entry!D22="x",Entry!J22&amp;": this._"&amp;Entry!J22&amp;", ","")</f>
         <v/>
@@ -4170,7 +4263,9 @@
         <f>IF(Entry!B22=1,"entity."&amp;Entry!J22&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" t="str">
         <f>IF(Entry!G22="x","@PrimaryColumn()"&amp;Entry!$J22&amp;": "&amp;Entry!$K22&amp;"; ","@Column()"&amp;Entry!$J22&amp;": "&amp;Entry!$K22&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4180,7 +4275,7 @@
         <v/>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M21" s="21"/>
       <c r="O21" t="str">
@@ -4218,7 +4313,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>IF(Entry!B23=1,Entry!I23&amp;" _"&amp;Entry!J23&amp;": "&amp;Entry!K23&amp;", ","")</f>
         <v/>
@@ -4231,6 +4326,10 @@
         <f>IF(Entry!E23="x","public get "&amp;Entry!J23&amp;"(): "&amp;Entry!K23&amp;" {return this._"&amp;Entry!J23&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E22" t="str">
+        <f>IF(Entry!F23="x","public set "&amp;Entry!J23&amp;"("&amp;Entry!J23&amp;": "&amp;Entry!K23&amp;") { this._"&amp;Entry!J23&amp;" = "&amp;Entry!J23&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F22" t="str">
         <f>IF(Entry!D23="x",Entry!J23&amp;": this._"&amp;Entry!J23&amp;", ","")</f>
         <v/>
@@ -4239,7 +4338,9 @@
         <f>IF(Entry!B23=1,"entity."&amp;Entry!J23&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" t="str">
         <f>IF(Entry!G23="x","@PrimaryColumn()"&amp;Entry!$J23&amp;": "&amp;Entry!$K23&amp;"; ","@Column()"&amp;Entry!$J23&amp;": "&amp;Entry!$K23&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4249,7 +4350,7 @@
         <v/>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M22" s="21"/>
       <c r="O22" t="str">
@@ -4287,7 +4388,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>IF(Entry!B24=1,Entry!I24&amp;" _"&amp;Entry!J24&amp;": "&amp;Entry!K24&amp;", ","")</f>
         <v/>
@@ -4300,6 +4401,10 @@
         <f>IF(Entry!E24="x","public get "&amp;Entry!J24&amp;"(): "&amp;Entry!K24&amp;" {return this._"&amp;Entry!J24&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E23" t="str">
+        <f>IF(Entry!F24="x","public set "&amp;Entry!J24&amp;"("&amp;Entry!J24&amp;": "&amp;Entry!K24&amp;") { this._"&amp;Entry!J24&amp;" = "&amp;Entry!J24&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F23" t="str">
         <f>IF(Entry!D24="x",Entry!J24&amp;": this._"&amp;Entry!J24&amp;", ","")</f>
         <v/>
@@ -4308,7 +4413,9 @@
         <f>IF(Entry!B24=1,"entity."&amp;Entry!J24&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" t="str">
         <f>IF(Entry!G24="x","@PrimaryColumn()"&amp;Entry!$J24&amp;": "&amp;Entry!$K24&amp;"; ","@Column()"&amp;Entry!$J24&amp;": "&amp;Entry!$K24&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4318,7 +4425,7 @@
         <v/>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M23" s="21"/>
       <c r="O23" t="str">
@@ -4356,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>IF(Entry!B25=1,Entry!I25&amp;" _"&amp;Entry!J25&amp;": "&amp;Entry!K25&amp;", ","")</f>
         <v/>
@@ -4369,6 +4476,10 @@
         <f>IF(Entry!E25="x","public get "&amp;Entry!J25&amp;"(): "&amp;Entry!K25&amp;" {return this._"&amp;Entry!J25&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E24" t="str">
+        <f>IF(Entry!F25="x","public set "&amp;Entry!J25&amp;"("&amp;Entry!J25&amp;": "&amp;Entry!K25&amp;") { this._"&amp;Entry!J25&amp;" = "&amp;Entry!J25&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F24" t="str">
         <f>IF(Entry!D25="x",Entry!J25&amp;": this._"&amp;Entry!J25&amp;", ","")</f>
         <v/>
@@ -4377,7 +4488,9 @@
         <f>IF(Entry!B25=1,"entity."&amp;Entry!J25&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" t="str">
         <f>IF(Entry!G25="x","@PrimaryColumn()"&amp;Entry!$J25&amp;": "&amp;Entry!$K25&amp;"; ","@Column()"&amp;Entry!$J25&amp;": "&amp;Entry!$K25&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4387,7 +4500,7 @@
         <v/>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M24" s="21"/>
       <c r="O24" t="str">
@@ -4397,10 +4510,10 @@
       <c r="S24" s="21"/>
       <c r="T24" t="str">
         <f>T4&amp;U4&amp;T5&amp;U5&amp;T6&amp;U6&amp;T7&amp;U7&amp;T8&amp;U8&amp;T9&amp;U9&amp;T10&amp;U10&amp;T11&amp;U11&amp;T12&amp;U12&amp;T13&amp;U13&amp;T14&amp;U14&amp;T15&amp;U15&amp;T16&amp;U16&amp;T17&amp;U17&amp;T18&amp;U18&amp;T19&amp;U19&amp;T20&amp;U20&amp;T21&amp;U21&amp;T22&amp;U22&amp;T23&amp;U23</f>
-        <v xml:space="preserve">id: store.id, name: store.name, price: store.price, </v>
+        <v xml:space="preserve">id: product.id, name: product.name, price: product.price, </v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="str">
         <f>IF(Entry!B34=1,Entry!J34&amp;": "&amp;Entry!K34&amp;"; ","")</f>
@@ -4423,7 +4536,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>IF(Entry!B26=1,Entry!I26&amp;" _"&amp;Entry!J26&amp;": "&amp;Entry!K26&amp;", ","")</f>
         <v/>
@@ -4436,6 +4549,10 @@
         <f>IF(Entry!E26="x","public get "&amp;Entry!J26&amp;"(): "&amp;Entry!K26&amp;" {return this._"&amp;Entry!J26&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E25" t="str">
+        <f>IF(Entry!F26="x","public set "&amp;Entry!J26&amp;"("&amp;Entry!J26&amp;": "&amp;Entry!K26&amp;") { this._"&amp;Entry!J26&amp;" = "&amp;Entry!J26&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F25" t="str">
         <f>IF(Entry!D26="x",Entry!J26&amp;": this._"&amp;Entry!J26&amp;", ","")</f>
         <v/>
@@ -4444,7 +4561,9 @@
         <f>IF(Entry!B26=1,"entity."&amp;Entry!J26&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" t="str">
         <f>IF(Entry!G26="x","@PrimaryColumn()"&amp;Entry!$J26&amp;": "&amp;Entry!$K26&amp;"; ","@Column()"&amp;Entry!$J26&amp;": "&amp;Entry!$K26&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4454,7 +4573,7 @@
         <v/>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M25" s="21"/>
       <c r="O25" s="22" t="str">
@@ -4464,10 +4583,10 @@
       <c r="S25" s="21"/>
       <c r="T25" t="str">
         <f>T5&amp;U5&amp;T6&amp;U6&amp;T7&amp;U7&amp;T8&amp;U8&amp;T9&amp;U9&amp;T10&amp;U10&amp;T11&amp;U11&amp;T12&amp;U12&amp;T13&amp;U13&amp;T14&amp;U14&amp;T15&amp;U15&amp;T16&amp;U16&amp;T17&amp;U17&amp;T18&amp;U18&amp;T19&amp;U19&amp;T20&amp;U20&amp;T21&amp;U21&amp;T22&amp;U22&amp;T23&amp;U23</f>
-        <v xml:space="preserve">name: store.name, price: store.price, </v>
+        <v xml:space="preserve">name: product.name, price: product.price, </v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="str">
         <f>IF(Entry!B35=1,Entry!J35&amp;": "&amp;Entry!K35&amp;"; ","")</f>
@@ -4490,7 +4609,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>IF(Entry!B27=1,Entry!I27&amp;" _"&amp;Entry!J27&amp;": "&amp;Entry!K27&amp;", ","")</f>
         <v/>
@@ -4503,6 +4622,10 @@
         <f>IF(Entry!E27="x","public get "&amp;Entry!J27&amp;"(): "&amp;Entry!K27&amp;" {return this._"&amp;Entry!J27&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E26" t="str">
+        <f>IF(Entry!F27="x","public set "&amp;Entry!J27&amp;"("&amp;Entry!J27&amp;": "&amp;Entry!K27&amp;") { this._"&amp;Entry!J27&amp;" = "&amp;Entry!J27&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F26" t="str">
         <f>IF(Entry!D27="x",Entry!J27&amp;": this._"&amp;Entry!J27&amp;", ","")</f>
         <v/>
@@ -4511,7 +4634,9 @@
         <f>IF(Entry!B27=1,"entity."&amp;Entry!J27&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" t="str">
         <f>IF(Entry!G27="x","@PrimaryColumn()"&amp;Entry!$J27&amp;": "&amp;Entry!$K27&amp;"; ","@Column()"&amp;Entry!$J27&amp;": "&amp;Entry!$K27&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4521,7 +4646,7 @@
         <v/>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M26" s="21"/>
       <c r="O26" t="str">
@@ -4531,7 +4656,7 @@
       <c r="S26" s="21"/>
       <c r="V26" t="str">
         <f>"import { "&amp;Entry!H1&amp;"Entity } from '../../../shared/database/entities/"&amp;LOWER(Entry!H1)&amp;".entity'; "</f>
-        <v xml:space="preserve">import { StoreEntity } from '../../../shared/database/entities/store.entity'; </v>
+        <v xml:space="preserve">import { ProductEntity } from '../../../shared/database/entities/product.entity'; </v>
       </c>
       <c r="X26" s="21"/>
       <c r="AF26" t="str">
@@ -4555,7 +4680,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>IF(Entry!B28=1,Entry!I28&amp;" _"&amp;Entry!J28&amp;": "&amp;Entry!K28&amp;", ","")</f>
         <v/>
@@ -4568,6 +4693,10 @@
         <f>IF(Entry!E28="x","public get "&amp;Entry!J28&amp;"(): "&amp;Entry!K28&amp;" {return this._"&amp;Entry!J28&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E27" t="str">
+        <f>IF(Entry!F28="x","public set "&amp;Entry!J28&amp;"("&amp;Entry!J28&amp;": "&amp;Entry!K28&amp;") { this._"&amp;Entry!J28&amp;" = "&amp;Entry!J28&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F27" t="str">
         <f>IF(Entry!D28="x",Entry!J28&amp;": this._"&amp;Entry!J28&amp;", ","")</f>
         <v/>
@@ -4576,7 +4705,9 @@
         <f>IF(Entry!B28=1,"entity."&amp;Entry!J28&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I27" t="str">
         <f>IF(Entry!G28="x","@PrimaryColumn()"&amp;Entry!$J28&amp;": "&amp;Entry!$K28&amp;"; ","@Column()"&amp;Entry!$J28&amp;": "&amp;Entry!$K28&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4586,13 +4717,13 @@
         <v/>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M27" s="21"/>
       <c r="S27" s="21"/>
       <c r="V27" t="str">
         <f>"import { "&amp;Entry!H1&amp;" } from '../../../models/"&amp;LOWER(Entry!H1)&amp;".model'; "</f>
-        <v xml:space="preserve">import { Store } from '../../../models/store.model'; </v>
+        <v xml:space="preserve">import { Product } from '../../../models/product.model'; </v>
       </c>
       <c r="X27" s="21"/>
       <c r="AF27" s="22" t="str">
@@ -4616,7 +4747,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>IF(Entry!B29=1,Entry!I29&amp;" _"&amp;Entry!J29&amp;": "&amp;Entry!K29&amp;", ","")</f>
         <v/>
@@ -4629,6 +4760,10 @@
         <f>IF(Entry!E29="x","public get "&amp;Entry!J29&amp;"(): "&amp;Entry!K29&amp;" {return this._"&amp;Entry!J29&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E28" t="str">
+        <f>IF(Entry!F29="x","public set "&amp;Entry!J29&amp;"("&amp;Entry!J29&amp;": "&amp;Entry!K29&amp;") { this._"&amp;Entry!J29&amp;" = "&amp;Entry!J29&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F28" t="str">
         <f>IF(Entry!D29="x",Entry!J29&amp;": this._"&amp;Entry!J29&amp;", ","")</f>
         <v/>
@@ -4637,7 +4772,9 @@
         <f>IF(Entry!B29=1,"entity."&amp;Entry!J29&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I28" t="str">
         <f>IF(Entry!G29="x","@PrimaryColumn()"&amp;Entry!$J29&amp;": "&amp;Entry!$K29&amp;"; ","@Column()"&amp;Entry!$J29&amp;": "&amp;Entry!$K29&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4647,7 +4784,7 @@
         <v/>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28" s="21"/>
       <c r="S28" s="21"/>
@@ -4666,10 +4803,10 @@
       </c>
       <c r="AJ28" t="str">
         <f>AJ9&amp;AJ10&amp;AJ11&amp;AJ12&amp;AJ13&amp;AJ14&amp;AJ15&amp;AJ16&amp;AJ17&amp;AJ18&amp;AJ19&amp;AJ20&amp;AJ21&amp;AJ22&amp;AJ23&amp;AJ24&amp;AJ25&amp;AJ26&amp;AJ27</f>
-        <v xml:space="preserve">if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } </v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } </v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>IF(Entry!B30=1,Entry!I30&amp;" _"&amp;Entry!J30&amp;": "&amp;Entry!K30&amp;", ","")</f>
         <v/>
@@ -4682,6 +4819,10 @@
         <f>IF(Entry!E30="x","public get "&amp;Entry!J30&amp;"(): "&amp;Entry!K30&amp;" {return this._"&amp;Entry!J30&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E29" t="str">
+        <f>IF(Entry!F30="x","public set "&amp;Entry!J30&amp;"("&amp;Entry!J30&amp;": "&amp;Entry!K30&amp;") { this._"&amp;Entry!J30&amp;" = "&amp;Entry!J30&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F29" t="str">
         <f>IF(Entry!D30="x",Entry!J30&amp;": this._"&amp;Entry!J30&amp;", ","")</f>
         <v/>
@@ -4690,7 +4831,9 @@
         <f>IF(Entry!B30=1,"entity."&amp;Entry!J30&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" t="str">
         <f>IF(Entry!G30="x","@PrimaryColumn()"&amp;Entry!$J30&amp;": "&amp;Entry!$K30&amp;"; ","@Column()"&amp;Entry!$J30&amp;": "&amp;Entry!$K30&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4700,13 +4843,13 @@
         <v/>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M29" s="21"/>
       <c r="S29" s="21"/>
       <c r="X29" s="21"/>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>IF(Entry!B31=1,Entry!I31&amp;" _"&amp;Entry!J31&amp;": "&amp;Entry!K31&amp;", ","")</f>
         <v/>
@@ -4719,6 +4862,10 @@
         <f>IF(Entry!E31="x","public get "&amp;Entry!J31&amp;"(): "&amp;Entry!K31&amp;" {return this._"&amp;Entry!J31&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E30" t="str">
+        <f>IF(Entry!F31="x","public set "&amp;Entry!J31&amp;"("&amp;Entry!J31&amp;": "&amp;Entry!K31&amp;") { this._"&amp;Entry!J31&amp;" = "&amp;Entry!J31&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F30" t="str">
         <f>IF(Entry!D31="x",Entry!J31&amp;": this._"&amp;Entry!J31&amp;", ","")</f>
         <v/>
@@ -4727,7 +4874,9 @@
         <f>IF(Entry!B31=1,"entity."&amp;Entry!J31&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I30" t="str">
         <f>IF(Entry!G31="x","@PrimaryColumn()"&amp;Entry!$J31&amp;": "&amp;Entry!$K31&amp;"; ","@Column()"&amp;Entry!$J31&amp;": "&amp;Entry!$K31&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4737,17 +4886,17 @@
         <v/>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M30" s="21"/>
       <c r="S30" s="21"/>
       <c r="X30" s="21"/>
       <c r="AF30" t="str">
         <f>AE7&amp;AF2&amp;AE8&amp;" { "&amp;AF28&amp;" } "</f>
-        <v xml:space="preserve">interface CreateStoreParams { name: string; price: number;  } </v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">interface CreateProductParams { name: string; price: number;  } </v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>IF(Entry!B32=1,Entry!I32&amp;" _"&amp;Entry!J32&amp;": "&amp;Entry!K32&amp;", ","")</f>
         <v/>
@@ -4760,6 +4909,10 @@
         <f>IF(Entry!E32="x","public get "&amp;Entry!J32&amp;"(): "&amp;Entry!K32&amp;" {return this._"&amp;Entry!J32&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E31" t="str">
+        <f>IF(Entry!F32="x","public set "&amp;Entry!J32&amp;"("&amp;Entry!J32&amp;": "&amp;Entry!K32&amp;") { this._"&amp;Entry!J32&amp;" = "&amp;Entry!J32&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F31" t="str">
         <f>IF(Entry!D32="x",Entry!J32&amp;": this._"&amp;Entry!J32&amp;", ","")</f>
         <v/>
@@ -4768,7 +4921,9 @@
         <f>IF(Entry!B32=1,"entity."&amp;Entry!J32&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" t="str">
         <f>IF(Entry!G32="x","@PrimaryColumn()"&amp;Entry!$J32&amp;": "&amp;Entry!$K32&amp;"; ","@Column()"&amp;Entry!$J32&amp;": "&amp;Entry!$K32&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4778,17 +4933,17 @@
         <v/>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M31" s="21"/>
       <c r="S31" s="21"/>
       <c r="X31" s="21"/>
       <c r="AF31" t="str">
         <f>AE7&amp;AF6&amp;AE8&amp;" { "&amp;AF8&amp;AG28&amp;" } "</f>
-        <v xml:space="preserve">interface UpdateStoreParams { id: string; name?: string; price?: number;  } </v>
-      </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">interface UpdateProductParams { id: string; name?: string; price?: number;  } </v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>IF(Entry!B33=1,Entry!I33&amp;" _"&amp;Entry!J33&amp;": "&amp;Entry!K33&amp;", ","")</f>
         <v/>
@@ -4801,6 +4956,10 @@
         <f>IF(Entry!E33="x","public get "&amp;Entry!J33&amp;"(): "&amp;Entry!K33&amp;" {return this._"&amp;Entry!J33&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E32" t="str">
+        <f>IF(Entry!F33="x","public set "&amp;Entry!J33&amp;"("&amp;Entry!J33&amp;": "&amp;Entry!K33&amp;") { this._"&amp;Entry!J33&amp;" = "&amp;Entry!J33&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F32" t="str">
         <f>IF(Entry!D33="x",Entry!J33&amp;": this._"&amp;Entry!J33&amp;", ","")</f>
         <v/>
@@ -4809,7 +4968,9 @@
         <f>IF(Entry!B33=1,"entity."&amp;Entry!J33&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" t="str">
         <f>IF(Entry!G33="x","@PrimaryColumn()"&amp;Entry!$J33&amp;": "&amp;Entry!$K33&amp;"; ","@Column()"&amp;Entry!$J33&amp;": "&amp;Entry!$K33&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4819,7 +4980,7 @@
         <v/>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M32" s="21"/>
       <c r="S32" s="21"/>
@@ -4842,6 +5003,10 @@
         <f>IF(Entry!E34="x","public get "&amp;Entry!J34&amp;"(): "&amp;Entry!K34&amp;" {return this._"&amp;Entry!J34&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E33" t="str">
+        <f>IF(Entry!F34="x","public set "&amp;Entry!J34&amp;"("&amp;Entry!J34&amp;": "&amp;Entry!K34&amp;") { this._"&amp;Entry!J34&amp;" = "&amp;Entry!J34&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F33" t="str">
         <f>IF(Entry!D34="x",Entry!J34&amp;": this._"&amp;Entry!J34&amp;", ","")</f>
         <v/>
@@ -4850,7 +5015,9 @@
         <f>IF(Entry!B34=1,"entity."&amp;Entry!J34&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" t="str">
         <f>IF(Entry!G34="x","@PrimaryColumn()"&amp;Entry!$J34&amp;": "&amp;Entry!$K34&amp;"; ","@Column()"&amp;Entry!$J34&amp;": "&amp;Entry!$K34&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4860,7 +5027,7 @@
         <v/>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33" s="21"/>
       <c r="S33" s="21"/>
@@ -4879,6 +5046,10 @@
         <f>IF(Entry!E35="x","public get "&amp;Entry!J35&amp;"(): "&amp;Entry!K35&amp;" {return this._"&amp;Entry!J35&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E34" t="str">
+        <f>IF(Entry!F35="x","public set "&amp;Entry!J35&amp;"("&amp;Entry!J35&amp;": "&amp;Entry!K35&amp;") { this._"&amp;Entry!J35&amp;" = "&amp;Entry!J35&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F34" t="str">
         <f>IF(Entry!D35="x",Entry!J35&amp;": this._"&amp;Entry!J35&amp;", ","")</f>
         <v/>
@@ -4887,7 +5058,9 @@
         <f>IF(Entry!B35=1,"entity."&amp;Entry!J35&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I34" t="str">
         <f>IF(Entry!G35="x","@PrimaryColumn()"&amp;Entry!$J35&amp;": "&amp;Entry!$K35&amp;"; ","@Column()"&amp;Entry!$J35&amp;": "&amp;Entry!$K35&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4897,7 +5070,7 @@
         <v/>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M34" s="21"/>
       <c r="S34" s="21"/>
@@ -4916,6 +5089,10 @@
         <f>IF(Entry!E36="x","public get "&amp;Entry!J36&amp;"(): "&amp;Entry!K36&amp;" {return this._"&amp;Entry!J36&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E35" t="str">
+        <f>IF(Entry!F36="x","public set "&amp;Entry!J36&amp;"("&amp;Entry!J36&amp;": "&amp;Entry!K36&amp;") { this._"&amp;Entry!J36&amp;" = "&amp;Entry!J36&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F35" t="str">
         <f>IF(Entry!D36="x",Entry!J36&amp;": this._"&amp;Entry!J36&amp;", ","")</f>
         <v/>
@@ -4924,7 +5101,9 @@
         <f>IF(Entry!B36=1,"entity."&amp;Entry!J36&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I35" t="str">
         <f>IF(Entry!G36="x","@PrimaryColumn()"&amp;Entry!$J36&amp;": "&amp;Entry!$K36&amp;"; ","@Column()"&amp;Entry!$J36&amp;": "&amp;Entry!$K36&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4934,7 +5113,7 @@
         <v/>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M35" s="21"/>
       <c r="S35" s="21"/>
@@ -4953,6 +5132,10 @@
         <f>IF(Entry!E37="x","public get "&amp;Entry!J37&amp;"(): "&amp;Entry!K37&amp;" {return this._"&amp;Entry!J37&amp;"; } ","")</f>
         <v/>
       </c>
+      <c r="E36" t="str">
+        <f>IF(Entry!F37="x","public set "&amp;Entry!J37&amp;"("&amp;Entry!J37&amp;": "&amp;Entry!K37&amp;") { this._"&amp;Entry!J37&amp;" = "&amp;Entry!J37&amp;"; }","")</f>
+        <v/>
+      </c>
       <c r="F36" t="str">
         <f>IF(Entry!D37="x",Entry!J37&amp;": this._"&amp;Entry!J37&amp;", ","")</f>
         <v/>
@@ -4961,7 +5144,9 @@
         <f>IF(Entry!B37=1,"entity."&amp;Entry!J37&amp;", ","")</f>
         <v/>
       </c>
-      <c r="H36" s="21"/>
+      <c r="H36" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="I36" t="str">
         <f>IF(Entry!G37="x","@PrimaryColumn()"&amp;Entry!$J37&amp;": "&amp;Entry!$K37&amp;"; ","@Column()"&amp;Entry!$J37&amp;": "&amp;Entry!$K37&amp;"; ")</f>
         <v xml:space="preserve">@Column(): ; </v>
@@ -4971,7 +5156,7 @@
         <v/>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M36" s="21"/>
       <c r="S36" s="21"/>
@@ -5003,14 +5188,14 @@
         <v xml:space="preserve">entity.name, entity.price, </v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J37" t="str">
         <f>J18&amp;J19&amp;J20&amp;J21&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;IF(Entry!P6="x",Engine!J38,"")&amp;IF(Entry!Q6="x",Engine!J39,"")</f>
         <v>@Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37" s="21"/>
       <c r="S37" s="21"/>
@@ -5023,30 +5208,32 @@
       </c>
       <c r="G38" t="str">
         <f>"public static "&amp;G17&amp;"(entity: any) { const created = new "&amp;Entry!H1&amp;"("&amp;Engine!G37&amp;"); created.id = entity.id; return created; }"</f>
-        <v>public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }</v>
+        <v>public static create(entity: any) { const created = new Product(entity.name, entity.price, ); created.id = entity.id; return created; }</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J38" s="19" t="str">
         <f>"@CreateDateColumn() created: Date;"</f>
         <v>@CreateDateColumn() created: Date;</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38" s="21"/>
       <c r="S38" s="21"/>
       <c r="X38" s="21"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="H39" s="21"/>
+      <c r="H39" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="J39" s="19" t="str">
         <f>"@UpdateDateColumn() updated: Date;"</f>
         <v>@UpdateDateColumn() updated: Date;</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M39" s="21"/>
       <c r="S39" s="21"/>
@@ -5062,281 +5249,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235BA3-CC45-4994-B75C-E29B537BC50A}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="24" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="str">
+      <c r="A2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+    </row>
+    <row r="3" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
-        <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
-      </c>
-      <c r="B3" s="66" t="str">
+        <v>import { v4 as createUuid } from 'uuid';export class Product {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Product(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
+      </c>
+      <c r="B3" s="60" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C3" s="64" t="str">
+      <c r="C3" s="61" t="str">
         <f>LOWER(Entry!$H$1)&amp;".model.ts"</f>
-        <v>store.model.ts</v>
+        <v>product.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="str">
+      <c r="A5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+    </row>
+    <row r="6" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
-        <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
-      </c>
-      <c r="B6" s="66" t="str">
+        <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('products') export class ProductEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
+      </c>
+      <c r="B6" s="60" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C6" s="64" t="str">
+      <c r="C6" s="61" t="str">
         <f>LOWER(Entry!$H$1)&amp;".entity.ts"</f>
-        <v>store.entity.ts</v>
+        <v>product.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="str">
+        <v>31</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+    </row>
+    <row r="9" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="str">
         <f>Engine!R20&amp;Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" }"</f>
-        <v>import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
+        <v>import { CreateProductUseCase } from '../usecases/create-product.usecase'; import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; import { ListProductsUseCase } from '../usecases/list-products.usecase'; import { UpdateProductUseCase } from '../usecases/update-product.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class ProductController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateProductUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListProductsUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetProductByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateProductUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteProductUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
       </c>
       <c r="B9" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C9" s="65" t="str">
+      <c r="C9" s="64" t="str">
         <f>LOWER(Entry!$H$1)&amp;".controller.ts"</f>
-        <v>store.controller.ts</v>
+        <v>product.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="str">
+      <c r="A11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+    </row>
+    <row r="12" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="str">
         <f>Engine!V1&amp;Engine!V26&amp;Engine!V27&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
-        <v>import { Database } from '../../../../main/database/database.connection';import { StoreEntity } from '../../../shared/database/entities/store.entity'; import { Store } from '../../../models/store.model';  export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
+        <v>import { Database } from '../../../../main/database/database.connection';import { ProductEntity } from '../../../shared/database/entities/product.entity'; import { Product } from '../../../models/product.model';  export class ProductRepository { private connection = Database.connection.getRepository(ProductEntity);public async create(product: Product) { const productEntity = this.connection.create({ id: product.id, name: product.name, price: product.price, }); const results = await  this.connection.save(productEntity); return ProductRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; ProductRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return ProductRepository.toModel(result);}public async update(product: Product) { await this.connection.update({id: product.id, },{name: product.name, price: product.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: ProductEntity | null): Product { return Product.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
       <c r="B12" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C12" s="65" t="str">
+      <c r="C12" s="64" t="str">
         <f>LOWER(Entry!$H$1)&amp;".repository.ts"</f>
-        <v>store.repository.ts</v>
+        <v>product.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="str">
+        <v>34</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+    </row>
+    <row r="15" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="str">
         <f>Engine!AA1&amp;Engine!Z11&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
-        <v>import { Router } from 'express'; import { StoreController } from '../controllers/store.controller'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
+        <v>import { Router } from 'express'; import { ProductController } from '../controllers/product.controller'; export const productRoutes = () =&gt; { const app = Router(); app.get('/', new ProductController().list);app.get('/:id', new ProductController().get);app.post('/', new ProductController().create);app.put('/:id' ,new ProductController().update);app.delete('/:id' , new ProductController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
       <c r="B15" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C15" s="65" t="str">
+      <c r="C15" s="64" t="str">
         <f>LOWER(Entry!$H$1)&amp;".routes.ts"</f>
-        <v>store.routes.ts</v>
+        <v>product.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="str">
+      <c r="A18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+    </row>
+    <row r="19" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="str">
         <f>Engine!AG2&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result, 'Store created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; interface CreateProductParams { name: string; price: number;  }  export class CreateProductUseCase { public async execute(params: CreateProductParams) : Promise&lt;Result&gt; { const product = new Product(params.name, params.price, ); const result = await new ProductRepository().create(product);return Return.created.toJson()(result, 'Product created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B19" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C19" s="65" t="str">
+      <c r="C19" s="64" t="str">
         <f>"create-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>create-store.usecase.ts</v>
+        <v>create-product.usecase.ts</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="104"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="str">
+      <c r="A20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="46"/>
+    </row>
+    <row r="21" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="str">
         <f>Engine!AG4&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store);} return Return.success('Store obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class GetProductByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new ProductRepository().get(id); if(!result) {return Return.notFound('Product');} return Return.success('Product obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B21" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C21" s="65" t="str">
+      <c r="C21" s="64" t="str">
         <f>"get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase.ts"</f>
-        <v>get-store-by-id.usecase.ts</v>
+        <v>get-product-by-id.usecase.ts</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="104"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="str">
+      <c r="A22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="46"/>
+    </row>
+    <row r="23" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="str">
         <f>Engine!AG5&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository()..list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class ListProductsUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new ProductRepository().list(); const data = result.map((product) =&gt; product.toJson());return Return.success('Products listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B23" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C23" s="65" t="str">
+      <c r="C23" s="64" t="str">
         <f>"list-"&amp;LOWER(Entry!H1)&amp;"s.usecase.ts"</f>
-        <v>list-stores.usecase.ts</v>
+        <v>list-products.usecase.ts</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="104"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="str">
+      <c r="A24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="46"/>
+    </row>
+    <row r="25" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="str">
         <f>Engine!AG6&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; import { GetProductByIdUseCase } from './get-product-by-id.usecase';interface UpdateProductParams { id: string; name?: string; price?: number;  } export class UpdateProductUseCase { public async execute(params: UpdateProductParams): Promise&lt;Result&gt; { const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}let newProduct: Product = product.data;if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } product.data = newProduct; product.msg = 'Product updated'; await new ProductRepository().update(product.data); return product;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B25" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C25" s="65" t="str">
+      <c r="C25" s="64" t="str">
         <f>"update-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>update-store.usecase.ts</v>
+        <v>update-product.usecase.ts</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="104"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="str">
+      <c r="A26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="46"/>
+    </row>
+    <row r="27" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="str">
         <f>Engine!AG3&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class DeleteProductUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new ProductRepository().delete(id); if(deleted == 0) { return Return.notFound('Product');}return Return.success('Product deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B27" s="63" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C27" s="65" t="str">
+      <c r="C27" s="64" t="str">
         <f>"delete-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>delete-store.usecase.ts</v>
+        <v>delete-product.usecase.ts</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
+      <c r="A28" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F32552-D38B-454C-BB06-E977983A0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECFFCA-37F4-4362-B366-C9DF1F8FBE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry" sheetId="1" r:id="rId1"/>
@@ -1175,90 +1175,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1376,46 +1292,130 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1732,9 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4604D5C4-F202-47E4-B536-0D1232179344}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -1761,16 +1762,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="105" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="103"/>
       <c r="J1" s="17" t="s">
         <v>21</v>
       </c>
@@ -1778,10 +1779,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>products</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="42"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1791,8 +1792,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1800,15 +1801,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="P3" s="34" t="s">
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
+      <c r="P3" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="92"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1821,34 +1822,34 @@
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="90"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1870,28 +1871,28 @@
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -1910,18 +1911,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="70"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="M6" s="91"/>
-      <c r="P6" s="97" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="M6" s="63"/>
+      <c r="P6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="98" t="s">
+      <c r="Q6" s="70" t="s">
         <v>9</v>
       </c>
       <c r="AD6" s="3"/>
@@ -1934,14 +1935,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="M7" s="92"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
+      <c r="M7" s="64"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1961,14 +1962,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="M8" s="93"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="M8" s="65"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1988,14 +1989,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="M9" s="94"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="M9" s="66"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2015,14 +2016,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="70"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="M10" s="93"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="M10" s="65"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2042,14 +2043,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="M11" s="93"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="M11" s="65"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2069,14 +2070,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="M12" s="95"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="M12" s="67"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2096,14 +2097,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="M13" s="93"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="M13" s="65"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2123,14 +2124,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="M14" s="96"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="M14" s="68"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2156,35 +2157,35 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="107" t="s">
+      <c r="I18" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="108" t="s">
+      <c r="J18" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="79" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
@@ -2198,23 +2199,23 @@
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="I19" s="81" t="s">
+      <c r="G19" s="71"/>
+      <c r="I19" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="82" t="s">
+      <c r="J19" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="55" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2225,23 +2226,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="I20" s="84" t="s">
+      <c r="G20" s="72"/>
+      <c r="I20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="86" t="s">
+      <c r="K20" s="58" t="s">
         <v>15</v>
       </c>
       <c r="AE20" s="10"/>
@@ -2252,13 +2253,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="100"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="72"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2267,13 +2268,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="100"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="72"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2282,13 +2283,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="100"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="72"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2297,13 +2298,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="100"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="72"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2312,13 +2313,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="100"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="72"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2327,13 +2328,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="100"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="72"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2342,13 +2343,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="100"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="72"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2357,13 +2358,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="100"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="72"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2372,13 +2373,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="100"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="72"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2387,13 +2388,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="100"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="72"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2402,13 +2403,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="100"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="72"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2417,13 +2418,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="100"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="72"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2432,13 +2433,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="100"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="72"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="58"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2447,13 +2448,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="100"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="72"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2462,13 +2463,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="100"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="72"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2477,13 +2478,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="100"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="86"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="72"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2492,13 +2493,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="104"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="89"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="61"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -2629,10 +2630,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5156362B-539B-4F74-A6D1-CC923D025A62}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="B1:AL39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,15 +5249,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53235BA3-CC45-4994-B75C-E29B537BC50A}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="88" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="24" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
@@ -5272,156 +5275,156 @@
       <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-    </row>
-    <row r="3" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="str">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+    </row>
+    <row r="3" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
         <v>import { v4 as createUuid } from 'uuid';export class Product {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Product(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="32" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C3" s="61" t="str">
+      <c r="C3" s="33" t="str">
         <f>LOWER(Entry!$H$1)&amp;".model.ts"</f>
         <v>product.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-    </row>
-    <row r="6" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="str">
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+    </row>
+    <row r="6" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
         <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('products') export class ProductEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
-      <c r="B6" s="60" t="str">
+      <c r="B6" s="32" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C6" s="61" t="str">
+      <c r="C6" s="33" t="str">
         <f>LOWER(Entry!$H$1)&amp;".entity.ts"</f>
         <v>product.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="str">
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+    </row>
+    <row r="9" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="str">
         <f>Engine!R20&amp;Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" }"</f>
         <v>import { CreateProductUseCase } from '../usecases/create-product.usecase'; import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; import { ListProductsUseCase } from '../usecases/list-products.usecase'; import { UpdateProductUseCase } from '../usecases/update-product.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class ProductController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateProductUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListProductsUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetProductByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateProductUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteProductUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
       </c>
-      <c r="B9" s="63" t="str">
+      <c r="B9" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C9" s="64" t="str">
+      <c r="C9" s="36" t="str">
         <f>LOWER(Entry!$H$1)&amp;".controller.ts"</f>
         <v>product.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-    </row>
-    <row r="12" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="str">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+    </row>
+    <row r="12" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="str">
         <f>Engine!V1&amp;Engine!V26&amp;Engine!V27&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
         <v>import { Database } from '../../../../main/database/database.connection';import { ProductEntity } from '../../../shared/database/entities/product.entity'; import { Product } from '../../../models/product.model';  export class ProductRepository { private connection = Database.connection.getRepository(ProductEntity);public async create(product: Product) { const productEntity = this.connection.create({ id: product.id, name: product.name, price: product.price, }); const results = await  this.connection.save(productEntity); return ProductRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; ProductRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return ProductRepository.toModel(result);}public async update(product: Product) { await this.connection.update({id: product.id, },{name: product.name, price: product.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: ProductEntity | null): Product { return Product.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
-      <c r="B12" s="63" t="str">
+      <c r="B12" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C12" s="64" t="str">
+      <c r="C12" s="36" t="str">
         <f>LOWER(Entry!$H$1)&amp;".repository.ts"</f>
         <v>product.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-    </row>
-    <row r="15" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="str">
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+    </row>
+    <row r="15" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="str">
         <f>Engine!AA1&amp;Engine!Z11&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
         <v>import { Router } from 'express'; import { ProductController } from '../controllers/product.controller'; export const productRoutes = () =&gt; { const app = Router(); app.get('/', new ProductController().list);app.get('/:id', new ProductController().get);app.post('/', new ProductController().create);app.put('/:id' ,new ProductController().update);app.delete('/:id' , new ProductController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
-      <c r="B15" s="63" t="str">
+      <c r="B15" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C15" s="64" t="str">
+      <c r="C15" s="36" t="str">
         <f>LOWER(Entry!$H$1)&amp;".routes.ts"</f>
         <v>product.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-    </row>
-    <row r="19" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="str">
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+    </row>
+    <row r="19" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="str">
         <f>Engine!AG2&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; interface CreateProductParams { name: string; price: number;  }  export class CreateProductUseCase { public async execute(params: CreateProductParams) : Promise&lt;Result&gt; { const product = new Product(params.name, params.price, ); const result = await new ProductRepository().create(product);return Return.created.toJson()(result, 'Product created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
-      <c r="B19" s="63" t="str">
+      <c r="B19" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C19" s="64" t="str">
+      <c r="C19" s="36" t="str">
         <f>"create-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>create-product.usecase.ts</v>
       </c>
@@ -5430,21 +5433,21 @@
       <c r="A20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="46"/>
-    </row>
-    <row r="21" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="str">
+      <c r="B20" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="105"/>
+    </row>
+    <row r="21" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="str">
         <f>Engine!AG4&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class GetProductByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new ProductRepository().get(id); if(!result) {return Return.notFound('Product');} return Return.success('Product obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
-      <c r="B21" s="63" t="str">
+      <c r="B21" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C21" s="64" t="str">
+      <c r="C21" s="36" t="str">
         <f>"get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase.ts"</f>
         <v>get-product-by-id.usecase.ts</v>
       </c>
@@ -5453,21 +5456,21 @@
       <c r="A22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="46"/>
-    </row>
-    <row r="23" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="str">
+      <c r="B22" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="105"/>
+    </row>
+    <row r="23" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="str">
         <f>Engine!AG5&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class ListProductsUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new ProductRepository().list(); const data = result.map((product) =&gt; product.toJson());return Return.success('Products listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
-      <c r="B23" s="63" t="str">
+      <c r="B23" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C23" s="64" t="str">
+      <c r="C23" s="36" t="str">
         <f>"list-"&amp;LOWER(Entry!H1)&amp;"s.usecase.ts"</f>
         <v>list-products.usecase.ts</v>
       </c>
@@ -5476,21 +5479,21 @@
       <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="46"/>
-    </row>
-    <row r="25" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="str">
+      <c r="B24" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="105"/>
+    </row>
+    <row r="25" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="str">
         <f>Engine!AG6&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; import { GetProductByIdUseCase } from './get-product-by-id.usecase';interface UpdateProductParams { id: string; name?: string; price?: number;  } export class UpdateProductUseCase { public async execute(params: UpdateProductParams): Promise&lt;Result&gt; { const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}let newProduct: Product = product.data;if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } product.data = newProduct; product.msg = 'Product updated'; await new ProductRepository().update(product.data); return product;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
-      <c r="B25" s="63" t="str">
+      <c r="B25" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C25" s="64" t="str">
+      <c r="C25" s="36" t="str">
         <f>"update-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>update-product.usecase.ts</v>
       </c>
@@ -5499,41 +5502,34 @@
       <c r="A26" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="46"/>
-    </row>
-    <row r="27" spans="1:3" s="62" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="str">
+      <c r="B26" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="105"/>
+    </row>
+    <row r="27" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="str">
         <f>Engine!AG3&amp;Engine!AF32</f>
         <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class DeleteProductUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new ProductRepository().delete(id); if(deleted == 0) { return Return.notFound('Product');}return Return.success('Product deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
-      <c r="B27" s="63" t="str">
+      <c r="B27" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
         <v xml:space="preserve">&lt;-- Colar dentro de um arquivo .ts - nome sugerido: </v>
       </c>
-      <c r="C27" s="64" t="str">
+      <c r="C27" s="36" t="str">
         <f>"delete-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
         <v>delete-product.usecase.ts</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
@@ -5543,6 +5539,13 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECFFCA-37F4-4362-B366-C9DF1F8FBE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA960F-B30E-4A79-B3B7-EB62EDFE2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>tipo</t>
-  </si>
-  <si>
-    <t>valor p/ constructor</t>
   </si>
   <si>
     <t>x</t>
@@ -170,7 +167,10 @@
     <t>price</t>
   </si>
   <si>
-    <t>Product</t>
+    <t>valor inicial</t>
+  </si>
+  <si>
+    <t>Store</t>
   </si>
 </sst>
 </file>
@@ -1379,6 +1379,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1388,6 +1394,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,24 +1416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1736,7 +1736,7 @@
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="97"/>
       <c r="F1" s="97"/>
@@ -1773,14 +1773,14 @@
       </c>
       <c r="I1" s="103"/>
       <c r="J1" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="18" t="str">
         <f>LOWER(H1)&amp;"s"</f>
-        <v>products</v>
+        <v>stores</v>
       </c>
       <c r="P1" s="98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="99"/>
     </row>
@@ -1807,7 +1807,7 @@
       <c r="J3" s="94"/>
       <c r="K3" s="95"/>
       <c r="P3" s="91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="92"/>
       <c r="U3" s="13"/>
@@ -1844,10 +1844,10 @@
         <v>7</v>
       </c>
       <c r="M4" s="88" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="90"/>
       <c r="R4" s="1"/>
@@ -1872,34 +1872,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="53" t="s">
+      <c r="J5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="K5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="M5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>13</v>
-      </c>
       <c r="P5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="10"/>
@@ -1920,10 +1920,10 @@
       <c r="K6" s="58"/>
       <c r="M6" s="63"/>
       <c r="P6" s="69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="10"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="95"/>
@@ -2200,23 +2200,23 @@
         <v>1</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="71"/>
       <c r="I19" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
@@ -2227,23 +2227,23 @@
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="72"/>
       <c r="I20" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J20" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
@@ -2659,25 +2659,25 @@
         <v>import { v4 as createUuid } from 'uuid';</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
         <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
       </c>
       <c r="P1" t="str">
         <f>"import { Request, Response } from 'express'; "</f>
@@ -2689,40 +2689,40 @@
       </c>
       <c r="R1" t="str">
         <f>N2&amp;N3&amp;O26&amp;O3&amp;R8&amp;"{ "&amp;O26&amp;" }"&amp;O4&amp;N5</f>
-        <v>try { const { name,price, } = req.body; const result = await new CreateProductUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V1" t="str">
         <f>"import { Database } from '../../../../main/database/database.connection';"</f>
         <v>import { Database } from '../../../../main/database/database.connection';</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA1" t="str">
         <f>"import { Router } from 'express'; "</f>
         <v xml:space="preserve">import { Router } from 'express'; </v>
       </c>
       <c r="AB1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC1" t="str">
         <f>Entry!H1&amp;Engine!N1</f>
-        <v>ProductController</v>
+        <v>StoreController</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG1" t="str">
         <f>"import { Result } from '../../../shared/contracts/result.contract'; "</f>
@@ -2734,18 +2734,18 @@
       </c>
       <c r="AI1" t="str">
         <f>"import { "&amp;Entry!H1&amp;" } from '../../../models/"&amp;LOWER(Entry!H1)&amp;".model'; "</f>
-        <v xml:space="preserve">import { Product } from '../../../models/product.model'; </v>
+        <v xml:space="preserve">import { Store } from '../../../models/store.model'; </v>
       </c>
       <c r="AJ1" t="str">
         <f>"import { "&amp;Entry!H1&amp;"Repository } from '../repositories/"&amp;LOWER(Entry!H1)&amp;".repository'; "</f>
-        <v xml:space="preserve">import { ProductRepository } from '../repositories/product.repository'; </v>
+        <v xml:space="preserve">import { StoreRepository } from '../repositories/store.repository'; </v>
       </c>
       <c r="AK1" t="str">
         <f>"import { "&amp;AF4&amp;AE1&amp;" } from './get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase';"</f>
-        <v>import { GetProductByIdUseCase } from './get-product-by-id.usecase';</v>
+        <v>import { GetStoreByIdUseCase } from './get-store-by-id.usecase';</v>
       </c>
       <c r="AL1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v xml:space="preserve">id: this._id, </v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" t="str">
@@ -2782,13 +2782,13 @@
         <v xml:space="preserve">@PrimaryColumn()id: string; </v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" t="str">
         <f>"try { "</f>
@@ -2804,35 +2804,35 @@
       </c>
       <c r="R2" t="str">
         <f>N2&amp;R11&amp;O4&amp;N5</f>
-        <v>try { const result = await new ListProductsUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2" t="str">
         <f>"private connection = Database.connection.getRepository("&amp;Entry!H1&amp;Engine!J1&amp;");"</f>
-        <v>private connection = Database.connection.getRepository(ProductEntity);</v>
+        <v>private connection = Database.connection.getRepository(StoreEntity);</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="str">
         <f>"export const "&amp;LOWER(Entry!H1)&amp;Engine!Y1&amp;" = () =&gt; { const app = Router(); "</f>
-        <v xml:space="preserve">export const productRoutes = () =&gt; { const app = Router(); </v>
+        <v xml:space="preserve">export const storeRoutes = () =&gt; { const app = Router(); </v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="str">
         <f>"Create"&amp;Entry!H1</f>
-        <v>CreateProduct</v>
+        <v>CreateStore</v>
       </c>
       <c r="AG2" t="str">
         <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AF30&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created.toJson()"&amp;AK12&amp;" created');}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; interface CreateProductParams { name: string; price: number;  }  export class CreateProductUseCase { public async execute(params: CreateProductParams) : Promise&lt;Result&gt; { const product = new Product(params.name, params.price, ); const result = await new ProductRepository().create(product);return Return.created.toJson()(result, 'Product created');}}</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created.toJson()(result, 'Store created');}}</v>
       </c>
       <c r="AL2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
@@ -2866,13 +2866,13 @@
         <v/>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" t="str">
         <f>"const { "</f>
@@ -2892,38 +2892,38 @@
       </c>
       <c r="R3" t="str">
         <f>N2&amp;N3&amp;O6&amp;P3&amp;R10&amp;O6&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const result = await new GetProductByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W3" t="str">
         <f>"public async create("&amp;LOWER(Entry!H1)&amp;": "&amp;Entry!H1&amp;") { const "&amp;LOWER(Entry!H1)&amp;Engine!J1&amp;" = this.connection.create({ "&amp;T24&amp;"}); const results = await  this.connection.save("&amp;LOWER(Entry!H1)&amp;Engine!J1&amp;"); return "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(results);}"</f>
-        <v>public async create(product: Product) { const productEntity = this.connection.create({ id: product.id, name: product.name, price: product.price, }); const results = await  this.connection.save(productEntity); return ProductRepository.toModel(results);}</v>
+        <v>public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="str">
         <f>"app.get('/', new "&amp;AC1&amp;"().list);"</f>
-        <v>app.get('/', new ProductController().list);</v>
+        <v>app.get('/', new StoreController().list);</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="str">
         <f>"Delete"&amp;Entry!H1</f>
-        <v>DeleteProduct</v>
+        <v>DeleteStore</v>
       </c>
       <c r="AG3" t="str">
         <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF3&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { const deleted = await new "&amp;Entry!H1&amp;"Repository().delete("&amp;Entry!J5&amp;"); if(deleted == 0) { return Return.notFound('"&amp;Entry!H1&amp;"');}"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" deleted', '');}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class DeleteProductUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new ProductRepository().delete(id); if(deleted == 0) { return Return.notFound('Product');}return Return.success('Product deleted', '');}}</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}</v>
       </c>
       <c r="AL3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
         <v/>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="21"/>
       <c r="O4" t="str">
@@ -2970,10 +2970,10 @@
       </c>
       <c r="R4" t="str">
         <f>N2&amp;N3&amp;O6&amp;P3&amp;N3&amp;O26&amp;O3&amp;R12&amp;"{ "&amp;O6&amp;","&amp;O26&amp;" }"&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateProductUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T4" t="str">
         <f>Entry!J5</f>
@@ -2981,32 +2981,32 @@
       </c>
       <c r="U4" t="str">
         <f>IF(Entry!B5=1,": "&amp;LOWER(Entry!H1)&amp;"."&amp;T4&amp;", ","")</f>
-        <v xml:space="preserve">: product.id, </v>
+        <v xml:space="preserve">: store.id, </v>
       </c>
       <c r="W4" t="str">
         <f>"public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(entity));}"</f>
-        <v>public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; ProductRepository.toModel(entity));}</v>
+        <v>public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="str">
         <f>"app.get('/:"&amp;Entry!J5&amp;"', new "&amp;AC1&amp;"().get);"</f>
-        <v>app.get('/:id', new ProductController().get);</v>
+        <v>app.get('/:id', new StoreController().get);</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="str">
         <f>"Get"&amp;Entry!H1&amp;"ById"</f>
-        <v>GetProductById</v>
+        <v>GetStoreById</v>
       </c>
       <c r="AG4" t="str">
         <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF4&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;AG8&amp;"): Promise&lt;Result&gt; { "&amp;AK10&amp;"get("&amp;Entry!J5&amp;"); if(!result) {"&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;"');} "&amp;AK11&amp;"success('"&amp;Entry!H1&amp;" obtained', result.toJson());}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class GetProductByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new ProductRepository().get(id); if(!result) {return Return.notFound('Product');} return Return.success('Product obtained', result.toJson());}}</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store');} return Return.success('Store obtained', result.toJson());}}</v>
       </c>
       <c r="AL4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
@@ -3040,14 +3040,14 @@
         <v/>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="str">
         <f>J1&amp;", "&amp;K1&amp;", "&amp;L1</f>
         <v>Entity, Column, PrimaryColumn</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="str">
         <f>"return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }"</f>
@@ -3059,10 +3059,10 @@
       </c>
       <c r="R5" t="str">
         <f>N2&amp;N3&amp;O6&amp;P3&amp;R9&amp;O6&amp;O4&amp;N5</f>
-        <v>try { const { id } = req.params; const result = await new DeleteProductUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
+        <v>try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); }</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" t="str">
         <f>IF(Entry!B19=1,Entry!J19,"")</f>
@@ -3070,32 +3070,32 @@
       </c>
       <c r="U5" t="str">
         <f>IF(Entry!B19=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T5&amp;", ","")</f>
-        <v xml:space="preserve">: product.name, </v>
+        <v xml:space="preserve">: store.name, </v>
       </c>
       <c r="W5" t="str">
         <f>"public async get("&amp;T4&amp;": "&amp;Entry!K5&amp;") { const result = await this.connection.findOneBy({ "&amp;T4&amp;", }); if(!result) { return undefined; } return "&amp;Entry!H1&amp;Engine!T1&amp;".toModel(result);}"</f>
-        <v>public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return ProductRepository.toModel(result);}</v>
+        <v>public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="str">
         <f>"app.post('/', new "&amp;AC1&amp;"().create);"</f>
-        <v>app.post('/', new ProductController().create);</v>
+        <v>app.post('/', new StoreController().create);</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="str">
         <f>"List"&amp;Entry!H1&amp;"s"</f>
-        <v>ListProducts</v>
+        <v>ListStores</v>
       </c>
       <c r="AG5" t="str">
         <f>AG1&amp;AH1&amp;AJ1&amp;"export class "&amp;AF5&amp;AE1&amp;" { public async "&amp;AE3&amp;"(): Promise&lt;Result&gt; { "&amp;AK10&amp;"list(); const data = result.map(("&amp;LOWER(Entry!H1)&amp;") =&gt; "&amp;LOWER(Entry!H1)&amp;".toJson());"&amp;AK11&amp;"success('"&amp;Entry!H1&amp;"s listed' , data);}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class ListProductsUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new ProductRepository().list(); const data = result.map((product) =&gt; product.toJson());return Return.success('Products listed' , data);}}</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository().list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}</v>
       </c>
       <c r="AL5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
@@ -3129,14 +3129,14 @@
         <v/>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="str">
         <f>IF(Entry!P6="x",", "&amp;Engine!L2,"")</f>
         <v>, CreateDateColumn</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" t="str">
         <f>Entry!J5</f>
@@ -3149,32 +3149,32 @@
       </c>
       <c r="U6" t="str">
         <f>IF(Entry!B20=1,": "&amp;LOWER(Entry!$H$1)&amp;"."&amp;T6&amp;", ","")</f>
-        <v xml:space="preserve">: product.price, </v>
+        <v xml:space="preserve">: store.price, </v>
       </c>
       <c r="W6" t="str">
         <f>"public async update("&amp;LOWER(Entry!H1)&amp;": "&amp;Entry!H1&amp;") { await this.connection.update({"&amp;T4&amp;U4&amp;"},{"&amp;T25&amp;"});}"</f>
-        <v>public async update(product: Product) { await this.connection.update({id: product.id, },{name: product.name, price: product.price, });}</v>
+        <v>public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="str">
         <f>"app.put('/:"&amp;Entry!J5&amp;"' ,new "&amp;Engine!AC1&amp;"().update);"</f>
-        <v>app.put('/:id' ,new ProductController().update);</v>
+        <v>app.put('/:id' ,new StoreController().update);</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="str">
         <f>"Update"&amp;Entry!H1</f>
-        <v>UpdateProduct</v>
+        <v>UpdateStore</v>
       </c>
       <c r="AG6" t="str">
         <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AK1&amp;AF31&amp;"export class "&amp;AF6&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF6&amp;AE8&amp;"): Promise&lt;Result&gt; { "&amp;AK14&amp;AK15&amp;AJ28&amp;AK17&amp;AK18&amp;"await new "&amp;Entry!H1&amp;"Repository().update("&amp;LOWER(Entry!H1)&amp;".data); "&amp;AK19&amp;"}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; import { GetProductByIdUseCase } from './get-product-by-id.usecase';interface UpdateProductParams { id: string; name?: string; price?: number;  } export class UpdateProductUseCase { public async execute(params: UpdateProductParams): Promise&lt;Result&gt; { const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}let newProduct: Product = product.data;if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } product.data = newProduct; product.msg = 'Product updated'; await new ProductRepository().update(product.data); return product;}}</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}</v>
       </c>
       <c r="AL6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
@@ -3208,14 +3208,14 @@
         <v/>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Entry!Q6="x",", "&amp;Engine!L3,"")</f>
         <v>, UpdateDateColumn</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" t="str">
         <f>IF(Entry!B19=1,Entry!J19&amp;",","")</f>
@@ -3235,14 +3235,14 @@
         <v>public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="str">
         <f>"app.delete('/:"&amp;Entry!J5&amp;"' , new "&amp;Engine!AC1&amp;"().delete);"</f>
-        <v>app.delete('/:id' , new ProductController().delete);</v>
+        <v>app.delete('/:id' , new StoreController().delete);</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="str">
         <f>"interface "</f>
@@ -3280,7 +3280,7 @@
         <v/>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="21"/>
       <c r="O8" t="str">
@@ -3289,14 +3289,14 @@
       </c>
       <c r="Q8" t="str">
         <f>AF2&amp;$AE$1</f>
-        <v>CreateProductUseCase</v>
+        <v>CreateStoreUseCase</v>
       </c>
       <c r="R8" t="str">
         <f>"const result = await new "&amp;Q8&amp;"().execute("</f>
-        <v>const result = await new CreateProductUseCase().execute(</v>
+        <v>const result = await new CreateStoreUseCase().execute(</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T8" t="str">
         <f>IF(Entry!B22=1,Entry!J22,"")</f>
@@ -3308,16 +3308,16 @@
       </c>
       <c r="W8" t="str">
         <f>"public static toModel(entity: "&amp;Entry!H1&amp;Engine!J1&amp;" | null): "&amp;Entry!H1&amp;" { return "&amp;Entry!H1&amp;".create(entity);}"</f>
-        <v>public static toModel(entity: ProductEntity | null): Product { return Product.create(entity);}</v>
+        <v>public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);}</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF8" s="22" t="str">
         <f>IF(Entry!B5=1,Entry!J5&amp;": "&amp;Entry!K5&amp;"; ","")</f>
@@ -3363,7 +3363,7 @@
         <v/>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="21"/>
       <c r="O9" t="str">
@@ -3372,14 +3372,14 @@
       </c>
       <c r="Q9" t="str">
         <f>AF3&amp;$AE$1</f>
-        <v>DeleteProductUseCase</v>
+        <v>DeleteStoreUseCase</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" ref="R9:R11" si="0">"const result = await new "&amp;Q9&amp;"().execute("</f>
-        <v>const result = await new DeleteProductUseCase().execute(</v>
+        <v>const result = await new DeleteStoreUseCase().execute(</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" t="str">
         <f>IF(Entry!B23=1,Entry!J23,"")</f>
@@ -3390,7 +3390,7 @@
         <v/>
       </c>
       <c r="X9" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="str">
         <f>IF(Entry!B19=1,Entry!J19&amp;": "&amp;Entry!K19&amp;"; ","")</f>
@@ -3410,14 +3410,14 @@
       </c>
       <c r="AJ9" t="str">
         <f>IF(Entry!B19=1,"if ("&amp;AI9&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J19&amp;" = "&amp;AI9&amp;"; } ","")</f>
-        <v xml:space="preserve">if (params.name) { newProduct.name = params.name; } </v>
+        <v xml:space="preserve">if (params.name) { newStore.name = params.name; } </v>
       </c>
       <c r="AK9" t="str">
         <f>"const "&amp;LOWER(Entry!H1)&amp;" = new "&amp;Entry!H1&amp;"("&amp;AH28&amp;"); "</f>
-        <v xml:space="preserve">const product = new Product(params.name, params.price, ); </v>
+        <v xml:space="preserve">const store = new Store(params.name, params.price, ); </v>
       </c>
       <c r="AL9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v/>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="21"/>
       <c r="O10" t="str">
@@ -3460,14 +3460,14 @@
       </c>
       <c r="Q10" t="str">
         <f>AF4&amp;$AE$1</f>
-        <v>GetProductByIdUseCase</v>
+        <v>GetStoreByIdUseCase</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="0"/>
-        <v>const result = await new GetProductByIdUseCase().execute(</v>
+        <v>const result = await new GetStoreByIdUseCase().execute(</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T10" t="str">
         <f>IF(Entry!B24=1,Entry!J24,"")</f>
@@ -3478,7 +3478,7 @@
         <v/>
       </c>
       <c r="X10" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="str">
         <f>IF(Entry!B20=1,Entry!J20&amp;": "&amp;Entry!K20&amp;"; ","")</f>
@@ -3498,14 +3498,14 @@
       </c>
       <c r="AJ10" t="str">
         <f>IF(Entry!B20=1,"if ("&amp;AI10&amp;") { new"&amp;Entry!$H$1&amp;"."&amp;Entry!J20&amp;" = "&amp;AI10&amp;"; } ","")</f>
-        <v xml:space="preserve">if (params.price) { newProduct.price = params.price; } </v>
+        <v xml:space="preserve">if (params.price) { newStore.price = params.price; } </v>
       </c>
       <c r="AK10" t="str">
         <f>"const result = await new "&amp;Entry!H1&amp;Engine!T1&amp;"()."</f>
-        <v>const result = await new ProductRepository().</v>
+        <v>const result = await new StoreRepository().</v>
       </c>
       <c r="AL10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v/>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="21"/>
       <c r="O11" t="str">
@@ -3548,14 +3548,14 @@
       </c>
       <c r="Q11" t="str">
         <f>AF5&amp;$AE$1</f>
-        <v>ListProductsUseCase</v>
+        <v>ListStoresUseCase</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
-        <v>const result = await new ListProductsUseCase().execute(</v>
+        <v>const result = await new ListStoresUseCase().execute(</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T11" t="str">
         <f>IF(Entry!B25=1,Entry!J25,"")</f>
@@ -3568,10 +3568,10 @@
       <c r="X11" s="21"/>
       <c r="Z11" t="str">
         <f>"import { "&amp;AC1&amp;" } from '../controllers/"&amp;LOWER(Entry!H1)&amp;".controller'; "</f>
-        <v xml:space="preserve">import { ProductController } from '../controllers/product.controller'; </v>
+        <v xml:space="preserve">import { StoreController } from '../controllers/store.controller'; </v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="str">
         <f>IF(Entry!B21=1,Entry!J21&amp;": "&amp;Entry!K21&amp;"; ","")</f>
@@ -3598,7 +3598,7 @@
         <v>return Return.</v>
       </c>
       <c r="AL11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
@@ -3632,7 +3632,7 @@
         <v/>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="21"/>
       <c r="O12" t="str">
@@ -3641,14 +3641,14 @@
       </c>
       <c r="Q12" t="str">
         <f>AF6&amp;$AE$1</f>
-        <v>UpdateProductUseCase</v>
+        <v>UpdateStoreUseCase</v>
       </c>
       <c r="R12" t="str">
         <f>"const result = await new "&amp;Q12&amp;"().execute("</f>
-        <v>const result = await new UpdateProductUseCase().execute(</v>
+        <v>const result = await new UpdateStoreUseCase().execute(</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T12" t="str">
         <f>IF(Entry!B26=1,Entry!J26,"")</f>
@@ -3681,10 +3681,10 @@
       </c>
       <c r="AK12" t="str">
         <f>"(result, '"&amp;Entry!H1</f>
-        <v>(result, 'Product</v>
+        <v>(result, 'Store</v>
       </c>
       <c r="AL12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="AL13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
@@ -3769,10 +3769,10 @@
       </c>
       <c r="R14" s="31" t="str">
         <f>"import { "&amp;Q8&amp;" } from '../usecases/create-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
-        <v xml:space="preserve">import { CreateProductUseCase } from '../usecases/create-product.usecase'; </v>
+        <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; </v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T14" t="str">
         <f>IF(Entry!B28=1,Entry!J28,"")</f>
@@ -3805,10 +3805,10 @@
       </c>
       <c r="AK14" t="str">
         <f>"const "&amp;LOWER(Entry!H1)&amp;" = await new "&amp;AF4&amp;AE1&amp;"()."&amp;AE3&amp;"("&amp;AI8&amp;"); if(!"&amp;LOWER(Entry!H1)&amp;") { "&amp;AK11&amp;"notFound('"&amp;Entry!H1&amp;"');}"</f>
-        <v>const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}</v>
+        <v>const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}</v>
       </c>
       <c r="AL14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
         <v xml:space="preserve">import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; </v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O15" t="str">
         <f>IF(Entry!B27=1,Entry!J27&amp;",","")</f>
@@ -3850,10 +3850,10 @@
       </c>
       <c r="R15" s="31" t="str">
         <f>"import { "&amp;Q9&amp;" } from '../usecases/delete-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
-        <v xml:space="preserve">import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; </v>
+        <v xml:space="preserve">import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; </v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T15" t="str">
         <f>IF(Entry!B29=1,Entry!J29,"")</f>
@@ -3886,10 +3886,10 @@
       </c>
       <c r="AK15" t="str">
         <f>"let new"&amp;Entry!H1&amp;": "&amp;Entry!H1&amp;" = "&amp;LOWER(Entry!H1)&amp;".data;"</f>
-        <v>let newProduct: Product = product.data;</v>
+        <v>let newStore: Store = store.data;</v>
       </c>
       <c r="AL15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
@@ -3901,10 +3901,10 @@
       </c>
       <c r="R16" s="31" t="str">
         <f>"import { "&amp;Q10&amp;" } from '../usecases/get-"&amp;LOWER(Entry!$H$1)&amp;"-by-id.usecase'; "</f>
-        <v xml:space="preserve">import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; </v>
+        <v xml:space="preserve">import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; </v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T16" t="str">
         <f>IF(Entry!B30=1,Entry!J30,"")</f>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="21"/>
       <c r="M17" s="21"/>
@@ -3951,10 +3951,10 @@
       </c>
       <c r="R17" s="31" t="str">
         <f>"import { "&amp;Q11&amp;" } from '../usecases/list-"&amp;LOWER(Entry!$H$1)&amp;"s.usecase'; "</f>
-        <v xml:space="preserve">import { ListProductsUseCase } from '../usecases/list-products.usecase'; </v>
+        <v xml:space="preserve">import { ListStoresUseCase } from '../usecases/list-stores.usecase'; </v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T17" t="str">
         <f>IF(Entry!B31=1,Entry!J31,"")</f>
@@ -3987,10 +3987,10 @@
       </c>
       <c r="AK17" t="str">
         <f>LOWER(Entry!H1)&amp;".data = new"&amp;Entry!H1&amp;"; "</f>
-        <v xml:space="preserve">product.data = newProduct; </v>
+        <v xml:space="preserve">store.data = newStore; </v>
       </c>
       <c r="AL17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v xml:space="preserve">entity.name, </v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" t="str">
         <f>IF(Entry!G19="x","@PrimaryColumn()"&amp;Entry!$J19&amp;": "&amp;Entry!$K19&amp;"; ","@Column()"&amp;Entry!$J19&amp;": "&amp;Entry!$K19&amp;"; ")</f>
@@ -4030,7 +4030,7 @@
         <v xml:space="preserve">@Column()name: string; </v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="21"/>
       <c r="O18" t="str">
@@ -4039,10 +4039,10 @@
       </c>
       <c r="R18" s="31" t="str">
         <f>"import { "&amp;Q12&amp;" } from '../usecases/update-"&amp;LOWER(Entry!$H$1)&amp;".usecase'; "</f>
-        <v xml:space="preserve">import { UpdateProductUseCase } from '../usecases/update-product.usecase'; </v>
+        <v xml:space="preserve">import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T18" t="str">
         <f>IF(Entry!B32=1,Entry!J32,"")</f>
@@ -4071,10 +4071,10 @@
       </c>
       <c r="AK18" t="str">
         <f>LOWER(Entry!H1)&amp;".msg = '"&amp;Entry!H1&amp;" updated'; "</f>
-        <v xml:space="preserve">product.msg = 'Product updated'; </v>
+        <v xml:space="preserve">store.msg = 'Store updated'; </v>
       </c>
       <c r="AL18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v xml:space="preserve">entity.price, </v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" t="str">
         <f>IF(Entry!G20="x","@PrimaryColumn()"&amp;Entry!$J20&amp;": "&amp;Entry!$K20&amp;"; ","@Column()"&amp;Entry!$J20&amp;": "&amp;Entry!$K20&amp;"; ")</f>
@@ -4114,7 +4114,7 @@
         <v xml:space="preserve">@Column()price: number; </v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="21"/>
       <c r="O19" t="str">
@@ -4153,10 +4153,10 @@
       </c>
       <c r="AK19" t="str">
         <f>"return "&amp;LOWER(Entry!H1)&amp;";"</f>
-        <v>return product;</v>
+        <v>return store;</v>
       </c>
       <c r="AL19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
         <v/>
       </c>
       <c r="H20" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" t="str">
         <f>IF(Entry!G21="x","@PrimaryColumn()"&amp;Entry!$J21&amp;": "&amp;Entry!$K21&amp;"; ","@Column()"&amp;Entry!$J21&amp;": "&amp;Entry!$K21&amp;"; ")</f>
@@ -4196,7 +4196,7 @@
         <v/>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="21"/>
       <c r="O20" t="str">
@@ -4205,10 +4205,10 @@
       </c>
       <c r="R20" t="str">
         <f>R14&amp;R15&amp;R16&amp;R17&amp;R18</f>
-        <v xml:space="preserve">import { CreateProductUseCase } from '../usecases/create-product.usecase'; import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; import { ListProductsUseCase } from '../usecases/list-products.usecase'; import { UpdateProductUseCase } from '../usecases/update-product.usecase'; </v>
+        <v xml:space="preserve">import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; </v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T20" t="str">
         <f>IF(Entry!B34=1,Entry!J34,"")</f>
@@ -4266,7 +4266,7 @@
         <v/>
       </c>
       <c r="H21" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" t="str">
         <f>IF(Entry!G22="x","@PrimaryColumn()"&amp;Entry!$J22&amp;": "&amp;Entry!$K22&amp;"; ","@Column()"&amp;Entry!$J22&amp;": "&amp;Entry!$K22&amp;"; ")</f>
@@ -4277,7 +4277,7 @@
         <v/>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="21"/>
       <c r="O21" t="str">
@@ -4341,7 +4341,7 @@
         <v/>
       </c>
       <c r="H22" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" t="str">
         <f>IF(Entry!G23="x","@PrimaryColumn()"&amp;Entry!$J23&amp;": "&amp;Entry!$K23&amp;"; ","@Column()"&amp;Entry!$J23&amp;": "&amp;Entry!$K23&amp;"; ")</f>
@@ -4352,7 +4352,7 @@
         <v/>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M22" s="21"/>
       <c r="O22" t="str">
@@ -4416,7 +4416,7 @@
         <v/>
       </c>
       <c r="H23" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" t="str">
         <f>IF(Entry!G24="x","@PrimaryColumn()"&amp;Entry!$J24&amp;": "&amp;Entry!$K24&amp;"; ","@Column()"&amp;Entry!$J24&amp;": "&amp;Entry!$K24&amp;"; ")</f>
@@ -4427,7 +4427,7 @@
         <v/>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="21"/>
       <c r="O23" t="str">
@@ -4491,7 +4491,7 @@
         <v/>
       </c>
       <c r="H24" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" t="str">
         <f>IF(Entry!G25="x","@PrimaryColumn()"&amp;Entry!$J25&amp;": "&amp;Entry!$K25&amp;"; ","@Column()"&amp;Entry!$J25&amp;": "&amp;Entry!$K25&amp;"; ")</f>
@@ -4502,7 +4502,7 @@
         <v/>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24" s="21"/>
       <c r="O24" t="str">
@@ -4512,10 +4512,10 @@
       <c r="S24" s="21"/>
       <c r="T24" t="str">
         <f>T4&amp;U4&amp;T5&amp;U5&amp;T6&amp;U6&amp;T7&amp;U7&amp;T8&amp;U8&amp;T9&amp;U9&amp;T10&amp;U10&amp;T11&amp;U11&amp;T12&amp;U12&amp;T13&amp;U13&amp;T14&amp;U14&amp;T15&amp;U15&amp;T16&amp;U16&amp;T17&amp;U17&amp;T18&amp;U18&amp;T19&amp;U19&amp;T20&amp;U20&amp;T21&amp;U21&amp;T22&amp;U22&amp;T23&amp;U23</f>
-        <v xml:space="preserve">id: product.id, name: product.name, price: product.price, </v>
+        <v xml:space="preserve">id: store.id, name: store.name, price: store.price, </v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="str">
         <f>IF(Entry!B34=1,Entry!J34&amp;": "&amp;Entry!K34&amp;"; ","")</f>
@@ -4564,7 +4564,7 @@
         <v/>
       </c>
       <c r="H25" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" t="str">
         <f>IF(Entry!G26="x","@PrimaryColumn()"&amp;Entry!$J26&amp;": "&amp;Entry!$K26&amp;"; ","@Column()"&amp;Entry!$J26&amp;": "&amp;Entry!$K26&amp;"; ")</f>
@@ -4575,7 +4575,7 @@
         <v/>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25" s="21"/>
       <c r="O25" s="22" t="str">
@@ -4585,10 +4585,10 @@
       <c r="S25" s="21"/>
       <c r="T25" t="str">
         <f>T5&amp;U5&amp;T6&amp;U6&amp;T7&amp;U7&amp;T8&amp;U8&amp;T9&amp;U9&amp;T10&amp;U10&amp;T11&amp;U11&amp;T12&amp;U12&amp;T13&amp;U13&amp;T14&amp;U14&amp;T15&amp;U15&amp;T16&amp;U16&amp;T17&amp;U17&amp;T18&amp;U18&amp;T19&amp;U19&amp;T20&amp;U20&amp;T21&amp;U21&amp;T22&amp;U22&amp;T23&amp;U23</f>
-        <v xml:space="preserve">name: product.name, price: product.price, </v>
+        <v xml:space="preserve">name: store.name, price: store.price, </v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="str">
         <f>IF(Entry!B35=1,Entry!J35&amp;": "&amp;Entry!K35&amp;"; ","")</f>
@@ -4637,7 +4637,7 @@
         <v/>
       </c>
       <c r="H26" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" t="str">
         <f>IF(Entry!G27="x","@PrimaryColumn()"&amp;Entry!$J27&amp;": "&amp;Entry!$K27&amp;"; ","@Column()"&amp;Entry!$J27&amp;": "&amp;Entry!$K27&amp;"; ")</f>
@@ -4648,7 +4648,7 @@
         <v/>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26" s="21"/>
       <c r="O26" t="str">
@@ -4658,7 +4658,7 @@
       <c r="S26" s="21"/>
       <c r="V26" t="str">
         <f>"import { "&amp;Entry!H1&amp;"Entity } from '../../../shared/database/entities/"&amp;LOWER(Entry!H1)&amp;".entity'; "</f>
-        <v xml:space="preserve">import { ProductEntity } from '../../../shared/database/entities/product.entity'; </v>
+        <v xml:space="preserve">import { StoreEntity } from '../../../shared/database/entities/store.entity'; </v>
       </c>
       <c r="X26" s="21"/>
       <c r="AF26" t="str">
@@ -4708,7 +4708,7 @@
         <v/>
       </c>
       <c r="H27" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" t="str">
         <f>IF(Entry!G28="x","@PrimaryColumn()"&amp;Entry!$J28&amp;": "&amp;Entry!$K28&amp;"; ","@Column()"&amp;Entry!$J28&amp;": "&amp;Entry!$K28&amp;"; ")</f>
@@ -4719,13 +4719,13 @@
         <v/>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" s="21"/>
       <c r="S27" s="21"/>
       <c r="V27" t="str">
         <f>"import { "&amp;Entry!H1&amp;" } from '../../../models/"&amp;LOWER(Entry!H1)&amp;".model'; "</f>
-        <v xml:space="preserve">import { Product } from '../../../models/product.model'; </v>
+        <v xml:space="preserve">import { Store } from '../../../models/store.model'; </v>
       </c>
       <c r="X27" s="21"/>
       <c r="AF27" s="22" t="str">
@@ -4775,7 +4775,7 @@
         <v/>
       </c>
       <c r="H28" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" t="str">
         <f>IF(Entry!G29="x","@PrimaryColumn()"&amp;Entry!$J29&amp;": "&amp;Entry!$K29&amp;"; ","@Column()"&amp;Entry!$J29&amp;": "&amp;Entry!$K29&amp;"; ")</f>
@@ -4786,7 +4786,7 @@
         <v/>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" s="21"/>
       <c r="S28" s="21"/>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="AJ28" t="str">
         <f>AJ9&amp;AJ10&amp;AJ11&amp;AJ12&amp;AJ13&amp;AJ14&amp;AJ15&amp;AJ16&amp;AJ17&amp;AJ18&amp;AJ19&amp;AJ20&amp;AJ21&amp;AJ22&amp;AJ23&amp;AJ24&amp;AJ25&amp;AJ26&amp;AJ27</f>
-        <v xml:space="preserve">if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } </v>
+        <v xml:space="preserve">if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } </v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
@@ -4834,7 +4834,7 @@
         <v/>
       </c>
       <c r="H29" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" t="str">
         <f>IF(Entry!G30="x","@PrimaryColumn()"&amp;Entry!$J30&amp;": "&amp;Entry!$K30&amp;"; ","@Column()"&amp;Entry!$J30&amp;": "&amp;Entry!$K30&amp;"; ")</f>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" s="21"/>
       <c r="S29" s="21"/>
@@ -4877,7 +4877,7 @@
         <v/>
       </c>
       <c r="H30" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" t="str">
         <f>IF(Entry!G31="x","@PrimaryColumn()"&amp;Entry!$J31&amp;": "&amp;Entry!$K31&amp;"; ","@Column()"&amp;Entry!$J31&amp;": "&amp;Entry!$K31&amp;"; ")</f>
@@ -4888,14 +4888,14 @@
         <v/>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M30" s="21"/>
       <c r="S30" s="21"/>
       <c r="X30" s="21"/>
       <c r="AF30" t="str">
         <f>AE7&amp;AF2&amp;AE8&amp;" { "&amp;AF28&amp;" } "</f>
-        <v xml:space="preserve">interface CreateProductParams { name: string; price: number;  } </v>
+        <v xml:space="preserve">interface CreateStoreParams { name: string; price: number;  } </v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
@@ -4924,7 +4924,7 @@
         <v/>
       </c>
       <c r="H31" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" t="str">
         <f>IF(Entry!G32="x","@PrimaryColumn()"&amp;Entry!$J32&amp;": "&amp;Entry!$K32&amp;"; ","@Column()"&amp;Entry!$J32&amp;": "&amp;Entry!$K32&amp;"; ")</f>
@@ -4935,14 +4935,14 @@
         <v/>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M31" s="21"/>
       <c r="S31" s="21"/>
       <c r="X31" s="21"/>
       <c r="AF31" t="str">
         <f>AE7&amp;AF6&amp;AE8&amp;" { "&amp;AF8&amp;AG28&amp;" } "</f>
-        <v xml:space="preserve">interface UpdateProductParams { id: string; name?: string; price?: number;  } </v>
+        <v xml:space="preserve">interface UpdateStoreParams { id: string; name?: string; price?: number;  } </v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
@@ -4971,7 +4971,7 @@
         <v/>
       </c>
       <c r="H32" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" t="str">
         <f>IF(Entry!G33="x","@PrimaryColumn()"&amp;Entry!$J33&amp;": "&amp;Entry!$K33&amp;"; ","@Column()"&amp;Entry!$J33&amp;": "&amp;Entry!$K33&amp;"; ")</f>
@@ -4982,7 +4982,7 @@
         <v/>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M32" s="21"/>
       <c r="S32" s="21"/>
@@ -5018,7 +5018,7 @@
         <v/>
       </c>
       <c r="H33" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" t="str">
         <f>IF(Entry!G34="x","@PrimaryColumn()"&amp;Entry!$J34&amp;": "&amp;Entry!$K34&amp;"; ","@Column()"&amp;Entry!$J34&amp;": "&amp;Entry!$K34&amp;"; ")</f>
@@ -5029,7 +5029,7 @@
         <v/>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M33" s="21"/>
       <c r="S33" s="21"/>
@@ -5061,7 +5061,7 @@
         <v/>
       </c>
       <c r="H34" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" t="str">
         <f>IF(Entry!G35="x","@PrimaryColumn()"&amp;Entry!$J35&amp;": "&amp;Entry!$K35&amp;"; ","@Column()"&amp;Entry!$J35&amp;": "&amp;Entry!$K35&amp;"; ")</f>
@@ -5072,7 +5072,7 @@
         <v/>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M34" s="21"/>
       <c r="S34" s="21"/>
@@ -5104,7 +5104,7 @@
         <v/>
       </c>
       <c r="H35" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" t="str">
         <f>IF(Entry!G36="x","@PrimaryColumn()"&amp;Entry!$J36&amp;": "&amp;Entry!$K36&amp;"; ","@Column()"&amp;Entry!$J36&amp;": "&amp;Entry!$K36&amp;"; ")</f>
@@ -5115,7 +5115,7 @@
         <v/>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35" s="21"/>
       <c r="S35" s="21"/>
@@ -5147,7 +5147,7 @@
         <v/>
       </c>
       <c r="H36" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" t="str">
         <f>IF(Entry!G37="x","@PrimaryColumn()"&amp;Entry!$J37&amp;": "&amp;Entry!$K37&amp;"; ","@Column()"&amp;Entry!$J37&amp;": "&amp;Entry!$K37&amp;"; ")</f>
@@ -5158,7 +5158,7 @@
         <v/>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M36" s="21"/>
       <c r="S36" s="21"/>
@@ -5190,14 +5190,14 @@
         <v xml:space="preserve">entity.name, entity.price, </v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" t="str">
         <f>J18&amp;J19&amp;J20&amp;J21&amp;J22&amp;J23&amp;J24&amp;J25&amp;J26&amp;J27&amp;J28&amp;J29&amp;J30&amp;J31&amp;J32&amp;J33&amp;J34&amp;J35&amp;J36&amp;IF(Entry!P6="x",Engine!J38,"")&amp;IF(Entry!Q6="x",Engine!J39,"")</f>
         <v>@Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M37" s="21"/>
       <c r="S37" s="21"/>
@@ -5210,17 +5210,17 @@
       </c>
       <c r="G38" t="str">
         <f>"public static "&amp;G17&amp;"(entity: any) { const created = new "&amp;Entry!H1&amp;"("&amp;Engine!G37&amp;"); created.id = entity.id; return created; }"</f>
-        <v>public static create(entity: any) { const created = new Product(entity.name, entity.price, ); created.id = entity.id; return created; }</v>
+        <v>public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" s="19" t="str">
         <f>"@CreateDateColumn() created: Date;"</f>
         <v>@CreateDateColumn() created: Date;</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38" s="21"/>
       <c r="S38" s="21"/>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H39" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" s="19" t="str">
         <f>"@UpdateDateColumn() updated: Date;"</f>
         <v>@UpdateDateColumn() updated: Date;</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M39" s="21"/>
       <c r="S39" s="21"/>
@@ -5253,7 +5253,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="104"/>
       <c r="C2" s="105"/>
@@ -5281,7 +5281,7 @@
     <row r="3" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="str">
         <f>Engine!G1&amp;"export class "&amp;Entry!H1&amp;" {"&amp;Engine!B15&amp;" constructor("&amp;Engine!B37&amp;") {"&amp;Engine!C15&amp;Engine!C37&amp;"}"&amp;Engine!D15&amp;Engine!D37&amp;Engine!E15&amp;Engine!E37&amp;Engine!F38&amp;Engine!G38&amp;"}"</f>
-        <v>import { v4 as createUuid } from 'uuid';export class Product {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Product(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
+        <v>import { v4 as createUuid } from 'uuid';export class Store {private _id: string; private _created?: Date;private _updated?: Date; constructor(private _name: string, private _price: number, ) {this._id = createUuid(); this._name = _name; this._price = _price; }public get id(): string {return this._id; } public get created(): Date {return this._created!; }public get updated(): Date {return this._updated!; }public get name(): string {return this._name; } public get price(): number {return this._price; } public set id(id: string) { this._id = id; }public set created(date: Date) {this._created = date; }public set updated(date: Date) {this._updated = date; }public set name(name: string) { this._name = name; }public set price(price: number) { this._price = price; }public toJson() { return { id: this._id, name: this._name, price: this._price,  }; }public static create(entity: any) { const created = new Store(entity.name, entity.price, ); created.id = entity.id; return created; }}</v>
       </c>
       <c r="B3" s="32" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5289,25 +5289,25 @@
       </c>
       <c r="C3" s="33" t="str">
         <f>LOWER(Entry!$H$1)&amp;".model.ts"</f>
-        <v>product.model.ts</v>
+        <v>store.model.ts</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
     </row>
     <row r="6" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="str">
         <f>Engine!L15&amp;"@Entity('"&amp;Entry!K1&amp;"') export class "&amp;Entry!H1&amp;"Entity {"&amp;Engine!J15&amp;Engine!J37&amp;"} // Relacionamentos precisam ser configurados"</f>
-        <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('products') export class ProductEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
+        <v>import { Entity, Column, PrimaryColumn, CreateDateColumn, UpdateDateColumn } from 'typeorm'; @Entity('stores') export class StoreEntity {@PrimaryColumn()id: string; @Column()name: string; @Column()price: number; @CreateDateColumn() created: Date;@UpdateDateColumn() updated: Date;} // Relacionamentos precisam ser configurados</v>
       </c>
       <c r="B6" s="32" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="C6" s="33" t="str">
         <f>LOWER(Entry!$H$1)&amp;".entity.ts"</f>
-        <v>product.entity.ts</v>
+        <v>store.entity.ts</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
     </row>
     <row r="9" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="str">
         <f>Engine!R20&amp;Engine!P1&amp;Engine!P2&amp;"export class "&amp;Entry!H1&amp;Engine!N1&amp;" { "&amp;Engine!Q1&amp;Engine!R1&amp;" }"&amp;Engine!Q2&amp;Engine!R2&amp;" }"&amp;Engine!Q3&amp;Engine!R3&amp;" }"&amp;Engine!Q4&amp;Engine!R4&amp;" }"&amp;Engine!Q5&amp;Engine!R5&amp;" }"&amp;" }"</f>
-        <v>import { CreateProductUseCase } from '../usecases/create-product.usecase'; import { DeleteProductUseCase } from '../usecases/delete-product.usecase'; import { GetProductByIdUseCase } from '../usecases/get-product-by-id.usecase'; import { ListProductsUseCase } from '../usecases/list-products.usecase'; import { UpdateProductUseCase } from '../usecases/update-product.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class ProductController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateProductUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListProductsUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetProductByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateProductUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteProductUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
+        <v>import { CreateStoreUseCase } from '../usecases/create-store.usecase'; import { DeleteStoreUseCase } from '../usecases/delete-store.usecase'; import { GetStoreByIdUseCase } from '../usecases/get-store-by-id.usecase'; import { ListStoresUseCase } from '../usecases/list-stores.usecase'; import { UpdateStoreUseCase } from '../usecases/update-store.usecase'; import { Request, Response } from 'express'; import { ApiResponse } from '../../../shared/util/http-response.adapter'; export class StoreController { public async create(req: Request, res: Response) {try { const { name,price, } = req.body; const result = await new CreateStoreUseCase().execute({ name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async list(req: Request, res: Response) {try { const result = await new ListStoresUseCase().execute(); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async get(req: Request, res: Response) {try { const { id } = req.params; const result = await new GetStoreByIdUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async update(req: Request, res: Response) {try { const { id } = req.params; const { name,price, } = req.body; const result = await new UpdateStoreUseCase().execute({ id,name,price, }); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } }public async delete(req: Request, res: Response) {try { const { id } = req.params; const result = await new DeleteStoreUseCase().execute(id); return ApiResponse.done(res, result); } catch (error: any) { return ApiResponse.serverError(res, error); } } }</v>
       </c>
       <c r="B9" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5341,25 +5341,25 @@
       </c>
       <c r="C9" s="36" t="str">
         <f>LOWER(Entry!$H$1)&amp;".controller.ts"</f>
-        <v>product.controller.ts</v>
+        <v>store.controller.ts</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
+        <v>32</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
     </row>
     <row r="12" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="str">
         <f>Engine!V1&amp;Engine!V26&amp;Engine!V27&amp;" export class "&amp;Entry!H1&amp;Engine!T1&amp;" { "&amp;Engine!W2&amp;Engine!W3&amp;Engine!W4&amp;Engine!W5&amp;Engine!W6&amp;Engine!W7&amp;Engine!W8&amp;" } //Corrigir imports e adicionar outros métodos de acordo com o projeto"</f>
-        <v>import { Database } from '../../../../main/database/database.connection';import { ProductEntity } from '../../../shared/database/entities/product.entity'; import { Product } from '../../../models/product.model';  export class ProductRepository { private connection = Database.connection.getRepository(ProductEntity);public async create(product: Product) { const productEntity = this.connection.create({ id: product.id, name: product.name, price: product.price, }); const results = await  this.connection.save(productEntity); return ProductRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; ProductRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return ProductRepository.toModel(result);}public async update(product: Product) { await this.connection.update({id: product.id, },{name: product.name, price: product.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: ProductEntity | null): Product { return Product.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
+        <v>import { Database } from '../../../../main/database/database.connection';import { StoreEntity } from '../../../shared/database/entities/store.entity'; import { Store } from '../../../models/store.model';  export class StoreRepository { private connection = Database.connection.getRepository(StoreEntity);public async create(store: Store) { const storeEntity = this.connection.create({ id: store.id, name: store.name, price: store.price, }); const results = await  this.connection.save(storeEntity); return StoreRepository.toModel(results);}public async list() { const results = await this.connection.find(); return results.map((entity) =&gt; StoreRepository.toModel(entity));}public async get(id: string) { const result = await this.connection.findOneBy({ id, }); if(!result) { return undefined; } return StoreRepository.toModel(result);}public async update(store: Store) { await this.connection.update({id: store.id, },{name: store.name, price: store.price, });}public async delete(id: string) { const result = await this.connection.delete({ id,}); return result.affected ?? 0; }public static toModel(entity: StoreEntity | null): Store { return Store.create(entity);} } //Corrigir imports e adicionar outros métodos de acordo com o projeto</v>
       </c>
       <c r="B12" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5367,25 +5367,25 @@
       </c>
       <c r="C12" s="36" t="str">
         <f>LOWER(Entry!$H$1)&amp;".repository.ts"</f>
-        <v>product.repository.ts</v>
+        <v>store.repository.ts</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
+        <v>33</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
     </row>
     <row r="15" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="str">
         <f>Engine!AA1&amp;Engine!Z11&amp;Engine!Y2&amp;Engine!Y3&amp;Engine!Y4&amp;Engine!Y5&amp;Engine!Y6&amp;Engine!Y7&amp;Engine!Y8&amp;"} // Necessário configurar os validators e adicionar rotas de acordo com o projeto"</f>
-        <v>import { Router } from 'express'; import { ProductController } from '../controllers/product.controller'; export const productRoutes = () =&gt; { const app = Router(); app.get('/', new ProductController().list);app.get('/:id', new ProductController().get);app.post('/', new ProductController().create);app.put('/:id' ,new ProductController().update);app.delete('/:id' , new ProductController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
+        <v>import { Router } from 'express'; import { StoreController } from '../controllers/store.controller'; export const storeRoutes = () =&gt; { const app = Router(); app.get('/', new StoreController().list);app.get('/:id', new StoreController().get);app.post('/', new StoreController().create);app.put('/:id' ,new StoreController().update);app.delete('/:id' , new StoreController().delete);return app;} // Necessário configurar os validators e adicionar rotas de acordo com o projeto</v>
       </c>
       <c r="B15" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5393,32 +5393,32 @@
       </c>
       <c r="C15" s="36" t="str">
         <f>LOWER(Entry!$H$1)&amp;".routes.ts"</f>
-        <v>product.routes.ts</v>
+        <v>store.routes.ts</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+        <v>40</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
+        <v>36</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
     </row>
     <row r="19" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="str">
         <f>Engine!AG2&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; interface CreateProductParams { name: string; price: number;  }  export class CreateProductUseCase { public async execute(params: CreateProductParams) : Promise&lt;Result&gt; { const product = new Product(params.name, params.price, ); const result = await new ProductRepository().create(product);return Return.created.toJson()(result, 'Product created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created.toJson()(result, 'Store created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B19" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5426,22 +5426,22 @@
       </c>
       <c r="C19" s="36" t="str">
         <f>"create-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>create-product.usecase.ts</v>
+        <v>create-store.usecase.ts</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="105"/>
     </row>
     <row r="21" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="str">
         <f>Engine!AG4&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class GetProductByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new ProductRepository().get(id); if(!result) {return Return.notFound('Product');} return Return.success('Product obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class GetStoreByIdUseCase { public async execute(id: string): Promise&lt;Result&gt; { const result = await new StoreRepository().get(id); if(!result) {return Return.notFound('Store');} return Return.success('Store obtained', result.toJson());}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B21" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="C21" s="36" t="str">
         <f>"get-"&amp;LOWER(Entry!H1)&amp;"-by-id.usecase.ts"</f>
-        <v>get-product-by-id.usecase.ts</v>
+        <v>get-store-by-id.usecase.ts</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="105"/>
     </row>
     <row r="23" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="str">
         <f>Engine!AG5&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class ListProductsUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new ProductRepository().list(); const data = result.map((product) =&gt; product.toJson());return Return.success('Products listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class ListStoresUseCase { public async execute(): Promise&lt;Result&gt; { const result = await new StoreRepository().list(); const data = result.map((store) =&gt; store.toJson());return Return.success('Stores listed' , data);}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B23" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5472,22 +5472,22 @@
       </c>
       <c r="C23" s="36" t="str">
         <f>"list-"&amp;LOWER(Entry!H1)&amp;"s.usecase.ts"</f>
-        <v>list-products.usecase.ts</v>
+        <v>list-stores.usecase.ts</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="105"/>
     </row>
     <row r="25" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="str">
         <f>Engine!AG6&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Product } from '../../../models/product.model'; import { ProductRepository } from '../repositories/product.repository'; import { GetProductByIdUseCase } from './get-product-by-id.usecase';interface UpdateProductParams { id: string; name?: string; price?: number;  } export class UpdateProductUseCase { public async execute(params: UpdateProductParams): Promise&lt;Result&gt; { const product = await new GetProductByIdUseCase().execute(params.id); if(!product) { return Return.notFound('Product');}let newProduct: Product = product.data;if (params.name) { newProduct.name = params.name; } if (params.price) { newProduct.price = params.price; } product.data = newProduct; product.msg = 'Product updated'; await new ProductRepository().update(product.data); return product;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; import { GetStoreByIdUseCase } from './get-store-by-id.usecase';interface UpdateStoreParams { id: string; name?: string; price?: number;  } export class UpdateStoreUseCase { public async execute(params: UpdateStoreParams): Promise&lt;Result&gt; { const store = await new GetStoreByIdUseCase().execute(params.id); if(!store) { return Return.notFound('Store');}let newStore: Store = store.data;if (params.name) { newStore.name = params.name; } if (params.price) { newStore.price = params.price; } store.data = newStore; store.msg = 'Store updated'; await new StoreRepository().update(store.data); return store;}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B25" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5495,22 +5495,22 @@
       </c>
       <c r="C25" s="36" t="str">
         <f>"update-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>update-product.usecase.ts</v>
+        <v>update-store.usecase.ts</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="105"/>
     </row>
     <row r="27" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="str">
         <f>Engine!AG3&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { ProductRepository } from '../repositories/product.repository'; export class DeleteProductUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new ProductRepository().delete(id); if(deleted == 0) { return Return.notFound('Product');}return Return.success('Product deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { StoreRepository } from '../repositories/store.repository'; export class DeleteStoreUseCase { public async execute(id: string): Promise&lt;Result&gt; { const deleted = await new StoreRepository().delete(id); if(deleted == 0) { return Return.notFound('Store');}return Return.success('Store deleted', '');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B27" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5518,18 +5518,25 @@
       </c>
       <c r="C27" s="36" t="str">
         <f>"delete-"&amp;LOWER(Entry!H1)&amp;".usecase.ts"</f>
-        <v>delete-product.usecase.ts</v>
+        <v>delete-store.usecase.ts</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
@@ -5539,13 +5546,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/api-files-maker.xlsx
+++ b/api-files-maker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DevProjects\project-templates\api-template\template-api-ts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RandomProjects\project-templates\api-template\template-api-ts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA960F-B30E-4A79-B3B7-EB62EDFE2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D312CA06-7A29-4268-A019-258DCC84C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{75994CF3-CE13-42EB-B49D-C2778692B7AF}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="48">
   <si>
     <t>fora do constructor</t>
   </si>
@@ -308,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -560,33 +560,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -774,43 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="1"/>
@@ -900,84 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="1"/>
@@ -1098,11 +959,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1158,12 +1203,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,76 +1241,52 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,58 +1295,70 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,13 +1373,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,13 +1418,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,7 +1769,7 @@
   <dimension ref="B1:AG1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,8 +1777,9 @@
     <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="4.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="4.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="2.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
@@ -1762,16 +1796,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="102" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="103"/>
+      <c r="I1" s="99"/>
       <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
@@ -1779,10 +1813,10 @@
         <f>LOWER(H1)&amp;"s"</f>
         <v>stores</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="P1" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="99"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -1792,8 +1826,8 @@
       <c r="L2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="97"/>
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1801,15 +1835,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="P3" s="91" t="s">
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
+      <c r="P3" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="92"/>
+      <c r="Q3" s="88"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -1822,34 +1856,34 @@
     </row>
     <row r="4" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="90"/>
+      <c r="Q4" s="86"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="U4" s="14"/>
@@ -1871,28 +1905,28 @@
         <f t="shared" ref="B5:B14" si="0">COUNTA(I5)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="54" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="20" t="s">
@@ -1911,18 +1945,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="42"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="M6" s="63"/>
-      <c r="P6" s="69" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="41"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="M6" s="55"/>
+      <c r="P6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="62" t="s">
         <v>8</v>
       </c>
       <c r="AD6" s="3"/>
@@ -1935,14 +1969,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="M7" s="64"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="43"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="M7" s="56"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -1962,14 +1996,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="M8" s="65"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="43"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="M8" s="57"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1989,14 +2023,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="M9" s="66"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="43"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="M9" s="58"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2016,14 +2050,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="42"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="M10" s="65"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="M10" s="57"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -2043,14 +2077,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="M11" s="65"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="43"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="M11" s="57"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2070,14 +2104,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="M12" s="67"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="M12" s="59"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2097,14 +2131,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="M13" s="65"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="43"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="M13" s="57"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2124,14 +2158,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-      <c r="M14" s="68"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="44"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="M14" s="60"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2157,35 +2191,35 @@
       <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="93" t="s">
+      <c r="I17" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="AE17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="66" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="1"/>
@@ -2199,23 +2233,23 @@
         <f t="shared" ref="B19:B37" si="1">COUNTA(I19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="71"/>
-      <c r="I19" s="53" t="s">
+      <c r="G19" s="41"/>
+      <c r="I19" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="47" t="s">
         <v>11</v>
       </c>
       <c r="AE19" s="10"/>
@@ -2226,23 +2260,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="I20" s="56" t="s">
+      <c r="G20" s="43"/>
+      <c r="I20" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="50" t="s">
         <v>14</v>
       </c>
       <c r="AE20" s="10"/>
@@ -2253,13 +2287,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="72"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
     </row>
@@ -2268,13 +2302,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="72"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="43"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
     </row>
@@ -2283,13 +2317,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="72"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="43"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
@@ -2298,13 +2332,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="72"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="43"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
     </row>
@@ -2313,13 +2347,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="72"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="43"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
     </row>
@@ -2328,13 +2362,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="72"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="43"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
     </row>
@@ -2343,13 +2377,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="72"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="43"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
@@ -2358,13 +2392,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="72"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="43"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
@@ -2373,13 +2407,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="72"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="43"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
@@ -2388,13 +2422,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="72"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="43"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
     </row>
@@ -2403,13 +2437,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="72"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="43"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
     </row>
@@ -2418,13 +2452,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="72"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="43"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
     </row>
@@ -2433,13 +2467,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="72"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="58"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="43"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
     </row>
@@ -2448,13 +2482,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="72"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="43"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
     </row>
@@ -2463,13 +2497,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="72"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="43"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
     </row>
@@ -2478,13 +2512,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="72"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="43"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
     </row>
@@ -2493,13 +2527,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="61"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="80"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
     </row>
@@ -2633,8 +2667,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="B1:AL39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,11 +2862,8 @@
         <v>CreateStore</v>
       </c>
       <c r="AG2" t="str">
-        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AF30&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created.toJson()"&amp;AK12&amp;" created');}}"</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created.toJson()(result, 'Store created');}}</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>15</v>
+        <f>AG1&amp;AH1&amp;AI1&amp;AJ1&amp;AF30&amp;" export class "&amp;AF2&amp;AE1&amp;" { public async "&amp;AE3&amp;"("&amp;LOWER(AE8)&amp;": "&amp;AF2&amp;AE8&amp;") : Promise&lt;Result&gt; { "&amp;AK9&amp;AK10&amp;"create("&amp;LOWER(Entry!H1)&amp;");"&amp;AK11&amp;"created"&amp;AK12&amp;" created');}}"</f>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result.toJson(), 'Store created');}}</v>
       </c>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
@@ -3680,8 +3711,8 @@
         <v/>
       </c>
       <c r="AK12" t="str">
-        <f>"(result, '"&amp;Entry!H1</f>
-        <v>(result, 'Store</v>
+        <f>"(result.toJson(), '"&amp;Entry!H1</f>
+        <v>(result.toJson(), 'Store</v>
       </c>
       <c r="AL12" t="s">
         <v>15</v>
@@ -5252,8 +5283,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,8 +5306,8 @@
       <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
     </row>
     <row r="3" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="str">
@@ -5293,16 +5324,16 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="str">
@@ -5319,16 +5350,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="str">
@@ -5345,16 +5376,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
     </row>
     <row r="12" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="str">
@@ -5371,16 +5402,16 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
     </row>
     <row r="15" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="str">
@@ -5397,28 +5428,28 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
     </row>
     <row r="19" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="str">
         <f>Engine!AG2&amp;Engine!AF32</f>
-        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created.toJson()(result, 'Store created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
+        <v>import { Result } from '../../../shared/contracts/result.contract'; import { Return } from '../../../shared/util/return.adapter'; import { Store } from '../../../models/store.model'; import { StoreRepository } from '../repositories/store.repository'; interface CreateStoreParams { name: string; price: number;  }  export class CreateStoreUseCase { public async execute(params: CreateStoreParams) : Promise&lt;Result&gt; { const store = new Store(params.name, params.price, ); const result = await new StoreRepository().create(store);return Return.created(result.toJson(), 'Store created');}}// await new CacheRepository().[get(key), set(key, value) ou delete(key)] para manipular os dados em cache utilizando o Redis</v>
       </c>
       <c r="B19" s="35" t="str">
         <f>"&lt;-- Colar dentro de um arquivo .ts - nome sugerido: "</f>
@@ -5433,10 +5464,10 @@
       <c r="A20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="105"/>
+      <c r="B20" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="101"/>
     </row>
     <row r="21" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="str">
@@ -5456,10 +5487,10 @@
       <c r="A22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="105"/>
+      <c r="B22" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="101"/>
     </row>
     <row r="23" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="str">
@@ -5479,10 +5510,10 @@
       <c r="A24" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="105"/>
+      <c r="B24" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="101"/>
     </row>
     <row r="25" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="str">
@@ -5502,10 +5533,10 @@
       <c r="A26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="105"/>
+      <c r="B26" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="101"/>
     </row>
     <row r="27" spans="1:3" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="str">
@@ -5522,11 +5553,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
+      <c r="A28" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
